--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Защита" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="93">
   <si>
     <t>Защита</t>
   </si>
@@ -184,9 +184,6 @@
     <t xml:space="preserve">Неиспр.удал.ДФЗ </t>
   </si>
   <si>
-    <t>Неиспр.удал.ВЫХ.</t>
-  </si>
-  <si>
     <t>Неиспр.вход.ПУСК</t>
   </si>
   <si>
@@ -256,9 +253,6 @@
     <t>Неиспр.контр.КСК</t>
   </si>
   <si>
-    <t xml:space="preserve">Предупр.нет КЧ1 </t>
-  </si>
-  <si>
     <t>Прием блок. Ком.</t>
   </si>
   <si>
@@ -286,7 +280,22 @@
     <t xml:space="preserve">Низкий уров. РЗ </t>
   </si>
   <si>
-    <t xml:space="preserve">Неиспр.нет КЧ1  </t>
+    <t>Неиспр.удал.ВЫХ</t>
+  </si>
+  <si>
+    <t>--- а почему нет?!</t>
+  </si>
+  <si>
+    <t>Неиспр.нет КЧ1  Почему КЧ1 и зачем Неиспр?!</t>
+  </si>
+  <si>
+    <t>Предупр.нет КЧ1   Почему КЧ1?!</t>
+  </si>
+  <si>
+    <t>Предупр.нет КЧ1  Почему КЧ1 ?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неиспр.верс. БСК </t>
   </si>
 </sst>
 </file>
@@ -310,12 +319,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="16">
@@ -545,17 +560,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -575,19 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -622,6 +619,30 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -928,7 +949,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -957,671 +978,671 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="H2" s="9"/>
+      <c r="G2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="10"/>
+      <c r="G3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="10"/>
+      <c r="G4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="10"/>
+      <c r="G5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="G6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="26"/>
+      <c r="D6" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="E7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="10"/>
+      <c r="G7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" s="10"/>
+      <c r="G8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H9" s="10"/>
+      <c r="D9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H10" s="10"/>
+      <c r="D10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="D11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="D12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="D14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H15" s="10"/>
+      <c r="D15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H17" s="12"/>
+      <c r="G17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="28"/>
+      <c r="E18" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="10"/>
+      <c r="D19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H20" s="10"/>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="10"/>
+      <c r="D21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="10"/>
+      <c r="D22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="10"/>
+      <c r="D23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H24" s="10"/>
+      <c r="D24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H26" s="10"/>
+      <c r="D26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H29" s="10"/>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="10"/>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="H32" s="10"/>
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="H33" s="12"/>
+      <c r="D33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1638,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H29" sqref="H28:H29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,607 +1689,607 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="F4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
+      <c r="F10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F14" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="10"/>
+      <c r="D23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="10"/>
+      <c r="D24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="10"/>
+      <c r="D26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="10"/>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="10"/>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="10"/>
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2315,607 +2336,607 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="D2" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="D3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="10"/>
+      <c r="D4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="H5" s="10"/>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="10"/>
+      <c r="D9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
+      <c r="D11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="D13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G14" s="21"/>
-      <c r="H14" s="10"/>
+      <c r="D14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="21"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="22"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="21"/>
-      <c r="H18" s="9"/>
+      <c r="D18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="21"/>
-      <c r="H19" s="10"/>
+      <c r="D19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="21"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="21"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="21"/>
-      <c r="H22" s="10"/>
+      <c r="D22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="10"/>
+      <c r="D23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="15"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G24" s="21"/>
-      <c r="H24" s="10"/>
+      <c r="D24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="15"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="21"/>
-      <c r="H25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="21"/>
-      <c r="H26" s="10"/>
+      <c r="D26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="21"/>
-      <c r="H27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="21"/>
-      <c r="H28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="15"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="21"/>
-      <c r="H29" s="10"/>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="21"/>
-      <c r="H30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="21"/>
-      <c r="H31" s="10"/>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="21"/>
-      <c r="H32" s="10"/>
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="15"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="22"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="16"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2932,8 +2953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2946,601 +2967,601 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="15"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="28"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="28"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="4"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="28"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="20" t="s">
+      <c r="E7" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="20"/>
-      <c r="H7" s="29"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="28"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="10"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="28"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="10"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="10"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="4"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="10"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="4"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7" t="s">
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="4"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="28"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="10"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="14"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
+      <c r="D17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="27" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="4"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="28"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E19" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="E19" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G19" s="7"/>
-      <c r="H19" s="10"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="4"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="28"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G20" s="7"/>
-      <c r="H20" s="10"/>
+      <c r="D20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="4"/>
+      <c r="A21" s="25"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="10"/>
+      <c r="D21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="4"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="28"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="E22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="4"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="28"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="7" t="s">
+      <c r="E23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="10"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="4"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="7" t="s">
+      <c r="E24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="10"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="4"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="28"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F25" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="10"/>
+      <c r="D25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="4"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="28"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="10"/>
+      <c r="D26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="4"/>
+      <c r="A27" s="25"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="10"/>
+      <c r="D27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="4"/>
+      <c r="A28" s="25"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="10"/>
+      <c r="D28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="4"/>
+      <c r="A29" s="25"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="10"/>
+      <c r="D29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="4"/>
+      <c r="A30" s="25"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="10"/>
+      <c r="D30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="4"/>
+      <c r="A31" s="25"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="10"/>
+      <c r="D31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4"/>
+      <c r="A32" s="25"/>
+      <c r="B32" s="28"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F32" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="10"/>
+      <c r="D32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
+      <c r="D33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Защита" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="93">
   <si>
     <t>Защита</t>
   </si>
@@ -621,6 +621,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -638,12 +644,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,10 +999,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1023,8 +1023,8 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1043,8 +1043,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1063,8 +1063,8 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1083,15 +1083,15 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="24" t="s">
         <v>88</v>
       </c>
       <c r="F6" s="19" t="s">
@@ -1103,8 +1103,8 @@
       <c r="H6" s="20"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1123,8 +1123,8 @@
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1143,8 +1143,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1163,8 +1163,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1183,8 +1183,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1203,8 +1203,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1223,8 +1223,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1243,8 +1243,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1263,8 +1263,8 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1283,8 +1283,8 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1303,8 +1303,8 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1323,8 +1323,8 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1345,8 +1345,8 @@
       <c r="H18" s="22"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -1365,8 +1365,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1385,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
@@ -1405,8 +1405,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -1425,8 +1425,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1445,8 +1445,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -1465,8 +1465,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
@@ -1485,8 +1485,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
@@ -1505,8 +1505,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
@@ -1525,8 +1525,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
@@ -1545,8 +1545,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -1585,8 +1585,8 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,8 +1605,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
@@ -1625,8 +1625,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -1659,8 +1659,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,10 +1710,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -1728,12 +1728,14 @@
       <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -1746,30 +1748,34 @@
       <c r="F3" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>92</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="25" t="s">
         <v>89</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="5"/>
+      <c r="G4" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -1782,12 +1788,14 @@
       <c r="F5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1800,12 +1808,14 @@
       <c r="F6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -1818,12 +1828,14 @@
       <c r="F7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -1836,12 +1848,14 @@
       <c r="F8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -1854,12 +1868,14 @@
       <c r="F9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -1872,12 +1888,14 @@
       <c r="F10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -1890,12 +1908,14 @@
       <c r="F11" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
@@ -1908,12 +1928,14 @@
       <c r="F12" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
@@ -1926,30 +1948,34 @@
       <c r="F13" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="31" t="s">
+      <c r="E14" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="F14" s="31" t="s">
+      <c r="F14" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
@@ -1962,12 +1988,14 @@
       <c r="F15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
@@ -1980,12 +2008,14 @@
       <c r="F16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1998,12 +2028,14 @@
       <c r="F17" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="9"/>
+      <c r="G17" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2018,12 +2050,14 @@
       <c r="F18" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>79</v>
+      </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2036,12 +2070,14 @@
       <c r="F19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -2054,12 +2090,14 @@
       <c r="F20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2072,12 +2110,14 @@
       <c r="F21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2090,12 +2130,14 @@
       <c r="F22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2108,12 +2150,14 @@
       <c r="F23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2126,12 +2170,14 @@
       <c r="F24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2144,12 +2190,14 @@
       <c r="F25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2162,12 +2210,14 @@
       <c r="F26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
@@ -2180,12 +2230,14 @@
       <c r="F27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
@@ -2198,12 +2250,14 @@
       <c r="F28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2216,12 +2270,14 @@
       <c r="F29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2234,12 +2290,14 @@
       <c r="F30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2252,12 +2310,14 @@
       <c r="F31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2270,12 +2330,14 @@
       <c r="F32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2288,7 +2350,9 @@
       <c r="F33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="H33" s="10"/>
     </row>
   </sheetData>
@@ -2307,7 +2371,7 @@
   <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2357,10 +2421,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -2375,12 +2439,14 @@
       <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2393,12 +2459,14 @@
       <c r="F3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -2411,12 +2479,14 @@
       <c r="F4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G4" s="15"/>
+      <c r="G4" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -2429,12 +2499,14 @@
       <c r="F5" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -2447,12 +2519,14 @@
       <c r="F6" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="15"/>
+      <c r="G6" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -2465,12 +2539,14 @@
       <c r="F7" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -2483,12 +2559,14 @@
       <c r="F8" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -2501,12 +2579,14 @@
       <c r="F9" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -2519,12 +2599,14 @@
       <c r="F10" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -2537,12 +2619,14 @@
       <c r="F11" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
@@ -2555,12 +2639,14 @@
       <c r="F12" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
@@ -2573,12 +2659,14 @@
       <c r="F13" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>83</v>
+      </c>
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
@@ -2591,12 +2679,14 @@
       <c r="F14" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="15"/>
+      <c r="G14" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
@@ -2609,12 +2699,14 @@
       <c r="F15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="15"/>
+      <c r="G15" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
@@ -2627,12 +2719,14 @@
       <c r="F16" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
@@ -2645,12 +2739,14 @@
       <c r="F17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="16"/>
+      <c r="G17" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -2665,12 +2761,14 @@
       <c r="F18" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="15"/>
+      <c r="G18" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -2683,12 +2781,14 @@
       <c r="F19" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -2701,12 +2801,14 @@
       <c r="F20" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
@@ -2719,12 +2821,14 @@
       <c r="F21" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -2737,12 +2841,14 @@
       <c r="F22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G22" s="15"/>
+      <c r="G22" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -2755,12 +2861,14 @@
       <c r="F23" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="15"/>
+      <c r="G23" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -2773,12 +2881,14 @@
       <c r="F24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="15"/>
+      <c r="G24" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
@@ -2791,12 +2901,14 @@
       <c r="F25" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G25" s="15"/>
+      <c r="G25" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
@@ -2809,12 +2921,14 @@
       <c r="F26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="15"/>
+      <c r="G26" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
@@ -2827,12 +2941,14 @@
       <c r="F27" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G27" s="15"/>
+      <c r="G27" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
@@ -2845,12 +2961,14 @@
       <c r="F28" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="15"/>
+      <c r="G28" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2863,12 +2981,14 @@
       <c r="F29" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G29" s="15"/>
+      <c r="G29" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -2881,12 +3001,14 @@
       <c r="F30" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G30" s="15"/>
+      <c r="G30" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
@@ -2899,12 +3021,14 @@
       <c r="F31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G31" s="15"/>
+      <c r="G31" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
@@ -2917,12 +3041,14 @@
       <c r="F32" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G32" s="15"/>
+      <c r="G32" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>
@@ -2935,7 +3061,9 @@
       <c r="F33" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G33" s="16"/>
+      <c r="G33" s="16" t="s">
+        <v>73</v>
+      </c>
       <c r="H33" s="10"/>
     </row>
   </sheetData>
@@ -2953,8 +3081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2988,10 +3116,10 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -3010,8 +3138,8 @@
       <c r="H2" s="7"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="30"/>
       <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
@@ -3028,8 +3156,8 @@
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="30"/>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
@@ -3046,8 +3174,8 @@
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="28"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="30"/>
       <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
@@ -3064,8 +3192,8 @@
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
@@ -3082,8 +3210,8 @@
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
@@ -3100,8 +3228,8 @@
       <c r="H7" s="23"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="3" t="s">
         <v>15</v>
       </c>
@@ -3118,8 +3246,8 @@
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="30"/>
       <c r="C9" s="3" t="s">
         <v>16</v>
       </c>
@@ -3136,8 +3264,8 @@
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="30"/>
       <c r="C10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3154,8 +3282,8 @@
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="3" t="s">
         <v>18</v>
       </c>
@@ -3172,8 +3300,8 @@
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="30"/>
       <c r="C12" s="3" t="s">
         <v>19</v>
       </c>
@@ -3190,8 +3318,8 @@
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="28"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="30"/>
       <c r="C13" s="3" t="s">
         <v>20</v>
       </c>
@@ -3208,8 +3336,8 @@
       <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="30"/>
       <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
@@ -3226,15 +3354,17 @@
       <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="30"/>
       <c r="C15" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F15" s="5" t="s">
         <v>40</v>
       </c>
@@ -3242,15 +3372,17 @@
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="30"/>
       <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F16" s="5" t="s">
         <v>41</v>
       </c>
@@ -3258,15 +3390,17 @@
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="31"/>
       <c r="C17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="E17" s="9"/>
+      <c r="E17" s="15" t="s">
+        <v>73</v>
+      </c>
       <c r="F17" s="15" t="s">
         <v>73</v>
       </c>
@@ -3274,8 +3408,8 @@
       <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="29" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -3294,8 +3428,8 @@
       <c r="H18" s="7"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="28"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="30"/>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
@@ -3312,8 +3446,8 @@
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
-      <c r="B20" s="28"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="3" t="s">
         <v>11</v>
       </c>
@@ -3330,8 +3464,8 @@
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
@@ -3348,8 +3482,8 @@
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="30"/>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -3366,8 +3500,8 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="30"/>
       <c r="C23" s="3" t="s">
         <v>14</v>
       </c>
@@ -3384,8 +3518,8 @@
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="30"/>
       <c r="C24" s="3" t="s">
         <v>15</v>
       </c>
@@ -3402,8 +3536,8 @@
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="28"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="30"/>
       <c r="C25" s="3" t="s">
         <v>16</v>
       </c>
@@ -3420,8 +3554,8 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
-      <c r="B26" s="28"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="30"/>
       <c r="C26" s="3" t="s">
         <v>17</v>
       </c>
@@ -3438,8 +3572,8 @@
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="30"/>
       <c r="C27" s="3" t="s">
         <v>18</v>
       </c>
@@ -3456,8 +3590,8 @@
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="3" t="s">
         <v>19</v>
       </c>
@@ -3474,8 +3608,8 @@
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="30"/>
       <c r="C29" s="3" t="s">
         <v>20</v>
       </c>
@@ -3492,8 +3626,8 @@
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="30"/>
       <c r="C30" s="3" t="s">
         <v>21</v>
       </c>
@@ -3510,8 +3644,8 @@
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="30"/>
       <c r="C31" s="3" t="s">
         <v>22</v>
       </c>
@@ -3528,8 +3662,8 @@
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="30"/>
       <c r="C32" s="3" t="s">
         <v>23</v>
       </c>
@@ -3546,8 +3680,8 @@
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="31"/>
       <c r="C33" s="4" t="s">
         <v>24</v>
       </c>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Общие" sheetId="4" r:id="rId1"/>
@@ -253,9 +253,6 @@
     <t>Неиспр.вкл. Тест</t>
   </si>
   <si>
-    <t xml:space="preserve">Неиспр.вход.КСК </t>
-  </si>
-  <si>
     <t>Установите часы</t>
   </si>
   <si>
@@ -272,6 +269,9 @@
   </si>
   <si>
     <t>ОПТИКА</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Неиспр.вход. КСК </t>
   </si>
 </sst>
 </file>
@@ -776,24 +776,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -864,9 +846,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -878,11 +857,32 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1189,7 +1189,7 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -1203,8 +1203,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="52"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
@@ -1215,749 +1215,749 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="31"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="21" t="s">
+      <c r="F2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="27">
         <f>H2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H17" si="0">H3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="33">
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="33">
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="E7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="E8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="E9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E10" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="24" t="s">
+      <c r="F10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="E12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="23" t="s">
+      <c r="E13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F13" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="24" t="s">
+      <c r="F13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="23" t="s">
+      <c r="E14" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="24" t="s">
+      <c r="F14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="33">
+      <c r="H14" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="E15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="E16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="34">
+      <c r="D17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="21" t="s">
+      <c r="E18" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="22" t="s">
+      <c r="G18" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="H18" s="32">
+      <c r="H18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="23" t="s">
+      <c r="D19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="33">
+      <c r="G19" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="27">
         <f>H18+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="D20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" ref="H20:H33" si="1">H19+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="D21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="23" t="s">
+      <c r="D23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="G23" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="G23" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="23" t="s">
+      <c r="D24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G24" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="33">
+      <c r="G24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="D25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="33">
+      <c r="D26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="33">
+      <c r="D27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="F28" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="33">
+      <c r="D28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G29" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="33">
+      <c r="D29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="D30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G31" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="D31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="G32" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="D32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="D33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -1990,7 +1990,7 @@
     <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="20.6640625" customWidth="1"/>
-    <col min="8" max="8" width="3" style="35" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3" style="29" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
@@ -2010,8 +2010,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="52"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
@@ -2022,18 +2022,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2048,17 +2048,17 @@
       <c r="F2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="41">
+      <c r="G2" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="35">
         <f>0</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2071,17 +2071,17 @@
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="33">
+      <c r="G3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="27">
         <f>H2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2094,17 +2094,17 @@
       <c r="F4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="33">
+      <c r="G4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H17" si="0">H3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2117,17 +2117,17 @@
       <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="33">
+      <c r="G5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2140,17 +2140,17 @@
       <c r="F6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="G6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2163,17 +2163,17 @@
       <c r="F7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="G7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2186,22 +2186,22 @@
       <c r="F8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="G8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>67</v>
@@ -2209,17 +2209,17 @@
       <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2232,17 +2232,17 @@
       <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="33">
+      <c r="G10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2255,17 +2255,17 @@
       <c r="F11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="33">
+      <c r="G11" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2278,17 +2278,17 @@
       <c r="F12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="33">
+      <c r="G12" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2301,17 +2301,17 @@
       <c r="F13" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="33">
+      <c r="G13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2324,17 +2324,17 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2347,17 +2347,17 @@
       <c r="F15" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2365,22 +2365,22 @@
         <v>56</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2393,17 +2393,17 @@
       <c r="F17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="33">
+      <c r="G17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2413,21 +2413,21 @@
         <v>30</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="G18" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2440,17 +2440,17 @@
       <c r="F19" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="33">
+      <c r="G19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="27">
         <f>H18+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2463,17 +2463,17 @@
       <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" ref="H20:H33" si="1">H19+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2486,17 +2486,17 @@
       <c r="F21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="G21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2509,17 +2509,17 @@
       <c r="F22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2532,17 +2532,17 @@
       <c r="F23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="G23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2555,17 +2555,17 @@
       <c r="F24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="33">
+      <c r="G24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2578,17 +2578,17 @@
       <c r="F25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2601,17 +2601,17 @@
       <c r="F26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="33">
+      <c r="G26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2624,17 +2624,17 @@
       <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="33">
+      <c r="G27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2647,17 +2647,17 @@
       <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="33">
+      <c r="G28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2670,17 +2670,17 @@
       <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="33">
+      <c r="G29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2693,17 +2693,17 @@
       <c r="F30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2716,17 +2716,17 @@
       <c r="F31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="G31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2739,17 +2739,17 @@
       <c r="F32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="G32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2762,10 +2762,10 @@
       <c r="F33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="G33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -2817,9 +2817,9 @@
     <col min="26" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="50" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="53"/>
+    <row r="1" spans="1:8" s="43" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="12" t="s">
         <v>6</v>
       </c>
@@ -2830,42 +2830,42 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="F2" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="32">
+      <c r="H2" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2873,22 +2873,22 @@
         <v>67</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="33">
+        <v>80</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="27">
         <f>H2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2901,17 +2901,17 @@
       <c r="F4" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H17" si="0">H3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2924,17 +2924,17 @@
       <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="33">
+      <c r="G5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2947,17 +2947,17 @@
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="G6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2970,17 +2970,17 @@
       <c r="F7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="G7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2993,17 +2993,17 @@
       <c r="F8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="G8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3016,17 +3016,17 @@
       <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3039,17 +3039,17 @@
       <c r="F10" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3062,17 +3062,17 @@
       <c r="F11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3085,17 +3085,17 @@
       <c r="F12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3108,17 +3108,17 @@
       <c r="F13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="33">
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3131,17 +3131,17 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3154,17 +3154,17 @@
       <c r="F15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3177,17 +3177,17 @@
       <c r="F16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -3200,20 +3200,20 @@
       <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="33">
+      <c r="G17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="39" t="s">
         <v>7</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -3222,19 +3222,19 @@
       <c r="E18" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="47" t="s">
+      <c r="F18" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="31" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -3247,17 +3247,17 @@
       <c r="F19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="33">
+      <c r="G19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="27">
         <f>H18+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3270,17 +3270,17 @@
       <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" ref="H20:H33" si="1">H19+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -3293,17 +3293,17 @@
       <c r="F21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="G21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -3316,17 +3316,17 @@
       <c r="F22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -3339,17 +3339,17 @@
       <c r="F23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="G23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -3362,17 +3362,17 @@
       <c r="F24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="33">
+      <c r="G24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -3385,17 +3385,17 @@
       <c r="F25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -3408,17 +3408,17 @@
       <c r="F26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="33">
+      <c r="G26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -3431,17 +3431,17 @@
       <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="33">
+      <c r="G27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -3454,17 +3454,17 @@
       <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="33">
+      <c r="G28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -3477,17 +3477,17 @@
       <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="33">
+      <c r="G29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -3500,17 +3500,17 @@
       <c r="F30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -3523,17 +3523,17 @@
       <c r="F31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="G31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -3546,17 +3546,17 @@
       <c r="F32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="G32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -3569,10 +3569,10 @@
       <c r="F33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="G33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -3595,8 +3595,8 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3625,8 +3625,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31"/>
-      <c r="B1" s="52"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="44"/>
       <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
@@ -3637,18 +3637,18 @@
         <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G1" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="40"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -3663,16 +3663,16 @@
       <c r="F2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="41">
+      <c r="H2" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -3685,17 +3685,17 @@
       <c r="F3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="27">
         <f>H2+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="51"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -3708,17 +3708,17 @@
       <c r="F4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H4" s="33">
+      <c r="G4" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="27">
         <f t="shared" ref="H4:H17" si="0">H3+1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="51"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3731,17 +3731,17 @@
       <c r="F5" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H5" s="33">
+      <c r="G5" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" s="27">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="51"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -3754,17 +3754,17 @@
       <c r="F6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="33">
+      <c r="G6" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="27">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="51"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -3777,17 +3777,17 @@
       <c r="F7" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="33">
+      <c r="G7" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="27">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -3800,17 +3800,17 @@
       <c r="F8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G8" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="33">
+      <c r="G8" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="27">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -3823,17 +3823,17 @@
       <c r="F9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="33">
+      <c r="G9" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="27">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="51"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -3846,17 +3846,17 @@
       <c r="F10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G10" s="44" t="s">
+      <c r="G10" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="33">
+      <c r="H10" s="27">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="51"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -3869,17 +3869,17 @@
       <c r="F11" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="33">
+      <c r="H11" s="27">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="51"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -3892,17 +3892,17 @@
       <c r="F12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="44" t="s">
+      <c r="G12" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="27">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3910,22 +3910,22 @@
         <v>67</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="33">
+        <v>82</v>
+      </c>
+      <c r="G13" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="27">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -3938,17 +3938,17 @@
       <c r="F14" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="33">
+      <c r="G14" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="51"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -3961,17 +3961,17 @@
       <c r="F15" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="33">
+      <c r="G15" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="27">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="51"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -3984,17 +3984,17 @@
       <c r="F16" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G16" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="33">
+      <c r="G16" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="27">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="16"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="48"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -4007,17 +4007,17 @@
       <c r="F17" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="33">
+      <c r="G17" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="27">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="48"/>
+      <c r="B18" s="50" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -4032,16 +4032,16 @@
       <c r="F18" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="41">
+      <c r="G18" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="35">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -4054,17 +4054,17 @@
       <c r="F19" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G19" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="33">
+      <c r="G19" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="27">
         <f t="shared" ref="H19:H33" si="1">H18+1</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="51"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -4077,17 +4077,17 @@
       <c r="F20" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="33">
+      <c r="G20" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="51"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -4100,17 +4100,17 @@
       <c r="F21" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="33">
+      <c r="G21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="27">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="19"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="51"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -4123,17 +4123,17 @@
       <c r="F22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G22" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="33">
+      <c r="G22" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="51"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -4146,17 +4146,17 @@
       <c r="F23" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="33">
+      <c r="G23" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="27">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="19"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -4169,17 +4169,17 @@
       <c r="F24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G24" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="33">
+      <c r="G24" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="19"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="51"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -4192,17 +4192,17 @@
       <c r="F25" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="33">
+      <c r="G25" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="27">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="19"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="51"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -4215,17 +4215,17 @@
       <c r="F26" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="33">
+      <c r="G26" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="27">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="51"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -4238,17 +4238,17 @@
       <c r="F27" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G27" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="33">
+      <c r="G27" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="27">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="16"/>
-      <c r="B28" s="19"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="51"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -4261,17 +4261,17 @@
       <c r="F28" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G28" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="33">
+      <c r="G28" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="27">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="16"/>
-      <c r="B29" s="19"/>
+      <c r="A29" s="48"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -4284,17 +4284,17 @@
       <c r="F29" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H29" s="33">
+      <c r="G29" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="27">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="16"/>
-      <c r="B30" s="19"/>
+      <c r="A30" s="48"/>
+      <c r="B30" s="51"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -4307,17 +4307,17 @@
       <c r="F30" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="33">
+      <c r="G30" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="16"/>
-      <c r="B31" s="19"/>
+      <c r="A31" s="48"/>
+      <c r="B31" s="51"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -4330,17 +4330,17 @@
       <c r="F31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="33">
+      <c r="G31" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="27">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="16"/>
-      <c r="B32" s="19"/>
+      <c r="A32" s="48"/>
+      <c r="B32" s="51"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -4353,17 +4353,17 @@
       <c r="F32" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="H32" s="33">
+      <c r="G32" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="27">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="17"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="49"/>
+      <c r="B33" s="52"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -4376,10 +4376,10 @@
       <c r="F33" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G33" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="H33" s="34">
+      <c r="G33" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="28">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -1442,30 +1442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,18 +1466,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1529,38 +1493,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1684,6 +1627,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1693,24 +1694,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2017,8 +2017,8 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G139" sqref="G139"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2031,30 +2031,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="50"/>
-      <c r="C1" s="51" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="51" t="s">
+      <c r="D1" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="51" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="49"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2077,8 +2077,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="115"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2100,8 +2100,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="116"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2123,8 +2123,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2169,8 +2169,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="61"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="116"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2192,8 +2192,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2215,8 +2215,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="61"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="116"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2261,8 +2261,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2284,8 +2284,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="61"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2307,8 +2307,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="61"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="116"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2330,8 +2330,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="61"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2353,8 +2353,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="61"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2376,8 +2376,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="61"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="116"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2399,8 +2399,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="61"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2422,8 +2422,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="116"/>
+      <c r="B18" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2446,8 +2446,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="116"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2469,8 +2469,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="61"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2492,8 +2492,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="61"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="116"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2538,8 +2538,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="61"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="61"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2584,8 +2584,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="116"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2607,8 +2607,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2630,8 +2630,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2653,8 +2653,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="116"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2676,8 +2676,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2699,8 +2699,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2722,8 +2722,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="116"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2745,8 +2745,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="62"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="117"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2791,30 +2791,30 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="51" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="E34" s="51" t="s">
+      <c r="E34" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="51" t="s">
+      <c r="F34" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G34" s="53" t="s">
+      <c r="G34" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H34" s="54"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2838,8 +2838,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="46"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
@@ -2861,8 +2861,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="46"/>
+      <c r="A37" s="116"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2884,8 +2884,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="46"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2907,8 +2907,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="46"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2930,8 +2930,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="46"/>
+      <c r="A40" s="116"/>
+      <c r="B40" s="119"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2953,8 +2953,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="46"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="119"/>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2976,8 +2976,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="61"/>
-      <c r="B42" s="46"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="119"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
@@ -2999,8 +2999,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="61"/>
-      <c r="B43" s="46"/>
+      <c r="A43" s="116"/>
+      <c r="B43" s="119"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="61"/>
-      <c r="B44" s="46"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="119"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3045,8 +3045,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45" s="61"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="119"/>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3068,8 +3068,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="116"/>
+      <c r="B46" s="119"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="46"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="119"/>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3114,8 +3114,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="46"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3137,8 +3137,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="46"/>
+      <c r="A49" s="116"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3160,8 +3160,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="61"/>
-      <c r="B50" s="47"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3183,8 +3183,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="61"/>
-      <c r="B51" s="45" t="s">
+      <c r="A51" s="116"/>
+      <c r="B51" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3207,8 +3207,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="61"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="116"/>
+      <c r="B52" s="119"/>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3230,8 +3230,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="61"/>
-      <c r="B53" s="46"/>
+      <c r="A53" s="116"/>
+      <c r="B53" s="119"/>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3253,8 +3253,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="61"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="116"/>
+      <c r="B54" s="119"/>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55" s="61"/>
-      <c r="B55" s="46"/>
+      <c r="A55" s="116"/>
+      <c r="B55" s="119"/>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3299,8 +3299,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56" s="61"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="116"/>
+      <c r="B56" s="119"/>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
@@ -3322,8 +3322,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="61"/>
-      <c r="B57" s="46"/>
+      <c r="A57" s="116"/>
+      <c r="B57" s="119"/>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3345,8 +3345,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58" s="61"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="116"/>
+      <c r="B58" s="119"/>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3368,8 +3368,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59" s="61"/>
-      <c r="B59" s="46"/>
+      <c r="A59" s="116"/>
+      <c r="B59" s="119"/>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
@@ -3391,8 +3391,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A60" s="61"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="116"/>
+      <c r="B60" s="119"/>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3414,8 +3414,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A61" s="61"/>
-      <c r="B61" s="46"/>
+      <c r="A61" s="116"/>
+      <c r="B61" s="119"/>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3437,8 +3437,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A62" s="61"/>
-      <c r="B62" s="46"/>
+      <c r="A62" s="116"/>
+      <c r="B62" s="119"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3460,8 +3460,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A63" s="61"/>
-      <c r="B63" s="46"/>
+      <c r="A63" s="116"/>
+      <c r="B63" s="119"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3483,8 +3483,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" s="61"/>
-      <c r="B64" s="46"/>
+      <c r="A64" s="116"/>
+      <c r="B64" s="119"/>
       <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A65" s="61"/>
-      <c r="B65" s="46"/>
+      <c r="A65" s="116"/>
+      <c r="B65" s="119"/>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
@@ -3529,8 +3529,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="62"/>
-      <c r="B66" s="47"/>
+      <c r="A66" s="117"/>
+      <c r="B66" s="120"/>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3552,30 +3552,30 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="49"/>
-      <c r="B67" s="55"/>
-      <c r="C67" s="56" t="s">
+      <c r="A67" s="41"/>
+      <c r="B67" s="47"/>
+      <c r="C67" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D67" s="56" t="s">
+      <c r="D67" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E67" s="56" t="s">
+      <c r="E67" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="56" t="s">
+      <c r="F67" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G67" s="53" t="s">
+      <c r="G67" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H67" s="57"/>
+      <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="59" t="s">
+      <c r="A68" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="48" t="s">
+      <c r="B68" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3598,8 +3598,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="60"/>
-      <c r="B69" s="46"/>
+      <c r="A69" s="115"/>
+      <c r="B69" s="119"/>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3621,8 +3621,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="61"/>
-      <c r="B70" s="46"/>
+      <c r="A70" s="116"/>
+      <c r="B70" s="119"/>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3644,8 +3644,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="61"/>
-      <c r="B71" s="46"/>
+      <c r="A71" s="116"/>
+      <c r="B71" s="119"/>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3667,8 +3667,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="61"/>
-      <c r="B72" s="46"/>
+      <c r="A72" s="116"/>
+      <c r="B72" s="119"/>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3690,8 +3690,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="61"/>
-      <c r="B73" s="46"/>
+      <c r="A73" s="116"/>
+      <c r="B73" s="119"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3713,8 +3713,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="61"/>
-      <c r="B74" s="46"/>
+      <c r="A74" s="116"/>
+      <c r="B74" s="119"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3736,8 +3736,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="61"/>
-      <c r="B75" s="46"/>
+      <c r="A75" s="116"/>
+      <c r="B75" s="119"/>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3759,8 +3759,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="61"/>
-      <c r="B76" s="46"/>
+      <c r="A76" s="116"/>
+      <c r="B76" s="119"/>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3782,8 +3782,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="61"/>
-      <c r="B77" s="46"/>
+      <c r="A77" s="116"/>
+      <c r="B77" s="119"/>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
@@ -3805,8 +3805,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="61"/>
-      <c r="B78" s="46"/>
+      <c r="A78" s="116"/>
+      <c r="B78" s="119"/>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
@@ -3828,8 +3828,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="61"/>
-      <c r="B79" s="46"/>
+      <c r="A79" s="116"/>
+      <c r="B79" s="119"/>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="61"/>
-      <c r="B80" s="46"/>
+      <c r="A80" s="116"/>
+      <c r="B80" s="119"/>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
@@ -3874,8 +3874,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="61"/>
-      <c r="B81" s="46"/>
+      <c r="A81" s="116"/>
+      <c r="B81" s="119"/>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
@@ -3897,8 +3897,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="61"/>
-      <c r="B82" s="46"/>
+      <c r="A82" s="116"/>
+      <c r="B82" s="119"/>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
@@ -3920,8 +3920,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="61"/>
-      <c r="B83" s="47"/>
+      <c r="A83" s="116"/>
+      <c r="B83" s="120"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -3943,8 +3943,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A84" s="61"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="116"/>
+      <c r="B84" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -3967,8 +3967,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A85" s="61"/>
-      <c r="B85" s="46"/>
+      <c r="A85" s="116"/>
+      <c r="B85" s="119"/>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -3990,8 +3990,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="61"/>
-      <c r="B86" s="46"/>
+      <c r="A86" s="116"/>
+      <c r="B86" s="119"/>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4013,8 +4013,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="61"/>
-      <c r="B87" s="46"/>
+      <c r="A87" s="116"/>
+      <c r="B87" s="119"/>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4036,8 +4036,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A88" s="61"/>
-      <c r="B88" s="46"/>
+      <c r="A88" s="116"/>
+      <c r="B88" s="119"/>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4059,8 +4059,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="61"/>
-      <c r="B89" s="46"/>
+      <c r="A89" s="116"/>
+      <c r="B89" s="119"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4082,8 +4082,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A90" s="61"/>
-      <c r="B90" s="46"/>
+      <c r="A90" s="116"/>
+      <c r="B90" s="119"/>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4105,8 +4105,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="61"/>
-      <c r="B91" s="46"/>
+      <c r="A91" s="116"/>
+      <c r="B91" s="119"/>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4128,8 +4128,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A92" s="61"/>
-      <c r="B92" s="46"/>
+      <c r="A92" s="116"/>
+      <c r="B92" s="119"/>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
@@ -4151,8 +4151,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A93" s="61"/>
-      <c r="B93" s="46"/>
+      <c r="A93" s="116"/>
+      <c r="B93" s="119"/>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A94" s="61"/>
-      <c r="B94" s="46"/>
+      <c r="A94" s="116"/>
+      <c r="B94" s="119"/>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4197,8 +4197,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="61"/>
-      <c r="B95" s="46"/>
+      <c r="A95" s="116"/>
+      <c r="B95" s="119"/>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
@@ -4220,8 +4220,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="61"/>
-      <c r="B96" s="46"/>
+      <c r="A96" s="116"/>
+      <c r="B96" s="119"/>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="61"/>
-      <c r="B97" s="46"/>
+      <c r="A97" s="116"/>
+      <c r="B97" s="119"/>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
@@ -4266,8 +4266,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="61"/>
-      <c r="B98" s="46"/>
+      <c r="A98" s="116"/>
+      <c r="B98" s="119"/>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="62"/>
-      <c r="B99" s="47"/>
+      <c r="A99" s="117"/>
+      <c r="B99" s="120"/>
       <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
@@ -4312,30 +4312,30 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="49"/>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51" t="s">
+      <c r="A100" s="41"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="D100" s="56" t="s">
+      <c r="D100" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E100" s="51" t="s">
+      <c r="E100" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="51" t="s">
+      <c r="F100" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G100" s="58" t="s">
+      <c r="G100" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="54"/>
+      <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A101" s="59" t="s">
+      <c r="A101" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="45" t="s">
+      <c r="B101" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4358,8 +4358,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
-      <c r="B102" s="46"/>
+      <c r="A102" s="115"/>
+      <c r="B102" s="119"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4381,8 +4381,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A103" s="61"/>
-      <c r="B103" s="46"/>
+      <c r="A103" s="116"/>
+      <c r="B103" s="119"/>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4404,8 +4404,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A104" s="61"/>
-      <c r="B104" s="46"/>
+      <c r="A104" s="116"/>
+      <c r="B104" s="119"/>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4427,8 +4427,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A105" s="61"/>
-      <c r="B105" s="46"/>
+      <c r="A105" s="116"/>
+      <c r="B105" s="119"/>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4450,8 +4450,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A106" s="61"/>
-      <c r="B106" s="46"/>
+      <c r="A106" s="116"/>
+      <c r="B106" s="119"/>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4473,8 +4473,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A107" s="61"/>
-      <c r="B107" s="46"/>
+      <c r="A107" s="116"/>
+      <c r="B107" s="119"/>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
@@ -4496,8 +4496,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A108" s="61"/>
-      <c r="B108" s="46"/>
+      <c r="A108" s="116"/>
+      <c r="B108" s="119"/>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4519,8 +4519,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A109" s="61"/>
-      <c r="B109" s="46"/>
+      <c r="A109" s="116"/>
+      <c r="B109" s="119"/>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4542,8 +4542,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="61"/>
-      <c r="B110" s="46"/>
+      <c r="A110" s="116"/>
+      <c r="B110" s="119"/>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4565,8 +4565,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A111" s="61"/>
-      <c r="B111" s="46"/>
+      <c r="A111" s="116"/>
+      <c r="B111" s="119"/>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4588,8 +4588,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A112" s="61"/>
-      <c r="B112" s="46"/>
+      <c r="A112" s="116"/>
+      <c r="B112" s="119"/>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4611,8 +4611,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="61"/>
-      <c r="B113" s="46"/>
+      <c r="A113" s="116"/>
+      <c r="B113" s="119"/>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4634,8 +4634,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A114" s="61"/>
-      <c r="B114" s="46"/>
+      <c r="A114" s="116"/>
+      <c r="B114" s="119"/>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4657,8 +4657,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A115" s="61"/>
-      <c r="B115" s="46"/>
+      <c r="A115" s="116"/>
+      <c r="B115" s="119"/>
       <c r="C115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4680,8 +4680,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="61"/>
-      <c r="B116" s="47"/>
+      <c r="A116" s="116"/>
+      <c r="B116" s="120"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4703,8 +4703,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="61"/>
-      <c r="B117" s="45" t="s">
+      <c r="A117" s="116"/>
+      <c r="B117" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4727,8 +4727,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A118" s="61"/>
-      <c r="B118" s="46"/>
+      <c r="A118" s="116"/>
+      <c r="B118" s="119"/>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
@@ -4750,8 +4750,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="61"/>
-      <c r="B119" s="46"/>
+      <c r="A119" s="116"/>
+      <c r="B119" s="119"/>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
@@ -4773,8 +4773,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A120" s="61"/>
-      <c r="B120" s="46"/>
+      <c r="A120" s="116"/>
+      <c r="B120" s="119"/>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A121" s="61"/>
-      <c r="B121" s="46"/>
+      <c r="A121" s="116"/>
+      <c r="B121" s="119"/>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
@@ -4819,8 +4819,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A122" s="61"/>
-      <c r="B122" s="46"/>
+      <c r="A122" s="116"/>
+      <c r="B122" s="119"/>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
@@ -4842,8 +4842,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="61"/>
-      <c r="B123" s="46"/>
+      <c r="A123" s="116"/>
+      <c r="B123" s="119"/>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
@@ -4865,8 +4865,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A124" s="61"/>
-      <c r="B124" s="46"/>
+      <c r="A124" s="116"/>
+      <c r="B124" s="119"/>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
@@ -4888,8 +4888,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A125" s="61"/>
-      <c r="B125" s="46"/>
+      <c r="A125" s="116"/>
+      <c r="B125" s="119"/>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
@@ -4911,8 +4911,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A126" s="61"/>
-      <c r="B126" s="46"/>
+      <c r="A126" s="116"/>
+      <c r="B126" s="119"/>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
@@ -4934,8 +4934,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A127" s="61"/>
-      <c r="B127" s="46"/>
+      <c r="A127" s="116"/>
+      <c r="B127" s="119"/>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
@@ -4957,8 +4957,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A128" s="61"/>
-      <c r="B128" s="46"/>
+      <c r="A128" s="116"/>
+      <c r="B128" s="119"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -4980,8 +4980,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A129" s="61"/>
-      <c r="B129" s="46"/>
+      <c r="A129" s="116"/>
+      <c r="B129" s="119"/>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
@@ -5003,8 +5003,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A130" s="61"/>
-      <c r="B130" s="46"/>
+      <c r="A130" s="116"/>
+      <c r="B130" s="119"/>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5026,8 +5026,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A131" s="61"/>
-      <c r="B131" s="46"/>
+      <c r="A131" s="116"/>
+      <c r="B131" s="119"/>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
@@ -5049,8 +5049,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="62"/>
-      <c r="B132" s="47"/>
+      <c r="A132" s="117"/>
+      <c r="B132" s="120"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5072,39 +5072,39 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="49"/>
-      <c r="B133" s="55"/>
-      <c r="C133" s="56" t="s">
+      <c r="A133" s="41"/>
+      <c r="B133" s="47"/>
+      <c r="C133" s="48" t="s">
         <v>6</v>
       </c>
-      <c r="D133" s="56" t="s">
+      <c r="D133" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="E133" s="56" t="s">
+      <c r="E133" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="F133" s="56" t="s">
+      <c r="F133" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="G133" s="53" t="s">
+      <c r="G133" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="H133" s="57"/>
+      <c r="H133" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A35:A66"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
     <mergeCell ref="A68:A99"/>
     <mergeCell ref="B68:B83"/>
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="A101:A132"/>
     <mergeCell ref="B101:B116"/>
     <mergeCell ref="B117:B132"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A35:A66"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5168,10 +5168,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5195,8 +5195,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="42"/>
-      <c r="B3" s="46"/>
+      <c r="A3" s="123"/>
+      <c r="B3" s="119"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5218,8 +5218,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="46"/>
+      <c r="A4" s="124"/>
+      <c r="B4" s="119"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5241,8 +5241,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43"/>
-      <c r="B5" s="46"/>
+      <c r="A5" s="124"/>
+      <c r="B5" s="119"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5264,8 +5264,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="43"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="124"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5287,8 +5287,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="43"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="124"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5310,8 +5310,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="43"/>
-      <c r="B8" s="46"/>
+      <c r="A8" s="124"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5333,8 +5333,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="43"/>
-      <c r="B9" s="46"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5356,8 +5356,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="43"/>
-      <c r="B10" s="46"/>
+      <c r="A10" s="124"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5379,8 +5379,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
-      <c r="B11" s="46"/>
+      <c r="A11" s="124"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5402,8 +5402,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="43"/>
-      <c r="B12" s="46"/>
+      <c r="A12" s="124"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5425,8 +5425,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="43"/>
-      <c r="B13" s="46"/>
+      <c r="A13" s="124"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5448,8 +5448,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43"/>
-      <c r="B14" s="46"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="119"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5471,8 +5471,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="43"/>
-      <c r="B15" s="46"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="119"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5494,8 +5494,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="43"/>
-      <c r="B16" s="46"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="119"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5517,8 +5517,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="43"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="124"/>
+      <c r="B17" s="120"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5540,8 +5540,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="43"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="124"/>
+      <c r="B18" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5564,8 +5564,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="43"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="124"/>
+      <c r="B19" s="119"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5587,8 +5587,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="43"/>
-      <c r="B20" s="46"/>
+      <c r="A20" s="124"/>
+      <c r="B20" s="119"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -5610,8 +5610,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="43"/>
-      <c r="B21" s="46"/>
+      <c r="A21" s="124"/>
+      <c r="B21" s="119"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="43"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="124"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5656,8 +5656,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="43"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="124"/>
+      <c r="B23" s="119"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5679,8 +5679,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="43"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="124"/>
+      <c r="B24" s="119"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5702,8 +5702,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="43"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="124"/>
+      <c r="B25" s="119"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5725,8 +5725,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="43"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="124"/>
+      <c r="B26" s="119"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5748,8 +5748,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="124"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5771,8 +5771,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="43"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="124"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -5794,8 +5794,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="43"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="124"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -5817,8 +5817,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="43"/>
-      <c r="B30" s="46"/>
+      <c r="A30" s="124"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -5840,8 +5840,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="43"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="124"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -5863,8 +5863,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="43"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="124"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -5886,8 +5886,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="44"/>
-      <c r="B33" s="47"/>
+      <c r="A33" s="125"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -5957,41 +5957,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="49"/>
-      <c r="B1" s="73" t="s">
+      <c r="A1" s="41"/>
+      <c r="B1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="48" t="s">
         <v>109</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="57"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="52">
         <v>0</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="69" t="s">
+      <c r="C2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="24">
@@ -5999,21 +5999,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74"/>
-      <c r="B3" s="63">
+      <c r="A3" s="126"/>
+      <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="69" t="s">
+      <c r="C3" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="68" t="s">
+      <c r="F3" s="56" t="s">
         <v>84</v>
       </c>
       <c r="G3" s="25">
@@ -6022,21 +6022,21 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74"/>
-      <c r="B4" s="63">
+      <c r="A4" s="126"/>
+      <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="69" t="s">
+      <c r="E4" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="56" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="25">
@@ -6045,21 +6045,21 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="74"/>
-      <c r="B5" s="63">
+      <c r="A5" s="126"/>
+      <c r="B5" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="57" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="25">
@@ -6068,21 +6068,21 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="74"/>
-      <c r="B6" s="63">
+      <c r="A6" s="126"/>
+      <c r="B6" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="69" t="s">
+      <c r="C6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="D6" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="69" t="s">
+      <c r="D6" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G6" s="25">
@@ -6091,21 +6091,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="74"/>
-      <c r="B7" s="63">
+      <c r="A7" s="126"/>
+      <c r="B7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="69" t="s">
+      <c r="E7" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="69" t="s">
+      <c r="F7" s="57" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="25">
@@ -6114,21 +6114,21 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="74"/>
-      <c r="B8" s="63">
+      <c r="A8" s="126"/>
+      <c r="B8" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="57" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="25">
@@ -6137,21 +6137,21 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="74"/>
-      <c r="B9" s="63">
+      <c r="A9" s="126"/>
+      <c r="B9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="D9" s="69" t="s">
+      <c r="D9" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="69" t="s">
+      <c r="F9" s="57" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="25">
@@ -6160,21 +6160,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="74"/>
-      <c r="B10" s="63">
+      <c r="A10" s="126"/>
+      <c r="B10" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="68" t="s">
+      <c r="D10" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="56" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="25">
@@ -6183,21 +6183,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="74"/>
-      <c r="B11" s="63">
+      <c r="A11" s="126"/>
+      <c r="B11" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="68" t="s">
+      <c r="D11" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="69" t="s">
+      <c r="E11" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="F11" s="68" t="s">
+      <c r="F11" s="56" t="s">
         <v>91</v>
       </c>
       <c r="G11" s="25">
@@ -6206,21 +6206,21 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="74"/>
-      <c r="B12" s="63">
+      <c r="A12" s="126"/>
+      <c r="B12" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="69" t="s">
+      <c r="C12" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="68" t="s">
+      <c r="D12" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="69" t="s">
+      <c r="E12" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="56" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="25">
@@ -6229,21 +6229,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="74"/>
-      <c r="B13" s="63">
+      <c r="A13" s="126"/>
+      <c r="B13" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="D13" s="68" t="s">
+      <c r="D13" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="69" t="s">
+      <c r="E13" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="F13" s="68" t="s">
+      <c r="F13" s="56" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="25">
@@ -6252,21 +6252,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="74"/>
-      <c r="B14" s="63">
+      <c r="A14" s="126"/>
+      <c r="B14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="E14" s="69" t="s">
+      <c r="E14" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F14" s="69" t="s">
+      <c r="F14" s="57" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="25">
@@ -6275,21 +6275,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="74"/>
-      <c r="B15" s="63">
+      <c r="A15" s="126"/>
+      <c r="B15" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="69" t="s">
+      <c r="E15" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F15" s="69" t="s">
+      <c r="F15" s="57" t="s">
         <v>94</v>
       </c>
       <c r="G15" s="25">
@@ -6298,21 +6298,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="74"/>
-      <c r="B16" s="63">
+      <c r="A16" s="126"/>
+      <c r="B16" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="69" t="s">
+      <c r="E16" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="69" t="s">
+      <c r="F16" s="57" t="s">
         <v>95</v>
       </c>
       <c r="G16" s="25">
@@ -6321,21 +6321,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="74"/>
-      <c r="B17" s="63">
+      <c r="A17" s="126"/>
+      <c r="B17" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="69" t="s">
+      <c r="D17" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="69" t="s">
+      <c r="E17" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="57" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="25">
@@ -6344,21 +6344,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="74"/>
-      <c r="B18" s="63">
+      <c r="A18" s="126"/>
+      <c r="B18" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="69" t="s">
+      <c r="C18" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="69" t="s">
+      <c r="D18" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="69" t="s">
+      <c r="F18" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="25">
@@ -6367,21 +6367,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="74"/>
-      <c r="B19" s="63">
+      <c r="A19" s="126"/>
+      <c r="B19" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="57" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="25">
@@ -6390,21 +6390,21 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="74"/>
-      <c r="B20" s="63">
+      <c r="A20" s="126"/>
+      <c r="B20" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="69" t="s">
+      <c r="E20" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="69" t="s">
+      <c r="F20" s="57" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="25">
@@ -6413,21 +6413,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="74"/>
-      <c r="B21" s="63">
+      <c r="A21" s="126"/>
+      <c r="B21" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="57" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="25">
@@ -6436,21 +6436,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="74"/>
-      <c r="B22" s="63">
+      <c r="A22" s="126"/>
+      <c r="B22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="69" t="s">
+      <c r="C22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="69" t="s">
+      <c r="E22" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="69" t="s">
+      <c r="F22" s="57" t="s">
         <v>100</v>
       </c>
       <c r="G22" s="25">
@@ -6459,21 +6459,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="74"/>
-      <c r="B23" s="63">
+      <c r="A23" s="126"/>
+      <c r="B23" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="69" t="s">
+      <c r="C23" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="E23" s="69" t="s">
+      <c r="E23" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F23" s="69" t="s">
+      <c r="F23" s="57" t="s">
         <v>101</v>
       </c>
       <c r="G23" s="25">
@@ -6482,21 +6482,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="74"/>
-      <c r="B24" s="63">
+      <c r="A24" s="126"/>
+      <c r="B24" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E24" s="69" t="s">
+      <c r="E24" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="69" t="s">
+      <c r="F24" s="57" t="s">
         <v>102</v>
       </c>
       <c r="G24" s="25">
@@ -6505,21 +6505,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="74"/>
-      <c r="B25" s="63">
+      <c r="A25" s="126"/>
+      <c r="B25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="69" t="s">
+      <c r="D25" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="69" t="s">
+      <c r="E25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="69" t="s">
+      <c r="F25" s="57" t="s">
         <v>103</v>
       </c>
       <c r="G25" s="25">
@@ -6528,45 +6528,45 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="74"/>
-      <c r="B26" s="63">
+      <c r="A26" s="126"/>
+      <c r="B26" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="69" t="s">
+      <c r="C26" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="69" t="s">
+      <c r="E26" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="69" t="s">
+      <c r="F26" s="57" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J26" s="70"/>
+      <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="74"/>
-      <c r="B27" s="63">
+      <c r="A27" s="126"/>
+      <c r="B27" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E27" s="69" t="s">
+      <c r="E27" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="57" t="s">
         <v>105</v>
       </c>
       <c r="G27" s="25">
@@ -6575,21 +6575,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="74"/>
-      <c r="B28" s="63">
+      <c r="A28" s="126"/>
+      <c r="B28" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="69" t="s">
+      <c r="C28" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="E28" s="69" t="s">
+      <c r="E28" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="F28" s="69" t="s">
+      <c r="F28" s="57" t="s">
         <v>106</v>
       </c>
       <c r="G28" s="25">
@@ -6598,21 +6598,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="74"/>
-      <c r="B29" s="63">
+      <c r="A29" s="126"/>
+      <c r="B29" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="E29" s="69" t="s">
+      <c r="E29" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="57" t="s">
         <v>107</v>
       </c>
       <c r="G29" s="25">
@@ -6621,21 +6621,21 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="74"/>
-      <c r="B30" s="63">
+      <c r="A30" s="126"/>
+      <c r="B30" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="69" t="s">
+      <c r="C30" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="E30" s="69" t="s">
+      <c r="E30" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="F30" s="69" t="s">
+      <c r="F30" s="57" t="s">
         <v>108</v>
       </c>
       <c r="G30" s="25">
@@ -6644,21 +6644,21 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="74"/>
-      <c r="B31" s="63">
+      <c r="A31" s="126"/>
+      <c r="B31" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="69" t="s">
+      <c r="C31" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="F31" s="69" t="s">
+      <c r="F31" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G31" s="25">
@@ -6667,21 +6667,21 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="74"/>
-      <c r="B32" s="63">
+      <c r="A32" s="126"/>
+      <c r="B32" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="D32" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="69" t="s">
+      <c r="D32" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="F32" s="69" t="s">
+      <c r="F32" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G32" s="25">
@@ -6690,21 +6690,21 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="74"/>
-      <c r="B33" s="63">
+      <c r="A33" s="126"/>
+      <c r="B33" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="D33" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="69" t="s">
+      <c r="D33" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G33" s="25">
@@ -6713,20 +6713,20 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="75"/>
-      <c r="B34" s="63">
+      <c r="A34" s="127"/>
+      <c r="B34" s="51">
         <v>32</v>
       </c>
-      <c r="C34" s="69" t="s">
+      <c r="C34" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="69" t="s">
+      <c r="D34" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="57" t="s">
         <v>67</v>
       </c>
       <c r="G34" s="25">
@@ -6735,23 +6735,23 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="49"/>
-      <c r="B35" s="73" t="s">
+      <c r="A35" s="41"/>
+      <c r="B35" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="56" t="s">
+      <c r="C35" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="56" t="s">
+      <c r="E35" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="F35" s="53" t="s">
+      <c r="F35" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G35" s="57"/>
+      <c r="G35" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6769,13 +6769,13 @@
   </sheetPr>
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
@@ -6798,80 +6798,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81"/>
-      <c r="B1" s="83" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="110" t="s">
+      <c r="C1" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="68" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="110" t="s">
+      <c r="E1" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="87" t="s">
+      <c r="F1" s="133" t="s">
         <v>111</v>
       </c>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="54"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88" t="s">
+      <c r="A2" s="137"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="K2" s="54"/>
+      <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="128" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="85">
+      <c r="B3" s="65">
         <v>1</v>
       </c>
-      <c r="C3" s="113" t="s">
+      <c r="C3" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="D3" s="113" t="s">
+      <c r="D3" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="113" t="s">
+      <c r="E3" s="92" t="s">
         <v>145</v>
       </c>
-      <c r="F3" s="103" t="s">
+      <c r="F3" s="82" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="126" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="104" t="s">
+      <c r="G3" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="83" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="33">
@@ -6879,33 +6879,33 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="130"/>
-      <c r="B4" s="71">
+      <c r="A4" s="129"/>
+      <c r="B4" s="59">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="77" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="98" t="s">
+      <c r="D4" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="98" t="s">
+      <c r="E4" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="F4" s="96" t="s">
+      <c r="F4" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="G4" s="66" t="s">
+      <c r="G4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H4" s="66" t="s">
+      <c r="H4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="I4" s="66" t="s">
+      <c r="I4" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="76" t="s">
         <v>147</v>
       </c>
       <c r="K4" s="25">
@@ -6914,33 +6914,33 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="130"/>
-      <c r="B5" s="71">
+      <c r="A5" s="129"/>
+      <c r="B5" s="59">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="77" t="s">
         <v>157</v>
       </c>
-      <c r="D5" s="98" t="s">
+      <c r="D5" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="113" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="96" t="s">
+      <c r="F5" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H5" s="66" t="s">
+      <c r="H5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="97" t="s">
+      <c r="J5" s="76" t="s">
         <v>146</v>
       </c>
       <c r="K5" s="25">
@@ -6949,33 +6949,33 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="130"/>
-      <c r="B6" s="71">
+      <c r="A6" s="129"/>
+      <c r="B6" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="137" t="s">
+      <c r="D6" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="137" t="s">
+      <c r="E6" s="113" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="96" t="s">
+      <c r="F6" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="66" t="s">
+      <c r="G6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H6" s="66" t="s">
+      <c r="H6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="I6" s="66" t="s">
+      <c r="I6" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="J6" s="97" t="s">
+      <c r="J6" s="76" t="s">
         <v>148</v>
       </c>
       <c r="K6" s="25">
@@ -6984,33 +6984,33 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="130"/>
-      <c r="B7" s="71">
+      <c r="A7" s="129"/>
+      <c r="B7" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="137" t="s">
+      <c r="C7" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="137" t="s">
+      <c r="D7" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="E7" s="137" t="s">
+      <c r="E7" s="113" t="s">
         <v>149</v>
       </c>
-      <c r="F7" s="96" t="s">
+      <c r="F7" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="G7" s="66" t="s">
+      <c r="G7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="H7" s="66" t="s">
+      <c r="H7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="J7" s="97" t="s">
+      <c r="J7" s="76" t="s">
         <v>152</v>
       </c>
       <c r="K7" s="25">
@@ -7019,33 +7019,33 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="130"/>
-      <c r="B8" s="71">
+      <c r="A8" s="129"/>
+      <c r="B8" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="137" t="s">
+      <c r="C8" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="137" t="s">
+      <c r="D8" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="E8" s="137" t="s">
+      <c r="E8" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="96" t="s">
+      <c r="F8" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="G8" s="66" t="s">
+      <c r="G8" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="H8" s="66" t="s">
+      <c r="H8" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="J8" s="97" t="s">
+      <c r="J8" s="76" t="s">
         <v>186</v>
       </c>
       <c r="K8" s="25">
@@ -7054,33 +7054,33 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="130"/>
-      <c r="B9" s="71">
+      <c r="A9" s="129"/>
+      <c r="B9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="119" t="s">
+      <c r="C9" s="98" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="77" t="s">
         <v>159</v>
       </c>
-      <c r="E9" s="137" t="s">
+      <c r="E9" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="F9" s="96" t="s">
+      <c r="F9" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="G9" s="66" t="s">
+      <c r="G9" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="66" t="s">
+      <c r="H9" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="54" t="s">
         <v>153</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="76" t="s">
         <v>153</v>
       </c>
       <c r="K9" s="25">
@@ -7089,33 +7089,33 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="130"/>
-      <c r="B10" s="71">
+      <c r="A10" s="129"/>
+      <c r="B10" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="98" t="s">
+      <c r="C10" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="132" t="s">
+      <c r="D10" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="108" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="96" t="s">
+      <c r="F10" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="G10" s="66" t="s">
+      <c r="G10" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="H10" s="66" t="s">
+      <c r="H10" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="J10" s="97" t="s">
+      <c r="J10" s="76" t="s">
         <v>154</v>
       </c>
       <c r="K10" s="25">
@@ -7124,33 +7124,33 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="130"/>
-      <c r="B11" s="71">
+      <c r="A11" s="129"/>
+      <c r="B11" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="77" t="s">
         <v>158</v>
       </c>
-      <c r="D11" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="98" t="s">
+      <c r="D11" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="77" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="95" t="s">
+      <c r="F11" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="74" t="s">
         <v>187</v>
       </c>
       <c r="K11" s="25">
@@ -7159,33 +7159,33 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="130"/>
-      <c r="B12" s="71">
+      <c r="A12" s="129"/>
+      <c r="B12" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="77" t="s">
         <v>155</v>
       </c>
-      <c r="D12" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="98" t="s">
+      <c r="D12" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="G12" s="67" t="s">
+      <c r="G12" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H12" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="67" t="s">
+      <c r="I12" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="J12" s="95" t="s">
+      <c r="J12" s="74" t="s">
         <v>155</v>
       </c>
       <c r="K12" s="25">
@@ -7194,33 +7194,33 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="130"/>
-      <c r="B13" s="71">
+      <c r="A13" s="129"/>
+      <c r="B13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C13" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="133" t="s">
+      <c r="D13" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="F13" s="96" t="s">
+      <c r="F13" s="75" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="67" t="s">
+      <c r="G13" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H13" s="67" t="s">
+      <c r="H13" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="67" t="s">
+      <c r="I13" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="J13" s="95" t="s">
+      <c r="J13" s="74" t="s">
         <v>156</v>
       </c>
       <c r="K13" s="25">
@@ -7229,33 +7229,33 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A14" s="130"/>
-      <c r="B14" s="71">
+      <c r="A14" s="129"/>
+      <c r="B14" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="D14" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="137" t="s">
+      <c r="D14" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="113" t="s">
         <v>155</v>
       </c>
-      <c r="F14" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G14" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="67" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="67" t="s">
+      <c r="F14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="J14" s="95" t="s">
+      <c r="J14" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K14" s="25">
@@ -7264,33 +7264,33 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="130"/>
-      <c r="B15" s="71">
+      <c r="A15" s="129"/>
+      <c r="B15" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="125" t="s">
+      <c r="C15" s="104" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="137" t="s">
+      <c r="D15" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="113" t="s">
         <v>156</v>
       </c>
-      <c r="F15" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H15" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I15" s="66" t="s">
+      <c r="F15" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="97" t="s">
+      <c r="J15" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K15" s="25">
@@ -7299,33 +7299,33 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A16" s="130"/>
-      <c r="B16" s="71">
+      <c r="A16" s="129"/>
+      <c r="B16" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="66" t="s">
+      <c r="C16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="J16" s="97" t="s">
+      <c r="J16" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K16" s="25">
@@ -7334,33 +7334,33 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="71">
+      <c r="A17" s="129"/>
+      <c r="B17" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="66" t="s">
+      <c r="C17" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="J17" s="97" t="s">
+      <c r="J17" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K17" s="25">
@@ -7369,33 +7369,33 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="72">
+      <c r="A18" s="129"/>
+      <c r="B18" s="60">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G18" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="66" t="s">
+      <c r="C18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="J18" s="97" t="s">
+      <c r="J18" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K18" s="25">
@@ -7404,33 +7404,33 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A19" s="130"/>
-      <c r="B19" s="72">
+      <c r="A19" s="129"/>
+      <c r="B19" s="60">
         <f>B18+1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="66" t="s">
+      <c r="C19" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="J19" s="97" t="s">
+      <c r="J19" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K19" s="25">
@@ -7439,33 +7439,33 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="130"/>
-      <c r="B20" s="72">
+      <c r="A20" s="129"/>
+      <c r="B20" s="60">
         <f>B19+1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="97" t="s">
+      <c r="C20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="25">
@@ -7474,33 +7474,33 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="131"/>
-      <c r="B21" s="72">
+      <c r="A21" s="130"/>
+      <c r="B21" s="60">
         <f>B20+1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="127" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="100" t="s">
+      <c r="C21" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="J21" s="79" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="25">
@@ -7509,65 +7509,65 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="49"/>
-      <c r="B22" s="57" t="s">
+      <c r="A22" s="41"/>
+      <c r="B22" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="92" t="s">
+      <c r="C22" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="94" t="s">
+      <c r="E22" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="79" t="s">
+      <c r="G22" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="79" t="s">
+      <c r="H22" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="I22" s="79" t="s">
+      <c r="I22" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="J22" s="80" t="s">
+      <c r="J22" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="K22" s="57"/>
+      <c r="K22" s="49"/>
     </row>
     <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="91">
+      <c r="B23" s="70">
         <v>1</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="118" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="103" t="s">
+      <c r="D23" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="G23" s="126" t="s">
+      <c r="G23" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="H23" s="126" t="s">
+      <c r="H23" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="I23" s="126" t="s">
+      <c r="I23" s="105" t="s">
         <v>172</v>
       </c>
-      <c r="J23" s="104" t="s">
+      <c r="J23" s="83" t="s">
         <v>172</v>
       </c>
       <c r="K23" s="24">
@@ -7575,33 +7575,33 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="60"/>
-      <c r="B24" s="86">
+      <c r="A24" s="115"/>
+      <c r="B24" s="66">
         <f>B23+1</f>
         <v>2</v>
       </c>
-      <c r="C24" s="98" t="s">
+      <c r="C24" s="77" t="s">
         <v>173</v>
       </c>
-      <c r="D24" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="96" t="s">
+      <c r="D24" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="75" t="s">
         <v>173</v>
       </c>
-      <c r="G24" s="66" t="s">
+      <c r="G24" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="H24" s="66" t="s">
+      <c r="H24" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="I24" s="66" t="s">
+      <c r="I24" s="54" t="s">
         <v>173</v>
       </c>
-      <c r="J24" s="97" t="s">
+      <c r="J24" s="76" t="s">
         <v>173</v>
       </c>
       <c r="K24" s="25">
@@ -7610,33 +7610,33 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A25" s="61"/>
-      <c r="B25" s="86">
+      <c r="A25" s="116"/>
+      <c r="B25" s="66">
         <f t="shared" ref="B25:B33" si="2">B24+1</f>
         <v>3</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="77" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="96" t="s">
+      <c r="D25" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="G25" s="66" t="s">
+      <c r="G25" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="H25" s="66" t="s">
+      <c r="H25" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="I25" s="66" t="s">
+      <c r="I25" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="J25" s="97" t="s">
+      <c r="J25" s="76" t="s">
         <v>174</v>
       </c>
       <c r="K25" s="25">
@@ -7645,33 +7645,33 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="86">
+      <c r="A26" s="116"/>
+      <c r="B26" s="66">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C26" s="98" t="s">
+      <c r="C26" s="77" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="96" t="s">
+      <c r="D26" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="75" t="s">
         <v>175</v>
       </c>
-      <c r="G26" s="66" t="s">
+      <c r="G26" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H26" s="66" t="s">
+      <c r="H26" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="I26" s="66" t="s">
+      <c r="I26" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="J26" s="97" t="s">
+      <c r="J26" s="76" t="s">
         <v>175</v>
       </c>
       <c r="K26" s="25">
@@ -7680,33 +7680,33 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="61"/>
-      <c r="B27" s="86">
+      <c r="A27" s="116"/>
+      <c r="B27" s="66">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C27" s="132" t="s">
+      <c r="C27" s="108" t="s">
         <v>176</v>
       </c>
-      <c r="D27" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="124" t="s">
+      <c r="D27" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="103" t="s">
         <v>176</v>
       </c>
-      <c r="G27" s="134" t="s">
+      <c r="G27" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="H27" s="134" t="s">
+      <c r="H27" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="I27" s="134" t="s">
+      <c r="I27" s="110" t="s">
         <v>176</v>
       </c>
-      <c r="J27" s="135" t="s">
+      <c r="J27" s="111" t="s">
         <v>176</v>
       </c>
       <c r="K27" s="25">
@@ -7715,33 +7715,33 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="61"/>
-      <c r="B28" s="86">
+      <c r="A28" s="116"/>
+      <c r="B28" s="66">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C28" s="98" t="s">
+      <c r="C28" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="D28" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="97" t="s">
+      <c r="D28" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K28" s="25">
@@ -7750,33 +7750,33 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A29" s="61"/>
-      <c r="B29" s="86">
+      <c r="A29" s="116"/>
+      <c r="B29" s="66">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="D29" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="96" t="s">
+      <c r="D29" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="75" t="s">
         <v>178</v>
       </c>
-      <c r="G29" s="66" t="s">
+      <c r="G29" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="H29" s="66" t="s">
+      <c r="H29" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="I29" s="66" t="s">
+      <c r="I29" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="J29" s="97" t="s">
+      <c r="J29" s="76" t="s">
         <v>178</v>
       </c>
       <c r="K29" s="25">
@@ -7785,33 +7785,33 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A30" s="61"/>
-      <c r="B30" s="86">
+      <c r="A30" s="116"/>
+      <c r="B30" s="66">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C30" s="98" t="s">
+      <c r="C30" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="D30" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="97" t="s">
+      <c r="D30" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K30" s="25">
@@ -7820,33 +7820,33 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A31" s="61"/>
-      <c r="B31" s="86">
+      <c r="A31" s="116"/>
+      <c r="B31" s="66">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C31" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="96" t="s">
+      <c r="C31" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="G31" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="97" t="s">
+      <c r="G31" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K31" s="25">
@@ -7855,33 +7855,33 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
-      <c r="B32" s="86">
+      <c r="A32" s="116"/>
+      <c r="B32" s="66">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C32" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="96" t="s">
+      <c r="C32" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="66" t="s">
+      <c r="G32" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="H32" s="66" t="s">
+      <c r="H32" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="I32" s="66" t="s">
+      <c r="I32" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="J32" s="97" t="s">
+      <c r="J32" s="76" t="s">
         <v>194</v>
       </c>
       <c r="K32" s="25">
@@ -7890,33 +7890,33 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="61"/>
-      <c r="B33" s="86">
+      <c r="A33" s="116"/>
+      <c r="B33" s="66">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C33" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="96" t="s">
+      <c r="C33" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="G33" s="66" t="s">
+      <c r="G33" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="I33" s="66" t="s">
+      <c r="I33" s="54" t="s">
         <v>195</v>
       </c>
-      <c r="J33" s="97" t="s">
+      <c r="J33" s="76" t="s">
         <v>195</v>
       </c>
       <c r="K33" s="25">
@@ -7925,65 +7925,65 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="57" t="s">
+      <c r="A34" s="41"/>
+      <c r="B34" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="92" t="s">
+      <c r="C34" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="94" t="s">
+      <c r="E34" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F34" s="92" t="s">
+      <c r="F34" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="56" t="s">
+      <c r="G34" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="56" t="s">
+      <c r="H34" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="56" t="s">
+      <c r="I34" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J34" s="93" t="s">
+      <c r="J34" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="K34" s="57"/>
+      <c r="K34" s="49"/>
     </row>
     <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="91">
+      <c r="B35" s="70">
         <v>1</v>
       </c>
-      <c r="C35" s="113" t="s">
+      <c r="C35" s="92" t="s">
         <v>161</v>
       </c>
-      <c r="D35" s="111" t="s">
+      <c r="D35" s="90" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="103" t="s">
+      <c r="E35" s="82" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="102" t="s">
+      <c r="F35" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="81" t="s">
         <v>67</v>
       </c>
       <c r="K35" s="24">
@@ -7991,33 +7991,33 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="86">
+      <c r="A36" s="115"/>
+      <c r="B36" s="66">
         <f>B35+1</f>
         <v>2</v>
       </c>
-      <c r="C36" s="117" t="s">
+      <c r="C36" s="96" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="115" t="s">
+      <c r="D36" s="94" t="s">
         <v>163</v>
       </c>
-      <c r="E36" s="107" t="s">
+      <c r="E36" s="86" t="s">
         <v>163</v>
       </c>
-      <c r="F36" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="97" t="s">
+      <c r="F36" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K36" s="25">
@@ -8026,33 +8026,33 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A37" s="61"/>
-      <c r="B37" s="86">
+      <c r="A37" s="116"/>
+      <c r="B37" s="66">
         <f t="shared" ref="B37:B42" si="4">B36+1</f>
         <v>3</v>
       </c>
-      <c r="C37" s="117" t="s">
+      <c r="C37" s="96" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="116" t="s">
+      <c r="D37" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="107" t="s">
+      <c r="E37" s="86" t="s">
         <v>164</v>
       </c>
-      <c r="F37" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="97" t="s">
+      <c r="F37" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K37" s="25">
@@ -8061,33 +8061,33 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A38" s="61"/>
-      <c r="B38" s="86">
+      <c r="A38" s="116"/>
+      <c r="B38" s="66">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C38" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="97" t="s">
+      <c r="C38" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K38" s="25">
@@ -8096,33 +8096,33 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A39" s="61"/>
-      <c r="B39" s="86">
+      <c r="A39" s="116"/>
+      <c r="B39" s="66">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C39" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="97" t="s">
+      <c r="C39" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K39" s="25">
@@ -8131,33 +8131,33 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A40" s="61"/>
-      <c r="B40" s="86">
+      <c r="A40" s="116"/>
+      <c r="B40" s="66">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C40" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="97" t="s">
+      <c r="C40" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K40" s="25">
@@ -8166,33 +8166,33 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A41" s="61"/>
-      <c r="B41" s="86">
+      <c r="A41" s="116"/>
+      <c r="B41" s="66">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C41" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="97" t="s">
+      <c r="C41" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K41" s="25">
@@ -8201,33 +8201,33 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="61"/>
-      <c r="B42" s="86">
+      <c r="A42" s="116"/>
+      <c r="B42" s="66">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C42" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="97" t="s">
+      <c r="C42" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K42" s="25">
@@ -8236,65 +8236,65 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="49"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="41"/>
+      <c r="B43" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="D43" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="94" t="s">
+      <c r="E43" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="92" t="s">
+      <c r="F43" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="56" t="s">
+      <c r="H43" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="56" t="s">
+      <c r="I43" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J43" s="93" t="s">
+      <c r="J43" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="K43" s="57"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A44" s="59" t="s">
+      <c r="A44" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="91">
+      <c r="B44" s="70">
         <v>1</v>
       </c>
-      <c r="C44" s="113" t="s">
+      <c r="C44" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="D44" s="111" t="s">
+      <c r="D44" s="90" t="s">
         <v>166</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E44" s="82" t="s">
         <v>166</v>
       </c>
-      <c r="F44" s="128" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="65" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="102" t="s">
+      <c r="F44" s="107" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="81" t="s">
         <v>67</v>
       </c>
       <c r="K44" s="24">
@@ -8302,33 +8302,33 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A45" s="60"/>
-      <c r="B45" s="86">
+      <c r="A45" s="115"/>
+      <c r="B45" s="66">
         <f>B44+1</f>
         <v>2</v>
       </c>
-      <c r="C45" s="98" t="s">
+      <c r="C45" s="77" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="105" t="s">
+      <c r="D45" s="84" t="s">
         <v>167</v>
       </c>
-      <c r="E45" s="96" t="s">
+      <c r="E45" s="75" t="s">
         <v>167</v>
       </c>
-      <c r="F45" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="97" t="s">
+      <c r="F45" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K45" s="25">
@@ -8337,33 +8337,33 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A46" s="61"/>
-      <c r="B46" s="86">
+      <c r="A46" s="116"/>
+      <c r="B46" s="66">
         <f t="shared" ref="B46:B51" si="6">B45+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="96" t="s">
+      <c r="C46" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="75" t="s">
         <v>168</v>
       </c>
-      <c r="F46" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="97" t="s">
+      <c r="F46" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K46" s="25">
@@ -8372,33 +8372,33 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="61"/>
-      <c r="B47" s="86">
+      <c r="A47" s="116"/>
+      <c r="B47" s="66">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C47" s="114" t="s">
+      <c r="C47" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="D47" s="112" t="s">
+      <c r="D47" s="91" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="109" t="s">
+      <c r="E47" s="88" t="s">
         <v>169</v>
       </c>
-      <c r="F47" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="97" t="s">
+      <c r="F47" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H47" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I47" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J47" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="25">
@@ -8407,33 +8407,33 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="61"/>
-      <c r="B48" s="86">
+      <c r="A48" s="116"/>
+      <c r="B48" s="66">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C48" s="114" t="s">
+      <c r="C48" s="93" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="112" t="s">
+      <c r="D48" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="E48" s="109" t="s">
+      <c r="E48" s="88" t="s">
         <v>163</v>
       </c>
-      <c r="F48" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="97" t="s">
+      <c r="F48" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K48" s="25">
@@ -8442,33 +8442,33 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="61"/>
-      <c r="B49" s="86">
+      <c r="A49" s="116"/>
+      <c r="B49" s="66">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C49" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J49" s="97" t="s">
+      <c r="C49" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F49" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K49" s="25">
@@ -8477,33 +8477,33 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="61"/>
-      <c r="B50" s="86">
+      <c r="A50" s="116"/>
+      <c r="B50" s="66">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C50" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J50" s="97" t="s">
+      <c r="C50" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K50" s="25">
@@ -8512,33 +8512,33 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="61"/>
-      <c r="B51" s="86">
+      <c r="A51" s="116"/>
+      <c r="B51" s="66">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="C51" s="98" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="96" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="97" t="s">
+      <c r="C51" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K51" s="25">
@@ -8547,461 +8547,461 @@
       </c>
     </row>
     <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="49"/>
-      <c r="B52" s="57" t="s">
+      <c r="A52" s="41"/>
+      <c r="B52" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="92" t="s">
+      <c r="C52" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="D52" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="92" t="s">
+      <c r="F52" s="71" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="56" t="s">
+      <c r="G52" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="56" t="s">
+      <c r="H52" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="56" t="s">
+      <c r="I52" s="48" t="s">
         <v>184</v>
       </c>
-      <c r="J52" s="93" t="s">
+      <c r="J52" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="K52" s="57"/>
-    </row>
-    <row r="53" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="70"/>
-      <c r="C53" s="120" t="s">
+      <c r="K52" s="49"/>
+    </row>
+    <row r="53" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A53" s="58"/>
+      <c r="C53" s="99" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A54" s="70"/>
-      <c r="C54" s="121" t="s">
+    <row r="54" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A54" s="58"/>
+      <c r="C54" s="100" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A55" s="70"/>
-      <c r="C55" s="122" t="s">
+    <row r="55" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A55" s="58"/>
+      <c r="C55" s="101" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="70"/>
-      <c r="C56" s="123" t="s">
+    <row r="56" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A56" s="58"/>
+      <c r="C56" s="102" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A57" s="70"/>
-      <c r="C57" s="136" t="s">
+    <row r="57" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="58"/>
+      <c r="C57" s="112" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A58" s="70"/>
-    </row>
-    <row r="59" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A59" s="70"/>
-    </row>
-    <row r="60" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="70"/>
-    </row>
-    <row r="61" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A61" s="70"/>
-    </row>
-    <row r="62" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A62" s="70"/>
-    </row>
-    <row r="63" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A63" s="70"/>
-    </row>
-    <row r="64" spans="1:11" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A64" s="70"/>
-    </row>
-    <row r="65" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="70"/>
-    </row>
-    <row r="66" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A66" s="70"/>
-    </row>
-    <row r="67" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A67" s="70"/>
-    </row>
-    <row r="68" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A68" s="70"/>
-    </row>
-    <row r="69" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A69" s="70"/>
-    </row>
-    <row r="70" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A70" s="70"/>
-    </row>
-    <row r="71" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A71" s="70"/>
-    </row>
-    <row r="72" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A72" s="70"/>
-    </row>
-    <row r="73" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A73" s="70"/>
-    </row>
-    <row r="74" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A74" s="70"/>
-    </row>
-    <row r="75" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A75" s="70"/>
-    </row>
-    <row r="76" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A76" s="70"/>
-    </row>
-    <row r="77" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A77" s="70"/>
-    </row>
-    <row r="78" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A78" s="70"/>
-    </row>
-    <row r="79" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A79" s="70"/>
-    </row>
-    <row r="80" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A80" s="70"/>
-    </row>
-    <row r="81" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A81" s="70"/>
-    </row>
-    <row r="82" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A82" s="70"/>
-    </row>
-    <row r="83" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A83" s="70"/>
-    </row>
-    <row r="84" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A84" s="70"/>
-    </row>
-    <row r="85" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A85" s="70"/>
-    </row>
-    <row r="86" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A86" s="70"/>
-    </row>
-    <row r="87" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A87" s="70"/>
-    </row>
-    <row r="88" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A88" s="70"/>
-    </row>
-    <row r="89" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A89" s="70"/>
-    </row>
-    <row r="90" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A90" s="70"/>
-    </row>
-    <row r="91" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="70"/>
-    </row>
-    <row r="92" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A92" s="70"/>
-    </row>
-    <row r="93" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A93" s="70"/>
-    </row>
-    <row r="94" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A94" s="70"/>
-    </row>
-    <row r="95" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A95" s="70"/>
-    </row>
-    <row r="96" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A96" s="70"/>
-    </row>
-    <row r="97" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="70"/>
-    </row>
-    <row r="98" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="70"/>
-    </row>
-    <row r="99" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A99" s="70"/>
-    </row>
-    <row r="100" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="70"/>
-    </row>
-    <row r="101" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A101" s="70"/>
-    </row>
-    <row r="102" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A102" s="70"/>
-    </row>
-    <row r="103" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A103" s="70"/>
-    </row>
-    <row r="104" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A104" s="70"/>
-    </row>
-    <row r="105" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="70"/>
-    </row>
-    <row r="106" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="70"/>
-    </row>
-    <row r="107" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="70"/>
-    </row>
-    <row r="108" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="70"/>
-    </row>
-    <row r="109" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="70"/>
-    </row>
-    <row r="110" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="70"/>
-    </row>
-    <row r="111" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="70"/>
-    </row>
-    <row r="112" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="70"/>
-    </row>
-    <row r="113" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A113" s="70"/>
-    </row>
-    <row r="114" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A114" s="70"/>
-    </row>
-    <row r="115" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A115" s="70"/>
-    </row>
-    <row r="116" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A116" s="70"/>
-    </row>
-    <row r="117" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A117" s="70"/>
-    </row>
-    <row r="118" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A118" s="70"/>
-    </row>
-    <row r="119" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A119" s="70"/>
-    </row>
-    <row r="120" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A120" s="70"/>
-    </row>
-    <row r="121" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A121" s="70"/>
-    </row>
-    <row r="122" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A122" s="70"/>
-    </row>
-    <row r="123" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A123" s="70"/>
-    </row>
-    <row r="124" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A124" s="70"/>
-    </row>
-    <row r="125" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A125" s="70"/>
-    </row>
-    <row r="126" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A126" s="70"/>
-    </row>
-    <row r="127" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A127" s="70"/>
-    </row>
-    <row r="128" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A128" s="70"/>
-    </row>
-    <row r="129" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A129" s="70"/>
-    </row>
-    <row r="130" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A130" s="70"/>
-    </row>
-    <row r="131" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A131" s="70"/>
-    </row>
-    <row r="132" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A132" s="70"/>
-    </row>
-    <row r="133" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A133" s="70"/>
-    </row>
-    <row r="134" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A134" s="70"/>
-    </row>
-    <row r="135" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A135" s="70"/>
-    </row>
-    <row r="136" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A136" s="70"/>
-    </row>
-    <row r="137" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A137" s="70"/>
-    </row>
-    <row r="138" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A138" s="70"/>
-    </row>
-    <row r="139" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A139" s="70"/>
-    </row>
-    <row r="140" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A140" s="70"/>
-    </row>
-    <row r="141" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A141" s="70"/>
-    </row>
-    <row r="142" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A142" s="70"/>
-    </row>
-    <row r="143" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A143" s="70"/>
-    </row>
-    <row r="144" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A144" s="70"/>
-    </row>
-    <row r="145" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A145" s="70"/>
-    </row>
-    <row r="146" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A146" s="70"/>
-    </row>
-    <row r="147" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A147" s="70"/>
-    </row>
-    <row r="148" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A148" s="70"/>
-    </row>
-    <row r="149" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A149" s="70"/>
-    </row>
-    <row r="150" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A150" s="70"/>
-    </row>
-    <row r="151" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A151" s="70"/>
-    </row>
-    <row r="152" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A152" s="70"/>
-    </row>
-    <row r="153" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A153" s="70"/>
-    </row>
-    <row r="154" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A154" s="70"/>
-    </row>
-    <row r="155" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A155" s="70"/>
-    </row>
-    <row r="156" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A156" s="70"/>
-    </row>
-    <row r="157" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A157" s="70"/>
-    </row>
-    <row r="158" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A158" s="70"/>
-    </row>
-    <row r="159" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A159" s="70"/>
-    </row>
-    <row r="160" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A160" s="70"/>
-    </row>
-    <row r="161" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A161" s="70"/>
-    </row>
-    <row r="162" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A162" s="70"/>
-    </row>
-    <row r="163" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A163" s="70"/>
-    </row>
-    <row r="164" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A164" s="70"/>
-    </row>
-    <row r="165" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A165" s="70"/>
-    </row>
-    <row r="166" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A166" s="70"/>
-    </row>
-    <row r="167" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A167" s="70"/>
-    </row>
-    <row r="168" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A168" s="70"/>
-    </row>
-    <row r="169" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A169" s="70"/>
-    </row>
-    <row r="170" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A170" s="70"/>
-    </row>
-    <row r="171" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A171" s="70"/>
-    </row>
-    <row r="172" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A172" s="70"/>
-    </row>
-    <row r="173" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A173" s="70"/>
-    </row>
-    <row r="174" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A174" s="70"/>
-    </row>
-    <row r="175" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A175" s="70"/>
-    </row>
-    <row r="176" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A176" s="70"/>
-    </row>
-    <row r="177" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A177" s="70"/>
-    </row>
-    <row r="178" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A178" s="70"/>
-    </row>
-    <row r="179" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A179" s="70"/>
-    </row>
-    <row r="180" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A180" s="70"/>
-    </row>
-    <row r="181" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A181" s="70"/>
-    </row>
-    <row r="182" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A182" s="70"/>
-    </row>
-    <row r="183" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A183" s="70"/>
-    </row>
-    <row r="184" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A184" s="70"/>
-    </row>
-    <row r="185" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A185" s="70"/>
-    </row>
-    <row r="186" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A186" s="70"/>
-    </row>
-    <row r="187" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A187" s="70"/>
-    </row>
-    <row r="188" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A188" s="70"/>
-    </row>
-    <row r="189" spans="1:1" s="108" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A189" s="70"/>
+    <row r="58" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A58" s="58"/>
+    </row>
+    <row r="59" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A59" s="58"/>
+    </row>
+    <row r="60" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="58"/>
+    </row>
+    <row r="61" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A61" s="58"/>
+    </row>
+    <row r="62" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A62" s="58"/>
+    </row>
+    <row r="63" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A63" s="58"/>
+    </row>
+    <row r="64" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A64" s="58"/>
+    </row>
+    <row r="65" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A65" s="58"/>
+    </row>
+    <row r="66" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A66" s="58"/>
+    </row>
+    <row r="67" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="58"/>
+    </row>
+    <row r="68" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A68" s="58"/>
+    </row>
+    <row r="69" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="58"/>
+    </row>
+    <row r="70" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A70" s="58"/>
+    </row>
+    <row r="71" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A71" s="58"/>
+    </row>
+    <row r="72" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A72" s="58"/>
+    </row>
+    <row r="73" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A73" s="58"/>
+    </row>
+    <row r="74" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A74" s="58"/>
+    </row>
+    <row r="75" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A75" s="58"/>
+    </row>
+    <row r="76" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A76" s="58"/>
+    </row>
+    <row r="77" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A77" s="58"/>
+    </row>
+    <row r="78" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A78" s="58"/>
+    </row>
+    <row r="79" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+    </row>
+    <row r="80" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A80" s="58"/>
+    </row>
+    <row r="81" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A81" s="58"/>
+    </row>
+    <row r="82" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A82" s="58"/>
+    </row>
+    <row r="83" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A83" s="58"/>
+    </row>
+    <row r="84" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A84" s="58"/>
+    </row>
+    <row r="85" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A85" s="58"/>
+    </row>
+    <row r="86" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A86" s="58"/>
+    </row>
+    <row r="87" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A87" s="58"/>
+    </row>
+    <row r="88" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="58"/>
+    </row>
+    <row r="89" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A89" s="58"/>
+    </row>
+    <row r="90" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A90" s="58"/>
+    </row>
+    <row r="91" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="58"/>
+    </row>
+    <row r="92" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A92" s="58"/>
+    </row>
+    <row r="93" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A93" s="58"/>
+    </row>
+    <row r="94" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A94" s="58"/>
+    </row>
+    <row r="95" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A95" s="58"/>
+    </row>
+    <row r="96" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A96" s="58"/>
+    </row>
+    <row r="97" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="58"/>
+    </row>
+    <row r="98" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="58"/>
+    </row>
+    <row r="99" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A99" s="58"/>
+    </row>
+    <row r="100" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A100" s="58"/>
+    </row>
+    <row r="101" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A101" s="58"/>
+    </row>
+    <row r="102" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A102" s="58"/>
+    </row>
+    <row r="103" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A103" s="58"/>
+    </row>
+    <row r="104" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A104" s="58"/>
+    </row>
+    <row r="105" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="58"/>
+    </row>
+    <row r="106" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A106" s="58"/>
+    </row>
+    <row r="107" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="58"/>
+    </row>
+    <row r="108" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="58"/>
+    </row>
+    <row r="109" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="58"/>
+    </row>
+    <row r="110" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="58"/>
+    </row>
+    <row r="111" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="58"/>
+    </row>
+    <row r="112" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="58"/>
+    </row>
+    <row r="113" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A113" s="58"/>
+    </row>
+    <row r="114" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A114" s="58"/>
+    </row>
+    <row r="115" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A115" s="58"/>
+    </row>
+    <row r="116" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A116" s="58"/>
+    </row>
+    <row r="117" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A117" s="58"/>
+    </row>
+    <row r="118" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A118" s="58"/>
+    </row>
+    <row r="119" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A119" s="58"/>
+    </row>
+    <row r="120" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A120" s="58"/>
+    </row>
+    <row r="121" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A121" s="58"/>
+    </row>
+    <row r="122" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A122" s="58"/>
+    </row>
+    <row r="123" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A123" s="58"/>
+    </row>
+    <row r="124" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A124" s="58"/>
+    </row>
+    <row r="125" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A125" s="58"/>
+    </row>
+    <row r="126" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A126" s="58"/>
+    </row>
+    <row r="127" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A127" s="58"/>
+    </row>
+    <row r="128" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A128" s="58"/>
+    </row>
+    <row r="129" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A129" s="58"/>
+    </row>
+    <row r="130" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A130" s="58"/>
+    </row>
+    <row r="131" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A131" s="58"/>
+    </row>
+    <row r="132" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A132" s="58"/>
+    </row>
+    <row r="133" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A133" s="58"/>
+    </row>
+    <row r="134" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A134" s="58"/>
+    </row>
+    <row r="135" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A135" s="58"/>
+    </row>
+    <row r="136" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A136" s="58"/>
+    </row>
+    <row r="137" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A137" s="58"/>
+    </row>
+    <row r="138" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A138" s="58"/>
+    </row>
+    <row r="139" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A139" s="58"/>
+    </row>
+    <row r="140" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A140" s="58"/>
+    </row>
+    <row r="141" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A141" s="58"/>
+    </row>
+    <row r="142" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A142" s="58"/>
+    </row>
+    <row r="143" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A143" s="58"/>
+    </row>
+    <row r="144" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A144" s="58"/>
+    </row>
+    <row r="145" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A145" s="58"/>
+    </row>
+    <row r="146" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A146" s="58"/>
+    </row>
+    <row r="147" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A147" s="58"/>
+    </row>
+    <row r="148" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A148" s="58"/>
+    </row>
+    <row r="149" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A149" s="58"/>
+    </row>
+    <row r="150" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A150" s="58"/>
+    </row>
+    <row r="151" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A151" s="58"/>
+    </row>
+    <row r="152" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A152" s="58"/>
+    </row>
+    <row r="153" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A153" s="58"/>
+    </row>
+    <row r="154" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A154" s="58"/>
+    </row>
+    <row r="155" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A155" s="58"/>
+    </row>
+    <row r="156" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A156" s="58"/>
+    </row>
+    <row r="157" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A157" s="58"/>
+    </row>
+    <row r="158" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A158" s="58"/>
+    </row>
+    <row r="159" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A159" s="58"/>
+    </row>
+    <row r="160" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A160" s="58"/>
+    </row>
+    <row r="161" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A161" s="58"/>
+    </row>
+    <row r="162" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A162" s="58"/>
+    </row>
+    <row r="163" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A163" s="58"/>
+    </row>
+    <row r="164" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A164" s="58"/>
+    </row>
+    <row r="165" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A165" s="58"/>
+    </row>
+    <row r="166" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A166" s="58"/>
+    </row>
+    <row r="167" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A167" s="58"/>
+    </row>
+    <row r="168" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A168" s="58"/>
+    </row>
+    <row r="169" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A169" s="58"/>
+    </row>
+    <row r="170" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A170" s="58"/>
+    </row>
+    <row r="171" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A171" s="58"/>
+    </row>
+    <row r="172" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A172" s="58"/>
+    </row>
+    <row r="173" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A173" s="58"/>
+    </row>
+    <row r="174" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A174" s="58"/>
+    </row>
+    <row r="175" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A175" s="58"/>
+    </row>
+    <row r="176" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A176" s="58"/>
+    </row>
+    <row r="177" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A177" s="58"/>
+    </row>
+    <row r="178" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A178" s="58"/>
+    </row>
+    <row r="179" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A179" s="58"/>
+    </row>
+    <row r="180" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A180" s="58"/>
+    </row>
+    <row r="181" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A181" s="58"/>
+    </row>
+    <row r="182" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A182" s="58"/>
+    </row>
+    <row r="183" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A183" s="58"/>
+    </row>
+    <row r="184" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A184" s="58"/>
+    </row>
+    <row r="185" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A185" s="58"/>
+    </row>
+    <row r="186" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="58"/>
+    </row>
+    <row r="187" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A187" s="58"/>
+    </row>
+    <row r="188" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A188" s="58"/>
+    </row>
+    <row r="189" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A189" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="198">
   <si>
     <t>Защита</t>
   </si>
@@ -505,9 +505,6 @@
     <t>Резервирование</t>
   </si>
   <si>
-    <t>Уменьшение усил.ПРМ</t>
-  </si>
-  <si>
     <t>Задержка на фикс.ком</t>
   </si>
   <si>
@@ -614,6 +611,12 @@
   </si>
   <si>
     <t>Параметр - зависит от наличия устройства (ПРД/ПРМ)</t>
+  </si>
+  <si>
+    <t>Загрубл. чувств. ПРМ</t>
+  </si>
+  <si>
+    <t>Загрубл. чувств. РЗ</t>
   </si>
 </sst>
 </file>
@@ -1657,7 +1660,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1666,7 +1669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2017,7 +2020,7 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -2054,7 +2057,7 @@
       <c r="A2" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2423,7 +2426,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="116"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2814,7 +2817,7 @@
       <c r="A35" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3184,7 +3187,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="116"/>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3575,7 +3578,7 @@
       <c r="A68" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3944,7 +3947,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="116"/>
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4335,7 +4338,7 @@
       <c r="A101" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="121" t="s">
+      <c r="B101" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4704,7 +4707,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="116"/>
-      <c r="B117" s="121" t="s">
+      <c r="B117" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5093,18 +5096,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:A99"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="A101:A132"/>
+    <mergeCell ref="B101:B116"/>
+    <mergeCell ref="B117:B132"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A35:A66"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A68:A99"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="A101:A132"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5118,7 +5121,7 @@
   </sheetPr>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
@@ -5171,7 +5174,7 @@
       <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5541,7 +5544,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="124"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5926,7 +5929,7 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
@@ -6769,8 +6772,8 @@
   </sheetPr>
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
@@ -6827,19 +6830,19 @@
       <c r="D2" s="69"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="H2" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="I2" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>184</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>185</v>
       </c>
       <c r="K2" s="46"/>
     </row>
@@ -7034,19 +7037,19 @@
         <v>150</v>
       </c>
       <c r="F8" s="75" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J8" s="76" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="1"/>
@@ -7060,7 +7063,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="98" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="D9" s="77" t="s">
         <v>159</v>
@@ -7100,8 +7103,8 @@
       <c r="D10" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="108" t="s">
-        <v>160</v>
+      <c r="E10" s="98" t="s">
+        <v>196</v>
       </c>
       <c r="F10" s="75" t="s">
         <v>154</v>
@@ -7151,7 +7154,7 @@
         <v>67</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K11" s="25">
         <f t="shared" si="1"/>
@@ -7253,7 +7256,7 @@
         <v>67</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J14" s="74" t="s">
         <v>67</v>
@@ -7288,7 +7291,7 @@
         <v>67</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J15" s="76" t="s">
         <v>67</v>
@@ -7323,7 +7326,7 @@
         <v>67</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J16" s="76" t="s">
         <v>67</v>
@@ -7393,7 +7396,7 @@
         <v>67</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J18" s="76" t="s">
         <v>67</v>
@@ -7428,7 +7431,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J19" s="76" t="s">
         <v>67</v>
@@ -7523,19 +7526,19 @@
         <v>5</v>
       </c>
       <c r="F22" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="G22" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="H22" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="I22" s="63" t="s">
         <v>183</v>
       </c>
-      <c r="I22" s="63" t="s">
+      <c r="J22" s="64" t="s">
         <v>184</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>185</v>
       </c>
       <c r="K22" s="49"/>
     </row>
@@ -7547,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="92" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D23" s="97" t="s">
         <v>67</v>
@@ -7556,19 +7559,19 @@
         <v>67</v>
       </c>
       <c r="F23" s="82" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G23" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H23" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I23" s="105" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J23" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K23" s="24">
         <v>1</v>
@@ -7581,7 +7584,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D24" s="85" t="s">
         <v>67</v>
@@ -7590,19 +7593,19 @@
         <v>67</v>
       </c>
       <c r="F24" s="75" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G24" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H24" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J24" s="76" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="K24" s="25">
         <f>K23+1</f>
@@ -7616,7 +7619,7 @@
         <v>3</v>
       </c>
       <c r="C25" s="77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D25" s="85" t="s">
         <v>67</v>
@@ -7625,19 +7628,19 @@
         <v>67</v>
       </c>
       <c r="F25" s="75" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H25" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I25" s="54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J25" s="76" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="K25" s="25">
         <f t="shared" ref="K25:K33" si="3">K24+1</f>
@@ -7651,7 +7654,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D26" s="85" t="s">
         <v>67</v>
@@ -7660,19 +7663,19 @@
         <v>67</v>
       </c>
       <c r="F26" s="75" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G26" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H26" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I26" s="54" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J26" s="76" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="K26" s="25">
         <f t="shared" si="3"/>
@@ -7686,7 +7689,7 @@
         <v>5</v>
       </c>
       <c r="C27" s="108" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D27" s="85" t="s">
         <v>67</v>
@@ -7695,19 +7698,19 @@
         <v>67</v>
       </c>
       <c r="F27" s="103" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G27" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H27" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I27" s="110" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J27" s="111" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K27" s="25">
         <f t="shared" si="3"/>
@@ -7721,7 +7724,7 @@
         <v>6</v>
       </c>
       <c r="C28" s="77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D28" s="85" t="s">
         <v>67</v>
@@ -7756,7 +7759,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="77" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="D29" s="85" t="s">
         <v>67</v>
@@ -7765,19 +7768,19 @@
         <v>67</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G29" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H29" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I29" s="54" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J29" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K29" s="25">
         <f t="shared" si="3"/>
@@ -7791,7 +7794,7 @@
         <v>8</v>
       </c>
       <c r="C30" s="77" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D30" s="85" t="s">
         <v>67</v>
@@ -7835,7 +7838,7 @@
         <v>67</v>
       </c>
       <c r="F31" s="75" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>67</v>
@@ -7870,19 +7873,19 @@
         <v>67</v>
       </c>
       <c r="F32" s="75" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J32" s="76" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K32" s="25">
         <f t="shared" si="3"/>
@@ -7905,19 +7908,19 @@
         <v>67</v>
       </c>
       <c r="F33" s="75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J33" s="76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K33" s="25">
         <f t="shared" si="3"/>
@@ -7939,19 +7942,19 @@
         <v>5</v>
       </c>
       <c r="F34" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G34" s="48" t="s">
+      <c r="H34" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H34" s="48" t="s">
+      <c r="I34" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I34" s="48" t="s">
+      <c r="J34" s="72" t="s">
         <v>184</v>
-      </c>
-      <c r="J34" s="72" t="s">
-        <v>185</v>
       </c>
       <c r="K34" s="49"/>
     </row>
@@ -7963,13 +7966,13 @@
         <v>1</v>
       </c>
       <c r="C35" s="92" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D35" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E35" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="107" t="s">
         <v>67</v>
@@ -7997,13 +8000,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="96" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="94" t="s">
         <v>162</v>
       </c>
-      <c r="D36" s="94" t="s">
-        <v>163</v>
-      </c>
       <c r="E36" s="86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F36" s="75" t="s">
         <v>67</v>
@@ -8032,13 +8035,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="96" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D37" s="95" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E37" s="86" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F37" s="75" t="s">
         <v>67</v>
@@ -8250,19 +8253,19 @@
         <v>5</v>
       </c>
       <c r="F43" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="G43" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="H43" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="I43" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="J43" s="72" t="s">
         <v>184</v>
-      </c>
-      <c r="J43" s="72" t="s">
-        <v>185</v>
       </c>
       <c r="K43" s="49"/>
     </row>
@@ -8274,13 +8277,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="92" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D44" s="90" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E44" s="82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F44" s="107" t="s">
         <v>67</v>
@@ -8308,13 +8311,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="77" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D45" s="84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F45" s="75" t="s">
         <v>67</v>
@@ -8349,7 +8352,7 @@
         <v>67</v>
       </c>
       <c r="E46" s="75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F46" s="75" t="s">
         <v>67</v>
@@ -8378,13 +8381,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D47" s="91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="88" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="75" t="s">
         <v>67</v>
@@ -8413,13 +8416,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="93" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="91" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E48" s="88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F48" s="75" t="s">
         <v>67</v>
@@ -8561,50 +8564,50 @@
         <v>5</v>
       </c>
       <c r="F52" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="H52" s="48" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="I52" s="48" t="s">
         <v>183</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="J52" s="72" t="s">
         <v>184</v>
-      </c>
-      <c r="J52" s="72" t="s">
-        <v>185</v>
       </c>
       <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A53" s="58"/>
       <c r="C53" s="99" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A54" s="58"/>
       <c r="C54" s="100" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A55" s="58"/>
       <c r="C55" s="101" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A56" s="58"/>
       <c r="C56" s="102" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A57" s="58"/>
       <c r="C57" s="112" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12660" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="200">
   <si>
     <t>Защита</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>Загрубл. чувств. РЗ</t>
+  </si>
+  <si>
+    <t>Ошибка работы ЦС</t>
+  </si>
+  <si>
+    <t>Вход RX ЦС пуст</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1666,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1669,7 +1675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2020,20 +2026,20 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I108" sqref="I108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="20.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.6640625" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
       <c r="B1" s="42"/>
       <c r="C1" s="43" t="s">
@@ -2053,11 +2059,11 @@
       </c>
       <c r="H1" s="41"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2079,7 +2085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="115"/>
       <c r="B3" s="119"/>
       <c r="C3" s="2" t="s">
@@ -2102,7 +2108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="116"/>
       <c r="B4" s="119"/>
       <c r="C4" s="2" t="s">
@@ -2125,7 +2131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="116"/>
       <c r="B5" s="119"/>
       <c r="C5" s="2" t="s">
@@ -2148,7 +2154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="116"/>
       <c r="B6" s="119"/>
       <c r="C6" s="2" t="s">
@@ -2171,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="116"/>
       <c r="B7" s="119"/>
       <c r="C7" s="2" t="s">
@@ -2194,7 +2200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="116"/>
       <c r="B8" s="119"/>
       <c r="C8" s="2" t="s">
@@ -2217,7 +2223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="116"/>
       <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
@@ -2240,7 +2246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="116"/>
       <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
@@ -2263,7 +2269,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="116"/>
       <c r="B11" s="119"/>
       <c r="C11" s="2" t="s">
@@ -2286,7 +2292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="116"/>
       <c r="B12" s="119"/>
       <c r="C12" s="2" t="s">
@@ -2309,7 +2315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="116"/>
       <c r="B13" s="119"/>
       <c r="C13" s="2" t="s">
@@ -2332,7 +2338,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="116"/>
       <c r="B14" s="119"/>
       <c r="C14" s="2" t="s">
@@ -2355,7 +2361,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="116"/>
       <c r="B15" s="119"/>
       <c r="C15" s="2" t="s">
@@ -2378,7 +2384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="116"/>
       <c r="B16" s="119"/>
       <c r="C16" s="2" t="s">
@@ -2401,7 +2407,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="116"/>
       <c r="B17" s="120"/>
       <c r="C17" s="3" t="s">
@@ -2424,9 +2430,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2448,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="116"/>
       <c r="B19" s="119"/>
       <c r="C19" s="2" t="s">
@@ -2471,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="116"/>
       <c r="B20" s="119"/>
       <c r="C20" s="2" t="s">
@@ -2494,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="116"/>
       <c r="B21" s="119"/>
       <c r="C21" s="2" t="s">
@@ -2517,7 +2523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="116"/>
       <c r="B22" s="119"/>
       <c r="C22" s="2" t="s">
@@ -2540,7 +2546,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="116"/>
       <c r="B23" s="119"/>
       <c r="C23" s="2" t="s">
@@ -2563,7 +2569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="116"/>
       <c r="B24" s="119"/>
       <c r="C24" s="2" t="s">
@@ -2586,7 +2592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="116"/>
       <c r="B25" s="119"/>
       <c r="C25" s="2" t="s">
@@ -2609,7 +2615,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="119"/>
       <c r="C26" s="2" t="s">
@@ -2632,7 +2638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="119"/>
       <c r="C27" s="2" t="s">
@@ -2655,7 +2661,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
       <c r="B28" s="119"/>
       <c r="C28" s="2" t="s">
@@ -2678,7 +2684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
       <c r="B29" s="119"/>
       <c r="C29" s="2" t="s">
@@ -2701,7 +2707,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
       <c r="B30" s="119"/>
       <c r="C30" s="2" t="s">
@@ -2724,7 +2730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
       <c r="B31" s="119"/>
       <c r="C31" s="2" t="s">
@@ -2747,7 +2753,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
       <c r="B32" s="119"/>
       <c r="C32" s="2" t="s">
@@ -2770,7 +2776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="117"/>
       <c r="B33" s="120"/>
       <c r="C33" s="3" t="s">
@@ -2793,7 +2799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="42"/>
       <c r="C34" s="43" t="s">
@@ -2813,11 +2819,11 @@
       </c>
       <c r="H34" s="46"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2840,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="119"/>
       <c r="C36" s="2" t="s">
@@ -2863,7 +2869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="116"/>
       <c r="B37" s="119"/>
       <c r="C37" s="2" t="s">
@@ -2886,7 +2892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="116"/>
       <c r="B38" s="119"/>
       <c r="C38" s="2" t="s">
@@ -2909,7 +2915,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
       <c r="B39" s="119"/>
       <c r="C39" s="2" t="s">
@@ -2932,7 +2938,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="116"/>
       <c r="B40" s="119"/>
       <c r="C40" s="2" t="s">
@@ -2955,7 +2961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
       <c r="B41" s="119"/>
       <c r="C41" s="2" t="s">
@@ -2978,7 +2984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="116"/>
       <c r="B42" s="119"/>
       <c r="C42" s="2" t="s">
@@ -3001,7 +3007,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="116"/>
       <c r="B43" s="119"/>
       <c r="C43" s="2" t="s">
@@ -3024,7 +3030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="116"/>
       <c r="B44" s="119"/>
       <c r="C44" s="2" t="s">
@@ -3047,7 +3053,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="116"/>
       <c r="B45" s="119"/>
       <c r="C45" s="2" t="s">
@@ -3070,7 +3076,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
       <c r="B46" s="119"/>
       <c r="C46" s="2" t="s">
@@ -3093,7 +3099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
       <c r="B47" s="119"/>
       <c r="C47" s="2" t="s">
@@ -3116,7 +3122,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="116"/>
       <c r="B48" s="119"/>
       <c r="C48" s="2" t="s">
@@ -3139,7 +3145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="116"/>
       <c r="B49" s="119"/>
       <c r="C49" s="2" t="s">
@@ -3162,7 +3168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="116"/>
       <c r="B50" s="120"/>
       <c r="C50" s="3" t="s">
@@ -3185,9 +3191,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="116"/>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3209,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="116"/>
       <c r="B52" s="119"/>
       <c r="C52" s="2" t="s">
@@ -3232,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="116"/>
       <c r="B53" s="119"/>
       <c r="C53" s="2" t="s">
@@ -3255,7 +3261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="116"/>
       <c r="B54" s="119"/>
       <c r="C54" s="2" t="s">
@@ -3278,7 +3284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="116"/>
       <c r="B55" s="119"/>
       <c r="C55" s="2" t="s">
@@ -3301,7 +3307,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="116"/>
       <c r="B56" s="119"/>
       <c r="C56" s="2" t="s">
@@ -3324,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="116"/>
       <c r="B57" s="119"/>
       <c r="C57" s="2" t="s">
@@ -3347,7 +3353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="116"/>
       <c r="B58" s="119"/>
       <c r="C58" s="2" t="s">
@@ -3370,7 +3376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="116"/>
       <c r="B59" s="119"/>
       <c r="C59" s="2" t="s">
@@ -3393,7 +3399,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="116"/>
       <c r="B60" s="119"/>
       <c r="C60" s="2" t="s">
@@ -3416,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="116"/>
       <c r="B61" s="119"/>
       <c r="C61" s="2" t="s">
@@ -3439,7 +3445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="116"/>
       <c r="B62" s="119"/>
       <c r="C62" s="2" t="s">
@@ -3462,7 +3468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="116"/>
       <c r="B63" s="119"/>
       <c r="C63" s="2" t="s">
@@ -3485,7 +3491,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="116"/>
       <c r="B64" s="119"/>
       <c r="C64" s="2" t="s">
@@ -3508,7 +3514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="116"/>
       <c r="B65" s="119"/>
       <c r="C65" s="2" t="s">
@@ -3531,7 +3537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="117"/>
       <c r="B66" s="120"/>
       <c r="C66" s="3" t="s">
@@ -3554,7 +3560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="41"/>
       <c r="B67" s="47"/>
       <c r="C67" s="48" t="s">
@@ -3574,11 +3580,11 @@
       </c>
       <c r="H67" s="49"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="121" t="s">
+      <c r="B68" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3600,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="115"/>
       <c r="B69" s="119"/>
       <c r="C69" s="2" t="s">
@@ -3623,7 +3629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="116"/>
       <c r="B70" s="119"/>
       <c r="C70" s="2" t="s">
@@ -3646,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="116"/>
       <c r="B71" s="119"/>
       <c r="C71" s="2" t="s">
@@ -3669,7 +3675,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="116"/>
       <c r="B72" s="119"/>
       <c r="C72" s="2" t="s">
@@ -3692,7 +3698,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="116"/>
       <c r="B73" s="119"/>
       <c r="C73" s="2" t="s">
@@ -3715,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="116"/>
       <c r="B74" s="119"/>
       <c r="C74" s="2" t="s">
@@ -3738,7 +3744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="116"/>
       <c r="B75" s="119"/>
       <c r="C75" s="2" t="s">
@@ -3761,7 +3767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="116"/>
       <c r="B76" s="119"/>
       <c r="C76" s="2" t="s">
@@ -3784,7 +3790,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="116"/>
       <c r="B77" s="119"/>
       <c r="C77" s="2" t="s">
@@ -3807,7 +3813,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="116"/>
       <c r="B78" s="119"/>
       <c r="C78" s="2" t="s">
@@ -3830,7 +3836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="116"/>
       <c r="B79" s="119"/>
       <c r="C79" s="2" t="s">
@@ -3853,7 +3859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="116"/>
       <c r="B80" s="119"/>
       <c r="C80" s="2" t="s">
@@ -3876,7 +3882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="116"/>
       <c r="B81" s="119"/>
       <c r="C81" s="2" t="s">
@@ -3899,7 +3905,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="116"/>
       <c r="B82" s="119"/>
       <c r="C82" s="2" t="s">
@@ -3922,7 +3928,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="116"/>
       <c r="B83" s="120"/>
       <c r="C83" s="3" t="s">
@@ -3945,9 +3951,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="116"/>
-      <c r="B84" s="121" t="s">
+      <c r="B84" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -3969,7 +3975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="116"/>
       <c r="B85" s="119"/>
       <c r="C85" s="2" t="s">
@@ -3979,20 +3985,20 @@
         <v>67</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="H85" s="25">
         <f>H84+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="116"/>
       <c r="B86" s="119"/>
       <c r="C86" s="2" t="s">
@@ -4002,20 +4008,20 @@
         <v>67</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="H86" s="25">
         <f t="shared" ref="H86:H99" si="5">H85+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="116"/>
       <c r="B87" s="119"/>
       <c r="C87" s="2" t="s">
@@ -4038,7 +4044,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="116"/>
       <c r="B88" s="119"/>
       <c r="C88" s="2" t="s">
@@ -4061,7 +4067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="116"/>
       <c r="B89" s="119"/>
       <c r="C89" s="2" t="s">
@@ -4084,7 +4090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="116"/>
       <c r="B90" s="119"/>
       <c r="C90" s="2" t="s">
@@ -4107,7 +4113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="116"/>
       <c r="B91" s="119"/>
       <c r="C91" s="2" t="s">
@@ -4130,7 +4136,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="116"/>
       <c r="B92" s="119"/>
       <c r="C92" s="2" t="s">
@@ -4153,7 +4159,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="116"/>
       <c r="B93" s="119"/>
       <c r="C93" s="2" t="s">
@@ -4176,7 +4182,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="116"/>
       <c r="B94" s="119"/>
       <c r="C94" s="2" t="s">
@@ -4199,7 +4205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="116"/>
       <c r="B95" s="119"/>
       <c r="C95" s="2" t="s">
@@ -4222,7 +4228,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="116"/>
       <c r="B96" s="119"/>
       <c r="C96" s="2" t="s">
@@ -4245,7 +4251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="116"/>
       <c r="B97" s="119"/>
       <c r="C97" s="2" t="s">
@@ -4268,7 +4274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="116"/>
       <c r="B98" s="119"/>
       <c r="C98" s="2" t="s">
@@ -4291,7 +4297,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="117"/>
       <c r="B99" s="120"/>
       <c r="C99" s="3" t="s">
@@ -4314,7 +4320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="41"/>
       <c r="B100" s="42"/>
       <c r="C100" s="43" t="s">
@@ -4334,11 +4340,11 @@
       </c>
       <c r="H100" s="46"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4360,7 +4366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="115"/>
       <c r="B102" s="119"/>
       <c r="C102" s="2" t="s">
@@ -4383,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="116"/>
       <c r="B103" s="119"/>
       <c r="C103" s="2" t="s">
@@ -4406,7 +4412,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="116"/>
       <c r="B104" s="119"/>
       <c r="C104" s="2" t="s">
@@ -4429,7 +4435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="116"/>
       <c r="B105" s="119"/>
       <c r="C105" s="2" t="s">
@@ -4452,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="116"/>
       <c r="B106" s="119"/>
       <c r="C106" s="2" t="s">
@@ -4475,7 +4481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="116"/>
       <c r="B107" s="119"/>
       <c r="C107" s="2" t="s">
@@ -4498,7 +4504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="116"/>
       <c r="B108" s="119"/>
       <c r="C108" s="2" t="s">
@@ -4521,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="116"/>
       <c r="B109" s="119"/>
       <c r="C109" s="2" t="s">
@@ -4544,7 +4550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="116"/>
       <c r="B110" s="119"/>
       <c r="C110" s="2" t="s">
@@ -4567,7 +4573,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="116"/>
       <c r="B111" s="119"/>
       <c r="C111" s="2" t="s">
@@ -4590,7 +4596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="116"/>
       <c r="B112" s="119"/>
       <c r="C112" s="2" t="s">
@@ -4613,7 +4619,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="116"/>
       <c r="B113" s="119"/>
       <c r="C113" s="2" t="s">
@@ -4636,7 +4642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="116"/>
       <c r="B114" s="119"/>
       <c r="C114" s="2" t="s">
@@ -4659,7 +4665,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="116"/>
       <c r="B115" s="119"/>
       <c r="C115" s="2" t="s">
@@ -4682,7 +4688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="116"/>
       <c r="B116" s="120"/>
       <c r="C116" s="3" t="s">
@@ -4705,9 +4711,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="116"/>
-      <c r="B117" s="118" t="s">
+      <c r="B117" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4729,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="116"/>
       <c r="B118" s="119"/>
       <c r="C118" s="2" t="s">
@@ -4739,20 +4745,20 @@
         <v>67</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="H118" s="25">
         <f t="shared" ref="H118:H132" si="7">H117+1</f>
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="116"/>
       <c r="B119" s="119"/>
       <c r="C119" s="2" t="s">
@@ -4762,20 +4768,20 @@
         <v>67</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="H119" s="25">
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="116"/>
       <c r="B120" s="119"/>
       <c r="C120" s="2" t="s">
@@ -4798,7 +4804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="116"/>
       <c r="B121" s="119"/>
       <c r="C121" s="2" t="s">
@@ -4821,7 +4827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="116"/>
       <c r="B122" s="119"/>
       <c r="C122" s="2" t="s">
@@ -4844,7 +4850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="116"/>
       <c r="B123" s="119"/>
       <c r="C123" s="2" t="s">
@@ -4867,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="116"/>
       <c r="B124" s="119"/>
       <c r="C124" s="2" t="s">
@@ -4890,7 +4896,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="116"/>
       <c r="B125" s="119"/>
       <c r="C125" s="2" t="s">
@@ -4913,7 +4919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="116"/>
       <c r="B126" s="119"/>
       <c r="C126" s="2" t="s">
@@ -4936,7 +4942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="116"/>
       <c r="B127" s="119"/>
       <c r="C127" s="2" t="s">
@@ -4959,7 +4965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="116"/>
       <c r="B128" s="119"/>
       <c r="C128" s="2" t="s">
@@ -4982,7 +4988,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="116"/>
       <c r="B129" s="119"/>
       <c r="C129" s="2" t="s">
@@ -5005,7 +5011,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="116"/>
       <c r="B130" s="119"/>
       <c r="C130" s="2" t="s">
@@ -5028,7 +5034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="116"/>
       <c r="B131" s="119"/>
       <c r="C131" s="2" t="s">
@@ -5051,7 +5057,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="117"/>
       <c r="B132" s="120"/>
       <c r="C132" s="3" t="s">
@@ -5074,7 +5080,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
       <c r="B133" s="47"/>
       <c r="C133" s="48" t="s">
@@ -5096,18 +5102,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A35:A66"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
     <mergeCell ref="A68:A99"/>
     <mergeCell ref="B68:B83"/>
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="A101:A132"/>
     <mergeCell ref="B101:B116"/>
     <mergeCell ref="B117:B132"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A35:A66"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5125,32 +5131,32 @@
       <selection activeCell="A2" sqref="A2:A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.6640625" customWidth="1"/>
+    <col min="4" max="7" width="20.7109375" customWidth="1"/>
     <col min="8" max="8" width="3" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23"/>
       <c r="B1" s="40"/>
       <c r="C1" s="7" t="s">
@@ -5170,11 +5176,11 @@
       </c>
       <c r="H1" s="32"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5197,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="123"/>
       <c r="B3" s="119"/>
       <c r="C3" s="2" t="s">
@@ -5220,7 +5226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="124"/>
       <c r="B4" s="119"/>
       <c r="C4" s="2" t="s">
@@ -5243,7 +5249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="124"/>
       <c r="B5" s="119"/>
       <c r="C5" s="2" t="s">
@@ -5266,7 +5272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="124"/>
       <c r="B6" s="119"/>
       <c r="C6" s="2" t="s">
@@ -5289,7 +5295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="124"/>
       <c r="B7" s="119"/>
       <c r="C7" s="2" t="s">
@@ -5312,7 +5318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="124"/>
       <c r="B8" s="119"/>
       <c r="C8" s="2" t="s">
@@ -5335,7 +5341,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="124"/>
       <c r="B9" s="119"/>
       <c r="C9" s="2" t="s">
@@ -5358,7 +5364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="124"/>
       <c r="B10" s="119"/>
       <c r="C10" s="2" t="s">
@@ -5381,7 +5387,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="124"/>
       <c r="B11" s="119"/>
       <c r="C11" s="2" t="s">
@@ -5404,7 +5410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="124"/>
       <c r="B12" s="119"/>
       <c r="C12" s="2" t="s">
@@ -5427,7 +5433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="124"/>
       <c r="B13" s="119"/>
       <c r="C13" s="2" t="s">
@@ -5450,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="124"/>
       <c r="B14" s="119"/>
       <c r="C14" s="2" t="s">
@@ -5473,7 +5479,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="124"/>
       <c r="B15" s="119"/>
       <c r="C15" s="2" t="s">
@@ -5496,7 +5502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="124"/>
       <c r="B16" s="119"/>
       <c r="C16" s="2" t="s">
@@ -5519,7 +5525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="124"/>
       <c r="B17" s="120"/>
       <c r="C17" s="3" t="s">
@@ -5542,9 +5548,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="124"/>
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5566,7 +5572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="124"/>
       <c r="B19" s="119"/>
       <c r="C19" s="2" t="s">
@@ -5589,7 +5595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="124"/>
       <c r="B20" s="119"/>
       <c r="C20" s="2" t="s">
@@ -5612,7 +5618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="124"/>
       <c r="B21" s="119"/>
       <c r="C21" s="2" t="s">
@@ -5635,7 +5641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="124"/>
       <c r="B22" s="119"/>
       <c r="C22" s="2" t="s">
@@ -5658,7 +5664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="124"/>
       <c r="B23" s="119"/>
       <c r="C23" s="2" t="s">
@@ -5681,7 +5687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="124"/>
       <c r="B24" s="119"/>
       <c r="C24" s="2" t="s">
@@ -5704,7 +5710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="124"/>
       <c r="B25" s="119"/>
       <c r="C25" s="2" t="s">
@@ -5727,7 +5733,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="124"/>
       <c r="B26" s="119"/>
       <c r="C26" s="2" t="s">
@@ -5750,7 +5756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="124"/>
       <c r="B27" s="119"/>
       <c r="C27" s="2" t="s">
@@ -5773,7 +5779,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="124"/>
       <c r="B28" s="119"/>
       <c r="C28" s="2" t="s">
@@ -5796,7 +5802,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="124"/>
       <c r="B29" s="119"/>
       <c r="C29" s="2" t="s">
@@ -5819,7 +5825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="124"/>
       <c r="B30" s="119"/>
       <c r="C30" s="2" t="s">
@@ -5842,7 +5848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="124"/>
       <c r="B31" s="119"/>
       <c r="C31" s="2" t="s">
@@ -5865,7 +5871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="124"/>
       <c r="B32" s="119"/>
       <c r="C32" s="2" t="s">
@@ -5888,7 +5894,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="125"/>
       <c r="B33" s="120"/>
       <c r="C33" s="3" t="s">
@@ -5933,33 +5939,33 @@
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.5546875" customWidth="1"/>
-    <col min="4" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" customWidth="1"/>
+    <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="3" customWidth="1"/>
-    <col min="9" max="9" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
       <c r="B1" s="61" t="s">
         <v>6</v>
@@ -5978,7 +5984,7 @@
       </c>
       <c r="G1" s="49"/>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="126" t="s">
         <v>83</v>
       </c>
@@ -6001,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="126"/>
       <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
@@ -6024,7 +6030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="126"/>
       <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
@@ -6047,7 +6053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="126"/>
       <c r="B5" s="51">
         <f t="shared" si="0"/>
@@ -6070,7 +6076,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="126"/>
       <c r="B6" s="51">
         <f t="shared" si="0"/>
@@ -6093,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="126"/>
       <c r="B7" s="51">
         <f t="shared" si="0"/>
@@ -6116,7 +6122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="126"/>
       <c r="B8" s="51">
         <f t="shared" si="0"/>
@@ -6139,7 +6145,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="126"/>
       <c r="B9" s="51">
         <f t="shared" si="0"/>
@@ -6162,7 +6168,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="126"/>
       <c r="B10" s="51">
         <f t="shared" si="0"/>
@@ -6185,7 +6191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="126"/>
       <c r="B11" s="51">
         <f t="shared" si="0"/>
@@ -6208,7 +6214,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="126"/>
       <c r="B12" s="51">
         <f t="shared" si="0"/>
@@ -6231,7 +6237,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="126"/>
       <c r="B13" s="51">
         <f t="shared" si="0"/>
@@ -6254,7 +6260,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="126"/>
       <c r="B14" s="51">
         <f t="shared" si="0"/>
@@ -6277,7 +6283,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="126"/>
       <c r="B15" s="51">
         <f t="shared" si="0"/>
@@ -6300,7 +6306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="126"/>
       <c r="B16" s="51">
         <f t="shared" si="0"/>
@@ -6323,7 +6329,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="126"/>
       <c r="B17" s="51">
         <f t="shared" si="0"/>
@@ -6346,7 +6352,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="126"/>
       <c r="B18" s="51">
         <f t="shared" si="0"/>
@@ -6369,7 +6375,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="126"/>
       <c r="B19" s="51">
         <f t="shared" si="0"/>
@@ -6392,7 +6398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="126"/>
       <c r="B20" s="51">
         <f t="shared" si="0"/>
@@ -6415,7 +6421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="126"/>
       <c r="B21" s="51">
         <f t="shared" si="0"/>
@@ -6438,7 +6444,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="126"/>
       <c r="B22" s="51">
         <f t="shared" si="0"/>
@@ -6461,7 +6467,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="126"/>
       <c r="B23" s="51">
         <f t="shared" si="0"/>
@@ -6484,7 +6490,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="126"/>
       <c r="B24" s="51">
         <f t="shared" si="0"/>
@@ -6507,7 +6513,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="126"/>
       <c r="B25" s="51">
         <f t="shared" si="0"/>
@@ -6530,7 +6536,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="126"/>
       <c r="B26" s="51">
         <f t="shared" si="0"/>
@@ -6554,7 +6560,7 @@
       </c>
       <c r="J26" s="58"/>
     </row>
-    <row r="27" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="126"/>
       <c r="B27" s="51">
         <f t="shared" si="0"/>
@@ -6577,7 +6583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="126"/>
       <c r="B28" s="51">
         <f t="shared" si="0"/>
@@ -6600,7 +6606,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="126"/>
       <c r="B29" s="51">
         <f t="shared" si="0"/>
@@ -6623,7 +6629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="126"/>
       <c r="B30" s="51">
         <f t="shared" si="0"/>
@@ -6646,7 +6652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="126"/>
       <c r="B31" s="51">
         <f t="shared" si="0"/>
@@ -6669,7 +6675,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="126"/>
       <c r="B32" s="51">
         <f t="shared" si="0"/>
@@ -6692,7 +6698,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="126"/>
       <c r="B33" s="51">
         <f t="shared" si="0"/>
@@ -6715,7 +6721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="127"/>
       <c r="B34" s="51">
         <v>32</v>
@@ -6737,7 +6743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
       <c r="B35" s="61" t="s">
         <v>6</v>
@@ -6772,35 +6778,35 @@
   </sheetPr>
   <dimension ref="A1:K189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.8" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="136"/>
       <c r="B1" s="131" t="s">
         <v>6</v>
@@ -6823,7 +6829,7 @@
       <c r="J1" s="135"/>
       <c r="K1" s="46"/>
     </row>
-    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="137"/>
       <c r="B2" s="132"/>
       <c r="C2" s="67"/>
@@ -6846,7 +6852,7 @@
       </c>
       <c r="K2" s="46"/>
     </row>
-    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="128" t="s">
         <v>45</v>
       </c>
@@ -6881,7 +6887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="129"/>
       <c r="B4" s="59">
         <f>B3+1</f>
@@ -6916,7 +6922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="129"/>
       <c r="B5" s="59">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
@@ -6951,7 +6957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="129"/>
       <c r="B6" s="59">
         <f t="shared" si="0"/>
@@ -6986,7 +6992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="129"/>
       <c r="B7" s="59">
         <f t="shared" si="0"/>
@@ -7021,7 +7027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="129"/>
       <c r="B8" s="59">
         <f t="shared" si="0"/>
@@ -7056,7 +7062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="129"/>
       <c r="B9" s="59">
         <f t="shared" si="0"/>
@@ -7091,7 +7097,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="129"/>
       <c r="B10" s="59">
         <f t="shared" si="0"/>
@@ -7126,7 +7132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="129"/>
       <c r="B11" s="59">
         <f t="shared" si="0"/>
@@ -7161,7 +7167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="129"/>
       <c r="B12" s="59">
         <f t="shared" si="0"/>
@@ -7196,7 +7202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="129"/>
       <c r="B13" s="59">
         <f t="shared" si="0"/>
@@ -7231,7 +7237,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="129"/>
       <c r="B14" s="59">
         <f t="shared" si="0"/>
@@ -7266,7 +7272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="129"/>
       <c r="B15" s="59">
         <f t="shared" si="0"/>
@@ -7301,7 +7307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="129"/>
       <c r="B16" s="59">
         <f t="shared" si="0"/>
@@ -7336,7 +7342,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="129"/>
       <c r="B17" s="59">
         <f t="shared" si="0"/>
@@ -7371,7 +7377,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="129"/>
       <c r="B18" s="60">
         <f t="shared" si="0"/>
@@ -7406,7 +7412,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="129"/>
       <c r="B19" s="60">
         <f>B18+1</f>
@@ -7441,7 +7447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="129"/>
       <c r="B20" s="60">
         <f>B19+1</f>
@@ -7476,7 +7482,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="130"/>
       <c r="B21" s="60">
         <f>B20+1</f>
@@ -7511,7 +7517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41"/>
       <c r="B22" s="49" t="s">
         <v>6</v>
@@ -7542,7 +7548,7 @@
       </c>
       <c r="K22" s="49"/>
     </row>
-    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="114" t="s">
         <v>0</v>
       </c>
@@ -7577,7 +7583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="115"/>
       <c r="B24" s="66">
         <f>B23+1</f>
@@ -7612,7 +7618,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="116"/>
       <c r="B25" s="66">
         <f t="shared" ref="B25:B33" si="2">B24+1</f>
@@ -7647,7 +7653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="116"/>
       <c r="B26" s="66">
         <f t="shared" si="2"/>
@@ -7682,7 +7688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="116"/>
       <c r="B27" s="66">
         <f t="shared" si="2"/>
@@ -7717,7 +7723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="116"/>
       <c r="B28" s="66">
         <f t="shared" si="2"/>
@@ -7752,7 +7758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="116"/>
       <c r="B29" s="66">
         <f t="shared" si="2"/>
@@ -7787,7 +7793,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="116"/>
       <c r="B30" s="66">
         <f t="shared" si="2"/>
@@ -7822,7 +7828,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="116"/>
       <c r="B31" s="66">
         <f t="shared" si="2"/>
@@ -7857,7 +7863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="116"/>
       <c r="B32" s="66">
         <f t="shared" si="2"/>
@@ -7892,7 +7898,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="116"/>
       <c r="B33" s="66">
         <f t="shared" si="2"/>
@@ -7927,7 +7933,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="41"/>
       <c r="B34" s="49" t="s">
         <v>6</v>
@@ -7958,7 +7964,7 @@
       </c>
       <c r="K34" s="49"/>
     </row>
-    <row r="35" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="114" t="s">
         <v>23</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="115"/>
       <c r="B36" s="66">
         <f>B35+1</f>
@@ -8028,7 +8034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="116"/>
       <c r="B37" s="66">
         <f t="shared" ref="B37:B42" si="4">B36+1</f>
@@ -8063,7 +8069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="116"/>
       <c r="B38" s="66">
         <f t="shared" si="4"/>
@@ -8098,7 +8104,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="116"/>
       <c r="B39" s="66">
         <f t="shared" si="4"/>
@@ -8133,7 +8139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="116"/>
       <c r="B40" s="66">
         <f t="shared" si="4"/>
@@ -8168,7 +8174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="116"/>
       <c r="B41" s="66">
         <f t="shared" si="4"/>
@@ -8203,7 +8209,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="116"/>
       <c r="B42" s="66">
         <f t="shared" si="4"/>
@@ -8238,7 +8244,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="41"/>
       <c r="B43" s="49" t="s">
         <v>6</v>
@@ -8269,7 +8275,7 @@
       </c>
       <c r="K43" s="49"/>
     </row>
-    <row r="44" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="114" t="s">
         <v>24</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="115"/>
       <c r="B45" s="66">
         <f>B44+1</f>
@@ -8339,7 +8345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="116"/>
       <c r="B46" s="66">
         <f t="shared" ref="B46:B51" si="6">B45+1</f>
@@ -8374,7 +8380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="116"/>
       <c r="B47" s="66">
         <f t="shared" si="6"/>
@@ -8409,7 +8415,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="116"/>
       <c r="B48" s="66">
         <f t="shared" si="6"/>
@@ -8444,7 +8450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="116"/>
       <c r="B49" s="66">
         <f t="shared" si="6"/>
@@ -8479,7 +8485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="116"/>
       <c r="B50" s="66">
         <f t="shared" si="6"/>
@@ -8514,7 +8520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="116"/>
       <c r="B51" s="66">
         <f t="shared" si="6"/>
@@ -8549,7 +8555,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="41"/>
       <c r="B52" s="49" t="s">
         <v>6</v>
@@ -8580,430 +8586,430 @@
       </c>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="C53" s="99" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="C54" s="100" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="C55" s="101" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="C56" s="102" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="C57" s="112" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="58"/>
     </row>
-    <row r="59" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
     </row>
-    <row r="60" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="58"/>
     </row>
-    <row r="61" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="58"/>
     </row>
-    <row r="62" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="58"/>
     </row>
-    <row r="63" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
     </row>
-    <row r="64" spans="1:11" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
     </row>
-    <row r="65" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
     </row>
-    <row r="66" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
     </row>
-    <row r="67" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
     </row>
-    <row r="68" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
     </row>
-    <row r="69" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
     </row>
-    <row r="70" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
     </row>
-    <row r="71" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
     </row>
-    <row r="72" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
     </row>
-    <row r="73" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
     </row>
-    <row r="74" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
     </row>
-    <row r="75" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="58"/>
     </row>
-    <row r="76" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
     </row>
-    <row r="77" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
     </row>
-    <row r="78" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
     </row>
-    <row r="79" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
     </row>
-    <row r="80" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
     </row>
-    <row r="81" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
     </row>
-    <row r="82" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
     </row>
-    <row r="83" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="58"/>
     </row>
-    <row r="84" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
     </row>
-    <row r="85" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
     </row>
-    <row r="86" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
     </row>
-    <row r="87" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
     </row>
-    <row r="88" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
     </row>
-    <row r="89" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
     </row>
-    <row r="90" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
     </row>
-    <row r="91" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
     </row>
-    <row r="92" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
     </row>
-    <row r="93" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
     </row>
-    <row r="94" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
     </row>
-    <row r="95" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
     </row>
-    <row r="96" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
     </row>
-    <row r="97" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
     </row>
-    <row r="98" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
     </row>
-    <row r="99" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="58"/>
     </row>
-    <row r="100" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="58"/>
     </row>
-    <row r="101" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="58"/>
     </row>
-    <row r="102" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="58"/>
     </row>
-    <row r="103" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="58"/>
     </row>
-    <row r="104" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="58"/>
     </row>
-    <row r="105" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="58"/>
     </row>
-    <row r="106" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="58"/>
     </row>
-    <row r="107" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="58"/>
     </row>
-    <row r="108" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="58"/>
     </row>
-    <row r="109" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="58"/>
     </row>
-    <row r="110" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="58"/>
     </row>
-    <row r="111" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
     </row>
-    <row r="112" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
     </row>
-    <row r="113" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="58"/>
     </row>
-    <row r="114" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="58"/>
     </row>
-    <row r="115" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="58"/>
     </row>
-    <row r="116" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="58"/>
     </row>
-    <row r="117" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="58"/>
     </row>
-    <row r="118" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="58"/>
     </row>
-    <row r="119" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="58"/>
     </row>
-    <row r="120" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="58"/>
     </row>
-    <row r="121" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="58"/>
     </row>
-    <row r="122" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="58"/>
     </row>
-    <row r="123" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
     </row>
-    <row r="124" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="58"/>
     </row>
-    <row r="125" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="58"/>
     </row>
-    <row r="126" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="58"/>
     </row>
-    <row r="127" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="58"/>
     </row>
-    <row r="128" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="58"/>
     </row>
-    <row r="129" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="58"/>
     </row>
-    <row r="130" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="58"/>
     </row>
-    <row r="131" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="58"/>
     </row>
-    <row r="132" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="58"/>
     </row>
-    <row r="133" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="58"/>
     </row>
-    <row r="134" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="58"/>
     </row>
-    <row r="135" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="58"/>
     </row>
-    <row r="136" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="58"/>
     </row>
-    <row r="137" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="58"/>
     </row>
-    <row r="138" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
     </row>
-    <row r="139" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="58"/>
     </row>
-    <row r="140" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="58"/>
     </row>
-    <row r="141" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="58"/>
     </row>
-    <row r="142" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="58"/>
     </row>
-    <row r="143" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="58"/>
     </row>
-    <row r="144" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="58"/>
     </row>
-    <row r="145" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="58"/>
     </row>
-    <row r="146" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="58"/>
     </row>
-    <row r="147" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="58"/>
     </row>
-    <row r="148" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="58"/>
     </row>
-    <row r="149" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="58"/>
     </row>
-    <row r="150" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="58"/>
     </row>
-    <row r="151" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="58"/>
     </row>
-    <row r="152" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="58"/>
     </row>
-    <row r="153" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="58"/>
     </row>
-    <row r="154" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="58"/>
     </row>
-    <row r="155" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="58"/>
     </row>
-    <row r="156" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="58"/>
     </row>
-    <row r="157" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="58"/>
     </row>
-    <row r="158" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="58"/>
     </row>
-    <row r="159" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="58"/>
     </row>
-    <row r="160" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="58"/>
     </row>
-    <row r="161" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="58"/>
     </row>
-    <row r="162" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="58"/>
     </row>
-    <row r="163" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="58"/>
     </row>
-    <row r="164" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="58"/>
     </row>
-    <row r="165" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="58"/>
     </row>
-    <row r="166" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="58"/>
     </row>
-    <row r="167" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="58"/>
     </row>
-    <row r="168" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="58"/>
     </row>
-    <row r="169" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="58"/>
     </row>
-    <row r="170" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="58"/>
     </row>
-    <row r="171" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="58"/>
     </row>
-    <row r="172" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="58"/>
     </row>
-    <row r="173" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="58"/>
     </row>
-    <row r="174" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="58"/>
     </row>
-    <row r="175" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="58"/>
     </row>
-    <row r="176" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="58"/>
     </row>
-    <row r="177" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="58"/>
     </row>
-    <row r="178" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="58"/>
     </row>
-    <row r="179" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="58"/>
     </row>
-    <row r="180" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="58"/>
     </row>
-    <row r="181" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="58"/>
     </row>
-    <row r="182" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="58"/>
     </row>
-    <row r="183" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="58"/>
     </row>
-    <row r="184" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="58"/>
     </row>
-    <row r="185" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="58"/>
     </row>
-    <row r="186" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="58"/>
     </row>
-    <row r="187" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="58"/>
     </row>
-    <row r="188" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="58"/>
     </row>
-    <row r="189" spans="1:1" s="87" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="58"/>
     </row>
   </sheetData>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="204">
   <si>
     <t>Защита</t>
   </si>
@@ -623,6 +623,18 @@
   </si>
   <si>
     <t>Вход RX ЦС пуст</t>
+  </si>
+  <si>
+    <t>Нет КЧ 5 сек на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Восстан-е КЧ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Работа ЦС восстановл.</t>
+  </si>
+  <si>
+    <t>Сниж.ур. КЧ на (ПРМ1, ПРМ2, ПРМ1,2)</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1678,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1675,7 +1687,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2026,8 +2038,8 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I108" sqref="I108"/>
+    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K100" sqref="K100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2063,7 +2075,7 @@
       <c r="A2" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2432,7 +2444,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="116"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2823,7 +2835,7 @@
       <c r="A35" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3193,7 +3205,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="116"/>
-      <c r="B51" s="121" t="s">
+      <c r="B51" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3584,7 +3596,7 @@
       <c r="A68" s="114" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="118" t="s">
+      <c r="B68" s="121" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3953,7 +3965,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="116"/>
-      <c r="B84" s="118" t="s">
+      <c r="B84" s="121" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4344,7 +4356,7 @@
       <c r="A101" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="121" t="s">
+      <c r="B101" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4713,7 +4725,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="116"/>
-      <c r="B117" s="121" t="s">
+      <c r="B117" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5102,18 +5114,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:A99"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="A101:A132"/>
+    <mergeCell ref="B101:B116"/>
+    <mergeCell ref="B117:B132"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A35:A66"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A68:A99"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="A101:A132"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5180,7 +5192,7 @@
       <c r="A2" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="118" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5550,7 +5562,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="124"/>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="118" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5935,8 +5947,8 @@
   </sheetPr>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5945,8 +5957,8 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3" customWidth="1"/>
+    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="7" bestFit="1" customWidth="1"/>
@@ -6483,7 +6495,7 @@
         <v>140</v>
       </c>
       <c r="F23" s="57" t="s">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="1"/>
@@ -6505,9 +6517,7 @@
       <c r="E24" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F24" s="57" t="s">
-        <v>102</v>
-      </c>
+      <c r="F24" s="57"/>
       <c r="G24" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6529,7 +6539,7 @@
         <v>94</v>
       </c>
       <c r="F25" s="57" t="s">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="1"/>
@@ -6551,9 +6561,7 @@
       <c r="E26" s="57" t="s">
         <v>126</v>
       </c>
-      <c r="F26" s="57" t="s">
-        <v>104</v>
-      </c>
+      <c r="F26" s="57"/>
       <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6668,7 +6676,7 @@
         <v>143</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="1"/>
@@ -6691,7 +6699,7 @@
         <v>144</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>67</v>
+        <v>198</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="1"/>
@@ -6714,7 +6722,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>67</v>
+        <v>199</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="1"/>
@@ -6736,7 +6744,7 @@
         <v>67</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>67</v>
+        <v>202</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="1"/>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="210">
   <si>
     <t>Защита</t>
   </si>
@@ -352,12 +352,6 @@
     <t>Неисправность часов</t>
   </si>
   <si>
-    <t>РЗСК == К400</t>
-  </si>
-  <si>
-    <t>К400 == РЗСК</t>
-  </si>
-  <si>
     <t>Р400М</t>
   </si>
   <si>
@@ -635,13 +629,37 @@
   </si>
   <si>
     <t>Сниж.ур. КЧ на (ПРМ1, ПРМ2, ПРМ1,2)</t>
+  </si>
+  <si>
+    <t>Трансляция ЦС</t>
+  </si>
+  <si>
+    <t>Блокиров. команды ЦС</t>
+  </si>
+  <si>
+    <t>Команда ВЧ в ЦС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">К400 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">РЗСК </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Параметр - </t>
+  </si>
+  <si>
+    <t>Параметр - заивист от значения в доп.байте</t>
+  </si>
+  <si>
+    <t>Совместимость (УПАСК)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -716,6 +734,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1530,12 +1555,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1558,15 +1577,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1591,9 +1601,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1642,9 +1649,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1678,7 +1682,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1687,7 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1732,6 +1736,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2038,8 +2063,8 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2058,7 +2083,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E1" s="43" t="s">
         <v>4</v>
@@ -2072,10 +2097,10 @@
       <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2098,8 +2123,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="115"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2121,8 +2146,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="116"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2144,8 +2169,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="116"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2167,8 +2192,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="116"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2190,8 +2215,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="116"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2213,8 +2238,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="116"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2236,8 +2261,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="116"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2259,8 +2284,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2282,8 +2307,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2305,8 +2330,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2328,8 +2353,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2351,8 +2376,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="119"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2374,8 +2399,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2397,8 +2422,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="119"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2420,8 +2445,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="116"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2443,8 +2468,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="118" t="s">
+      <c r="A18" s="109"/>
+      <c r="B18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2467,8 +2492,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="119"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2490,8 +2515,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="119"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2513,8 +2538,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2536,8 +2561,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2559,8 +2584,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="119"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2582,8 +2607,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="119"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2605,8 +2630,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2628,8 +2653,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2651,8 +2676,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2674,8 +2699,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2697,8 +2722,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2720,8 +2745,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2743,8 +2768,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2766,8 +2791,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2789,8 +2814,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="117"/>
-      <c r="B33" s="120"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2818,7 +2843,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>4</v>
@@ -2832,10 +2857,10 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="118" t="s">
+      <c r="B35" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2859,8 +2884,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
@@ -2882,8 +2907,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2905,8 +2930,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2928,8 +2953,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2951,8 +2976,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="119"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2974,8 +2999,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
-      <c r="B41" s="119"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -2997,8 +3022,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="116"/>
-      <c r="B42" s="119"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3020,8 +3045,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="116"/>
-      <c r="B43" s="119"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3043,8 +3068,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="116"/>
-      <c r="B44" s="119"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3066,8 +3091,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="116"/>
-      <c r="B45" s="119"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3089,8 +3114,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
-      <c r="B46" s="119"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3112,8 +3137,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
-      <c r="B47" s="119"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3135,8 +3160,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
-      <c r="B48" s="119"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3158,8 +3183,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3181,8 +3206,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="116"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3204,8 +3229,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="116"/>
-      <c r="B51" s="118" t="s">
+      <c r="A51" s="109"/>
+      <c r="B51" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3228,8 +3253,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="116"/>
-      <c r="B52" s="119"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3251,8 +3276,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="116"/>
-      <c r="B53" s="119"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3274,8 +3299,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="116"/>
-      <c r="B54" s="119"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3297,8 +3322,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="116"/>
-      <c r="B55" s="119"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3320,8 +3345,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="116"/>
-      <c r="B56" s="119"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="112"/>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
@@ -3343,8 +3368,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="116"/>
-      <c r="B57" s="119"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3366,8 +3391,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="116"/>
-      <c r="B58" s="119"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3389,8 +3414,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="116"/>
-      <c r="B59" s="119"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
@@ -3412,8 +3437,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="116"/>
-      <c r="B60" s="119"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3435,8 +3460,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="116"/>
-      <c r="B61" s="119"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3458,8 +3483,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="116"/>
-      <c r="B62" s="119"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3481,8 +3506,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="116"/>
-      <c r="B63" s="119"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3504,8 +3529,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="116"/>
-      <c r="B64" s="119"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="112"/>
       <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
@@ -3527,8 +3552,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="116"/>
-      <c r="B65" s="119"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
@@ -3550,8 +3575,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="117"/>
-      <c r="B66" s="120"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="113"/>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3579,7 +3604,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E67" s="48" t="s">
         <v>4</v>
@@ -3593,10 +3618,10 @@
       <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="114" t="s">
+      <c r="A68" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="121" t="s">
+      <c r="B68" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3619,8 +3644,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="115"/>
-      <c r="B69" s="119"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3642,8 +3667,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="116"/>
-      <c r="B70" s="119"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3665,8 +3690,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="116"/>
-      <c r="B71" s="119"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3688,8 +3713,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="116"/>
-      <c r="B72" s="119"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3711,8 +3736,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="116"/>
-      <c r="B73" s="119"/>
+      <c r="A73" s="109"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3734,8 +3759,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="116"/>
-      <c r="B74" s="119"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3757,8 +3782,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="116"/>
-      <c r="B75" s="119"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3780,8 +3805,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="116"/>
-      <c r="B76" s="119"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3803,8 +3828,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="116"/>
-      <c r="B77" s="119"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
@@ -3826,8 +3851,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="116"/>
-      <c r="B78" s="119"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
@@ -3849,8 +3874,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="116"/>
-      <c r="B79" s="119"/>
+      <c r="A79" s="109"/>
+      <c r="B79" s="112"/>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
@@ -3872,8 +3897,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="116"/>
-      <c r="B80" s="119"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="112"/>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
@@ -3895,8 +3920,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="116"/>
-      <c r="B81" s="119"/>
+      <c r="A81" s="109"/>
+      <c r="B81" s="112"/>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
@@ -3918,8 +3943,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="116"/>
-      <c r="B82" s="119"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="112"/>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
@@ -3941,8 +3966,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="116"/>
-      <c r="B83" s="120"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="113"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -3964,8 +3989,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="116"/>
-      <c r="B84" s="121" t="s">
+      <c r="A84" s="109"/>
+      <c r="B84" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -3988,8 +4013,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="116"/>
-      <c r="B85" s="119"/>
+      <c r="A85" s="109"/>
+      <c r="B85" s="112"/>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -3997,13 +4022,13 @@
         <v>67</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H85" s="25">
         <f>H84+1</f>
@@ -4011,8 +4036,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="116"/>
-      <c r="B86" s="119"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4020,13 +4045,13 @@
         <v>67</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H86" s="25">
         <f t="shared" ref="H86:H99" si="5">H85+1</f>
@@ -4034,8 +4059,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="116"/>
-      <c r="B87" s="119"/>
+      <c r="A87" s="109"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4057,8 +4082,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="116"/>
-      <c r="B88" s="119"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4080,8 +4105,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="116"/>
-      <c r="B89" s="119"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="112"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4103,8 +4128,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="116"/>
-      <c r="B90" s="119"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="112"/>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4126,8 +4151,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="116"/>
-      <c r="B91" s="119"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="112"/>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4149,8 +4174,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="116"/>
-      <c r="B92" s="119"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="112"/>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
@@ -4172,8 +4197,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="116"/>
-      <c r="B93" s="119"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="112"/>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4195,8 +4220,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="116"/>
-      <c r="B94" s="119"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="112"/>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4218,8 +4243,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="116"/>
-      <c r="B95" s="119"/>
+      <c r="A95" s="109"/>
+      <c r="B95" s="112"/>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
@@ -4241,8 +4266,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="116"/>
-      <c r="B96" s="119"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="112"/>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
@@ -4264,8 +4289,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="116"/>
-      <c r="B97" s="119"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="112"/>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
@@ -4287,8 +4312,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="116"/>
-      <c r="B98" s="119"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="112"/>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
@@ -4310,8 +4335,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="117"/>
-      <c r="B99" s="120"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="113"/>
       <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
@@ -4339,7 +4364,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>4</v>
@@ -4353,10 +4378,10 @@
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="114" t="s">
+      <c r="A101" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="118" t="s">
+      <c r="B101" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4379,8 +4404,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="115"/>
-      <c r="B102" s="119"/>
+      <c r="A102" s="108"/>
+      <c r="B102" s="112"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4402,8 +4427,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="116"/>
-      <c r="B103" s="119"/>
+      <c r="A103" s="109"/>
+      <c r="B103" s="112"/>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4425,8 +4450,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="116"/>
-      <c r="B104" s="119"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="112"/>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4448,8 +4473,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="116"/>
-      <c r="B105" s="119"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="112"/>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4471,8 +4496,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="116"/>
-      <c r="B106" s="119"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="112"/>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4494,8 +4519,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="116"/>
-      <c r="B107" s="119"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="112"/>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
@@ -4517,8 +4542,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="116"/>
-      <c r="B108" s="119"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="112"/>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4540,8 +4565,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="116"/>
-      <c r="B109" s="119"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="112"/>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4563,8 +4588,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="116"/>
-      <c r="B110" s="119"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="112"/>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4586,8 +4611,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="116"/>
-      <c r="B111" s="119"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="112"/>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4609,8 +4634,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="116"/>
-      <c r="B112" s="119"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="112"/>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4632,8 +4657,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="116"/>
-      <c r="B113" s="119"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="112"/>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4655,8 +4680,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="116"/>
-      <c r="B114" s="119"/>
+      <c r="A114" s="109"/>
+      <c r="B114" s="112"/>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4678,8 +4703,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="116"/>
-      <c r="B115" s="119"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="112"/>
       <c r="C115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4701,8 +4726,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="116"/>
-      <c r="B116" s="120"/>
+      <c r="A116" s="109"/>
+      <c r="B116" s="113"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4724,8 +4749,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="116"/>
-      <c r="B117" s="118" t="s">
+      <c r="A117" s="109"/>
+      <c r="B117" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4748,8 +4773,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="116"/>
-      <c r="B118" s="119"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="112"/>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
@@ -4757,13 +4782,13 @@
         <v>67</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H118" s="25">
         <f t="shared" ref="H118:H132" si="7">H117+1</f>
@@ -4771,8 +4796,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="116"/>
-      <c r="B119" s="119"/>
+      <c r="A119" s="109"/>
+      <c r="B119" s="112"/>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
@@ -4780,13 +4805,13 @@
         <v>67</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H119" s="25">
         <f t="shared" si="7"/>
@@ -4794,8 +4819,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="116"/>
-      <c r="B120" s="119"/>
+      <c r="A120" s="109"/>
+      <c r="B120" s="112"/>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4817,8 +4842,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="116"/>
-      <c r="B121" s="119"/>
+      <c r="A121" s="109"/>
+      <c r="B121" s="112"/>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
@@ -4840,8 +4865,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="116"/>
-      <c r="B122" s="119"/>
+      <c r="A122" s="109"/>
+      <c r="B122" s="112"/>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
@@ -4863,8 +4888,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="116"/>
-      <c r="B123" s="119"/>
+      <c r="A123" s="109"/>
+      <c r="B123" s="112"/>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
@@ -4886,8 +4911,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="116"/>
-      <c r="B124" s="119"/>
+      <c r="A124" s="109"/>
+      <c r="B124" s="112"/>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
@@ -4909,8 +4934,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="116"/>
-      <c r="B125" s="119"/>
+      <c r="A125" s="109"/>
+      <c r="B125" s="112"/>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
@@ -4932,8 +4957,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="116"/>
-      <c r="B126" s="119"/>
+      <c r="A126" s="109"/>
+      <c r="B126" s="112"/>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
@@ -4955,8 +4980,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="116"/>
-      <c r="B127" s="119"/>
+      <c r="A127" s="109"/>
+      <c r="B127" s="112"/>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
@@ -4978,8 +5003,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="116"/>
-      <c r="B128" s="119"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="112"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -5001,8 +5026,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="116"/>
-      <c r="B129" s="119"/>
+      <c r="A129" s="109"/>
+      <c r="B129" s="112"/>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
@@ -5024,8 +5049,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="116"/>
-      <c r="B130" s="119"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5047,8 +5072,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="116"/>
-      <c r="B131" s="119"/>
+      <c r="A131" s="109"/>
+      <c r="B131" s="112"/>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
@@ -5070,8 +5095,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="117"/>
-      <c r="B132" s="120"/>
+      <c r="A132" s="110"/>
+      <c r="B132" s="113"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5099,7 +5124,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E133" s="48" t="s">
         <v>4</v>
@@ -5114,18 +5139,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A35:A66"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
     <mergeCell ref="A68:A99"/>
     <mergeCell ref="B68:B83"/>
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="A101:A132"/>
     <mergeCell ref="B101:B116"/>
     <mergeCell ref="B117:B132"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A35:A66"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5189,10 +5214,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="122" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="118" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5216,8 +5241,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="123"/>
-      <c r="B3" s="119"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5239,8 +5264,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="124"/>
-      <c r="B4" s="119"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5262,8 +5287,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="124"/>
-      <c r="B5" s="119"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5285,8 +5310,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="124"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5308,8 +5333,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="124"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5331,8 +5356,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="124"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5354,8 +5379,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="124"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5377,8 +5402,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="124"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5400,8 +5425,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="124"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5423,8 +5448,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5446,8 +5471,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5469,8 +5494,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
-      <c r="B14" s="119"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5492,8 +5517,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
-      <c r="B15" s="119"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5515,8 +5540,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
-      <c r="B16" s="119"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5538,8 +5563,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
-      <c r="B17" s="120"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5561,8 +5586,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
-      <c r="B18" s="118" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5585,8 +5610,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
-      <c r="B19" s="119"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5608,8 +5633,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
-      <c r="B20" s="119"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -5631,8 +5656,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
-      <c r="B21" s="119"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5654,8 +5679,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5677,8 +5702,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
-      <c r="B23" s="119"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5700,8 +5725,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
-      <c r="B24" s="119"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5723,8 +5748,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
-      <c r="B25" s="119"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5746,8 +5771,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
-      <c r="B26" s="119"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5769,8 +5794,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="124"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5792,8 +5817,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -5815,8 +5840,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -5838,8 +5863,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -5861,8 +5886,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -5884,8 +5909,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -5907,8 +5932,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="125"/>
-      <c r="B33" s="120"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -5945,10 +5970,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5957,7 +5982,7 @@
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5703125" customWidth="1"/>
     <col min="4" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44" customWidth="1"/>
+    <col min="6" max="6" width="23.5703125" customWidth="1"/>
     <col min="7" max="7" width="3.28515625" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.42578125" bestFit="1" customWidth="1"/>
@@ -5983,21 +6008,21 @@
         <v>6</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>109</v>
+        <v>206</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>110</v>
+        <v>205</v>
       </c>
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
+      <c r="A2" s="119" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="52">
@@ -6020,7 +6045,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="126"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
         <v>1</v>
@@ -6043,13 +6068,13 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="126"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>85</v>
@@ -6066,7 +6091,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="126"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6089,13 +6114,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="126"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>67</v>
@@ -6112,13 +6137,13 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="126"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>87</v>
@@ -6135,7 +6160,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6147,7 +6172,7 @@
         <v>88</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>88</v>
@@ -6158,13 +6183,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="126"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>89</v>
@@ -6181,7 +6206,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="126"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6193,7 +6218,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>90</v>
@@ -6204,7 +6229,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="126"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6216,7 +6241,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>91</v>
@@ -6227,7 +6252,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6239,7 +6264,7 @@
         <v>92</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>92</v>
@@ -6250,19 +6275,19 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="126"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>93</v>
@@ -6273,7 +6298,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="126"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6296,19 +6321,19 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="126"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>94</v>
@@ -6319,19 +6344,19 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="126"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>95</v>
@@ -6342,7 +6367,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="126"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6365,19 +6390,19 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="126"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D18" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>67</v>
@@ -6388,19 +6413,19 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="126"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>97</v>
@@ -6411,19 +6436,19 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="126"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>98</v>
@@ -6434,19 +6459,19 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="126"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>99</v>
@@ -6457,19 +6482,19 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="126"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>100</v>
@@ -6480,22 +6505,22 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="126"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D23" s="57" t="s">
         <v>101</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>140</v>
-      </c>
-      <c r="F23" s="57" t="s">
-        <v>200</v>
+        <v>138</v>
+      </c>
+      <c r="F23" s="135" t="s">
+        <v>198</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="1"/>
@@ -6503,19 +6528,19 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="126"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="57" t="s">
         <v>102</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="25">
@@ -6524,7 +6549,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="126"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6538,8 +6563,8 @@
       <c r="E25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="57" t="s">
-        <v>201</v>
+      <c r="F25" s="136" t="s">
+        <v>199</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="1"/>
@@ -6547,19 +6572,19 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="126"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D26" s="57" t="s">
         <v>104</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="25">
@@ -6569,13 +6594,13 @@
       <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="126"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D27" s="57" t="s">
         <v>105</v>
@@ -6592,19 +6617,19 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="126"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D28" s="57" t="s">
         <v>106</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F28" s="57" t="s">
         <v>106</v>
@@ -6615,19 +6640,19 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="126"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="57" t="s">
         <v>107</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F29" s="57" t="s">
         <v>107</v>
@@ -6638,19 +6663,19 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="126"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D30" s="57" t="s">
         <v>108</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F30" s="57" t="s">
         <v>108</v>
@@ -6661,22 +6686,22 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="126"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D31" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>143</v>
-      </c>
-      <c r="F31" s="57" t="s">
-        <v>203</v>
+        <v>141</v>
+      </c>
+      <c r="F31" s="136" t="s">
+        <v>201</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="1"/>
@@ -6684,22 +6709,22 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="126"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D32" s="57" t="s">
         <v>67</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="1"/>
@@ -6707,13 +6732,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="126"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D33" s="57" t="s">
         <v>67</v>
@@ -6722,7 +6747,7 @@
         <v>67</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="1"/>
@@ -6730,12 +6755,12 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="127"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="51">
         <v>32</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D34" s="57" t="s">
         <v>67</v>
@@ -6744,7 +6769,7 @@
         <v>67</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="1"/>
@@ -6769,6 +6794,31 @@
         <v>5</v>
       </c>
       <c r="G35" s="49"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C37" s="93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C38" s="94" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C39" s="95" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C40" s="96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C41" s="105" t="s">
+        <v>207</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6784,10 +6834,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K189"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -6815,80 +6865,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="136"/>
-      <c r="B1" s="131" t="s">
+      <c r="A1" s="129"/>
+      <c r="B1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="133" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="68" t="s">
+      <c r="D1" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="133" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="135"/>
+      <c r="F1" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="127"/>
+      <c r="J1" s="128"/>
       <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="67"/>
+      <c r="A2" s="130"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
       <c r="F2" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="H2" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="I2" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="J2" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="I2" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>184</v>
-      </c>
       <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="121" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="65">
         <v>1</v>
       </c>
-      <c r="C3" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="E3" s="92" t="s">
-        <v>145</v>
-      </c>
-      <c r="F3" s="82" t="s">
-        <v>145</v>
-      </c>
-      <c r="G3" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="105" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="83" t="s">
+      <c r="C3" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="E3" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F3" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="G3" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="78" t="s">
         <v>67</v>
       </c>
       <c r="K3" s="33">
@@ -6896,34 +6946,34 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="129"/>
+      <c r="A4" s="122"/>
       <c r="B4" s="59">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="77" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="E4" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" s="75" t="s">
-        <v>147</v>
+      <c r="C4" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>144</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>147</v>
-      </c>
-      <c r="J4" s="76" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="J4" s="74" t="s">
+        <v>144</v>
       </c>
       <c r="K4" s="25">
         <f>K3+1</f>
@@ -6931,21 +6981,21 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="129"/>
+      <c r="A5" s="122"/>
       <c r="B5" s="59">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="77" t="s">
-        <v>157</v>
-      </c>
-      <c r="D5" s="77" t="s">
-        <v>147</v>
-      </c>
-      <c r="E5" s="113" t="s">
+      <c r="C5" s="75" t="s">
+        <v>155</v>
+      </c>
+      <c r="D5" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="106" t="s">
         <v>146</v>
       </c>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="73" t="s">
         <v>146</v>
       </c>
       <c r="G5" s="54" t="s">
@@ -6957,7 +7007,7 @@
       <c r="I5" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="74" t="s">
         <v>146</v>
       </c>
       <c r="K5" s="25">
@@ -6966,34 +7016,34 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="129"/>
+      <c r="A6" s="122"/>
       <c r="B6" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="77" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="113" t="s">
-        <v>148</v>
-      </c>
-      <c r="F6" s="75" t="s">
-        <v>148</v>
+      <c r="C6" s="75" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="106" t="s">
+        <v>147</v>
+      </c>
+      <c r="F6" s="73" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="54" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="H6" s="54" t="s">
-        <v>148</v>
+        <v>67</v>
       </c>
       <c r="I6" s="54" t="s">
-        <v>148</v>
-      </c>
-      <c r="J6" s="76" t="s">
-        <v>148</v>
+        <v>67</v>
+      </c>
+      <c r="J6" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="K6" s="25">
         <f t="shared" si="1"/>
@@ -7001,34 +7051,34 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="129"/>
+      <c r="A7" s="122"/>
       <c r="B7" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>149</v>
-      </c>
-      <c r="F7" s="75" t="s">
-        <v>152</v>
+      <c r="C7" s="132" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="106" t="s">
+        <v>148</v>
+      </c>
+      <c r="F7" s="73" t="s">
+        <v>67</v>
       </c>
       <c r="G7" s="54" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="H7" s="54" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="I7" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>152</v>
+        <v>67</v>
+      </c>
+      <c r="J7" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="K7" s="25">
         <f t="shared" si="1"/>
@@ -7036,34 +7086,34 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="129"/>
+      <c r="A8" s="122"/>
       <c r="B8" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="E8" s="113" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="75" t="s">
-        <v>185</v>
+      <c r="C8" s="132" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="73" t="s">
+        <v>67</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="H8" s="54" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="I8" s="54" t="s">
-        <v>185</v>
-      </c>
-      <c r="J8" s="76" t="s">
-        <v>185</v>
+        <v>67</v>
+      </c>
+      <c r="J8" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="K8" s="25">
         <f t="shared" si="1"/>
@@ -7071,34 +7121,34 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="129"/>
+      <c r="A9" s="122"/>
       <c r="B9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>153</v>
+      <c r="C9" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="73" t="s">
+        <v>67</v>
       </c>
       <c r="G9" s="54" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="H9" s="54" t="s">
-        <v>153</v>
+        <v>67</v>
       </c>
       <c r="I9" s="54" t="s">
-        <v>153</v>
-      </c>
-      <c r="J9" s="76" t="s">
-        <v>153</v>
+        <v>67</v>
+      </c>
+      <c r="J9" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="K9" s="25">
         <f t="shared" si="1"/>
@@ -7106,34 +7156,34 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="129"/>
+      <c r="A10" s="122"/>
       <c r="B10" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="98" t="s">
-        <v>196</v>
-      </c>
-      <c r="F10" s="75" t="s">
-        <v>154</v>
+      <c r="C10" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>194</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>67</v>
       </c>
       <c r="G10" s="54" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="H10" s="54" t="s">
-        <v>154</v>
+        <v>67</v>
       </c>
       <c r="I10" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>154</v>
+        <v>67</v>
+      </c>
+      <c r="J10" s="74" t="s">
+        <v>67</v>
       </c>
       <c r="K10" s="25">
         <f t="shared" si="1"/>
@@ -7141,34 +7191,34 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
+      <c r="A11" s="122"/>
       <c r="B11" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="77" t="s">
-        <v>152</v>
-      </c>
-      <c r="F11" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="55" t="s">
-        <v>67</v>
+      <c r="C11" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="75" t="s">
+        <v>150</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="G11" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>150</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="K11" s="25">
         <f t="shared" si="1"/>
@@ -7176,34 +7226,34 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="129"/>
+      <c r="A12" s="122"/>
       <c r="B12" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="77" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="77" t="s">
-        <v>153</v>
-      </c>
-      <c r="F12" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="G12" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H12" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="I12" s="55" t="s">
-        <v>155</v>
+      <c r="C12" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="J12" s="74" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="K12" s="25">
         <f t="shared" si="1"/>
@@ -7211,34 +7261,34 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="129"/>
+      <c r="A13" s="122"/>
       <c r="B13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="77" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="109" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="75" t="s">
-        <v>156</v>
+      <c r="C13" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="106" t="s">
+        <v>153</v>
+      </c>
+      <c r="F13" s="73" t="s">
+        <v>153</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>156</v>
-      </c>
-      <c r="J13" s="74" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="J13" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="K13" s="25">
         <f t="shared" si="1"/>
@@ -7246,34 +7296,34 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="129"/>
+      <c r="A14" s="122"/>
       <c r="B14" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="104" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="113" t="s">
-        <v>155</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>67</v>
+      <c r="C14" s="75" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F14" s="73" t="s">
+        <v>154</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>67</v>
+        <v>154</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="74" t="s">
-        <v>67</v>
+        <v>154</v>
+      </c>
+      <c r="J14" s="72" t="s">
+        <v>154</v>
       </c>
       <c r="K14" s="25">
         <f t="shared" si="1"/>
@@ -7281,34 +7331,34 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="129"/>
+      <c r="A15" s="122"/>
       <c r="B15" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="104" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="113" t="s">
-        <v>156</v>
-      </c>
-      <c r="F15" s="75" t="s">
-        <v>67</v>
+      <c r="C15" s="131" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="75" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>151</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>67</v>
+        <v>151</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>188</v>
-      </c>
-      <c r="J15" s="76" t="s">
-        <v>67</v>
+        <v>151</v>
+      </c>
+      <c r="J15" s="74" t="s">
+        <v>151</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="1"/>
@@ -7316,34 +7366,34 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="129"/>
+      <c r="A16" s="122"/>
       <c r="B16" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="75" t="s">
-        <v>67</v>
+      <c r="C16" s="131" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="E16" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="73" t="s">
+        <v>145</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>67</v>
+        <v>145</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="J16" s="76" t="s">
-        <v>67</v>
+        <v>145</v>
+      </c>
+      <c r="J16" s="74" t="s">
+        <v>145</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="1"/>
@@ -7351,34 +7401,34 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="129"/>
+      <c r="A17" s="122"/>
       <c r="B17" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="75" t="s">
-        <v>67</v>
+      <c r="C17" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="73" t="s">
+        <v>152</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>67</v>
+        <v>152</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>134</v>
-      </c>
-      <c r="J17" s="76" t="s">
-        <v>67</v>
+        <v>152</v>
+      </c>
+      <c r="J17" s="74" t="s">
+        <v>152</v>
       </c>
       <c r="K17" s="25">
         <f t="shared" si="1"/>
@@ -7386,34 +7436,34 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="129"/>
+      <c r="A18" s="122"/>
       <c r="B18" s="60">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="75" t="s">
-        <v>67</v>
+      <c r="C18" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>183</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>67</v>
+        <v>183</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>190</v>
-      </c>
-      <c r="J18" s="76" t="s">
-        <v>67</v>
+        <v>183</v>
+      </c>
+      <c r="J18" s="74" t="s">
+        <v>183</v>
       </c>
       <c r="K18" s="25">
         <f t="shared" si="1"/>
@@ -7421,21 +7471,21 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="129"/>
+      <c r="A19" s="122"/>
       <c r="B19" s="60">
         <f>B18+1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="75" t="s">
+      <c r="C19" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G19" s="54" t="s">
@@ -7444,10 +7494,10 @@
       <c r="H19" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I19" s="54" t="s">
-        <v>191</v>
-      </c>
-      <c r="J19" s="76" t="s">
+      <c r="I19" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="J19" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K19" s="25">
@@ -7456,21 +7506,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="129"/>
+      <c r="A20" s="122"/>
       <c r="B20" s="60">
         <f>B19+1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="75" t="s">
+      <c r="C20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G20" s="54" t="s">
@@ -7480,9 +7530,9 @@
         <v>67</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J20" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K20" s="25">
@@ -7490,714 +7540,699 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="130"/>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="122"/>
       <c r="B21" s="60">
-        <f>B20+1</f>
         <v>19</v>
       </c>
-      <c r="C21" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="106" t="s">
-        <v>67</v>
-      </c>
-      <c r="J21" s="79" t="s">
+      <c r="C21" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J21" s="54" t="s">
         <v>67</v>
       </c>
       <c r="K21" s="25">
-        <f>K20+1</f>
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="41"/>
-      <c r="B22" s="49" t="s">
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="60">
+        <v>20</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="J22" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="B23" s="60">
+        <v>21</v>
+      </c>
+      <c r="C23" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="J23" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="60">
+        <v>22</v>
+      </c>
+      <c r="C24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="122"/>
+      <c r="B25" s="60">
+        <v>23</v>
+      </c>
+      <c r="C25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="72" t="s">
+        <v>184</v>
+      </c>
+      <c r="K25" s="25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
+      <c r="B26" s="60">
+        <v>24</v>
+      </c>
+      <c r="C26" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>209</v>
+      </c>
+      <c r="F26" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="122"/>
+      <c r="B27" s="60">
+        <v>25</v>
+      </c>
+      <c r="C27" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123"/>
+      <c r="B28" s="60">
+        <v>26</v>
+      </c>
+      <c r="C28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="71" t="s">
+      <c r="C29" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="49" t="s">
+      <c r="D29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="73" t="s">
+      <c r="E29" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="67" t="s">
+      <c r="F29" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" s="63" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="63" t="s">
+      <c r="I29" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="H22" s="63" t="s">
+      <c r="J29" s="64" t="s">
         <v>182</v>
       </c>
-      <c r="I22" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>184</v>
-      </c>
-      <c r="K22" s="49"/>
-    </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="114" t="s">
+      <c r="K29" s="49"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B30" s="68">
         <v>1</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C30" s="86" t="s">
+        <v>169</v>
+      </c>
+      <c r="D30" s="91" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="77" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="H30" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="I30" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="J30" s="78" t="s">
+        <v>169</v>
+      </c>
+      <c r="K30" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="66">
+        <f>B30+1</f>
+        <v>2</v>
+      </c>
+      <c r="C31" s="75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D31" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="G31" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="74" t="s">
+        <v>170</v>
+      </c>
+      <c r="K31" s="25">
+        <f>K30+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="109"/>
+      <c r="B32" s="66">
+        <f t="shared" ref="B32:B39" si="2">B31+1</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="75" t="s">
         <v>171</v>
       </c>
-      <c r="D23" s="97" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="82" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="82" t="s">
+      <c r="D32" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="G23" s="105" t="s">
+      <c r="G32" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="H23" s="105" t="s">
+      <c r="H32" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="I23" s="105" t="s">
+      <c r="I32" s="54" t="s">
         <v>171</v>
       </c>
-      <c r="J23" s="83" t="s">
+      <c r="J32" s="74" t="s">
         <v>171</v>
       </c>
-      <c r="K23" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="115"/>
-      <c r="B24" s="66">
-        <f>B23+1</f>
-        <v>2</v>
-      </c>
-      <c r="C24" s="77" t="s">
-        <v>172</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="I24" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="J24" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="K24" s="25">
-        <f>K23+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="66">
-        <f t="shared" ref="B25:B33" si="2">B24+1</f>
+      <c r="K32" s="25">
+        <f t="shared" ref="K32:K39" si="3">K31+1</f>
         <v>3</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="75" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>173</v>
-      </c>
-      <c r="J25" s="76" t="s">
-        <v>173</v>
-      </c>
-      <c r="K25" s="25">
-        <f t="shared" ref="K25:K33" si="3">K24+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="66">
+    </row>
+    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="109"/>
+      <c r="B33" s="66">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C26" s="77" t="s">
-        <v>174</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="75" t="s">
-        <v>174</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>174</v>
-      </c>
-      <c r="J26" s="76" t="s">
-        <v>174</v>
-      </c>
-      <c r="K26" s="25">
+      <c r="C33" s="75" t="s">
+        <v>172</v>
+      </c>
+      <c r="D33" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="H33" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="J33" s="74" t="s">
+        <v>172</v>
+      </c>
+      <c r="K33" s="25">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="66">
+    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="109"/>
+      <c r="B34" s="66">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C27" s="108" t="s">
-        <v>175</v>
-      </c>
-      <c r="D27" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="103" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="I27" s="110" t="s">
-        <v>175</v>
-      </c>
-      <c r="J27" s="111" t="s">
-        <v>175</v>
-      </c>
-      <c r="K27" s="25">
+      <c r="C34" s="101" t="s">
+        <v>173</v>
+      </c>
+      <c r="D34" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="97" t="s">
+        <v>173</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="H34" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="I34" s="103" t="s">
+        <v>173</v>
+      </c>
+      <c r="J34" s="104" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="25">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="66">
+    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="109"/>
+      <c r="B35" s="66">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C28" s="77" t="s">
-        <v>176</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="25">
+      <c r="C35" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="25">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="66">
+    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="109"/>
+      <c r="B36" s="66">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C29" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="G29" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="H29" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="I29" s="54" t="s">
-        <v>177</v>
-      </c>
-      <c r="J29" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="K29" s="25">
+      <c r="C36" s="101" t="s">
+        <v>195</v>
+      </c>
+      <c r="D36" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="G36" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="H36" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="J36" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="K36" s="25">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="66">
+    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="109"/>
+      <c r="B37" s="66">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C30" s="77" t="s">
-        <v>178</v>
-      </c>
-      <c r="D30" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I30" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J30" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K30" s="25">
+      <c r="C37" s="75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D37" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="25">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="66">
+    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="109"/>
+      <c r="B38" s="66">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C31" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="75" t="s">
-        <v>192</v>
-      </c>
-      <c r="G31" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H31" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I31" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J31" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K31" s="25">
+      <c r="C38" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="73" t="s">
+        <v>190</v>
+      </c>
+      <c r="G38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="25">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="66">
+    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="109"/>
+      <c r="B39" s="66">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C32" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D32" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="75" t="s">
-        <v>193</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="H32" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="I32" s="54" t="s">
-        <v>193</v>
-      </c>
-      <c r="J32" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="K32" s="25">
+      <c r="C39" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="73" t="s">
+        <v>191</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="H39" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="J39" s="74" t="s">
+        <v>191</v>
+      </c>
+      <c r="K39" s="25">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="116"/>
-      <c r="B33" s="66">
-        <f t="shared" si="2"/>
+    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="66">
         <v>11</v>
       </c>
-      <c r="C33" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D33" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="G33" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="H33" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="I33" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="J33" s="76" t="s">
-        <v>194</v>
-      </c>
-      <c r="K33" s="25">
-        <f t="shared" si="3"/>
+      <c r="C40" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="J40" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="K40" s="25">
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="41"/>
-      <c r="B34" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" s="71" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="71" t="s">
-        <v>180</v>
-      </c>
-      <c r="G34" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="H34" s="48" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="J34" s="72" t="s">
-        <v>184</v>
-      </c>
-      <c r="K34" s="49"/>
-    </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="114" t="s">
-        <v>23</v>
-      </c>
-      <c r="B35" s="70">
-        <v>1</v>
-      </c>
-      <c r="C35" s="92" t="s">
-        <v>160</v>
-      </c>
-      <c r="D35" s="90" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="F35" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="81" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="115"/>
-      <c r="B36" s="66">
-        <f>B35+1</f>
-        <v>2</v>
-      </c>
-      <c r="C36" s="96" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="94" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="86" t="s">
-        <v>162</v>
-      </c>
-      <c r="F36" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J36" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K36" s="25">
-        <f>K35+1</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="66">
-        <f t="shared" ref="B37:B42" si="4">B36+1</f>
-        <v>3</v>
-      </c>
-      <c r="C37" s="96" t="s">
-        <v>163</v>
-      </c>
-      <c r="D37" s="95" t="s">
-        <v>163</v>
-      </c>
-      <c r="E37" s="86" t="s">
-        <v>163</v>
-      </c>
-      <c r="F37" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="25">
-        <f t="shared" ref="K37:K42" si="5">K36+1</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="66">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="C38" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="25">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="66">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="C39" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H39" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I39" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J39" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K39" s="25">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="116"/>
-      <c r="B40" s="66">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="C40" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="G40" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H40" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I40" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J40" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K40" s="25">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-    </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="116"/>
+      <c r="A41" s="109"/>
       <c r="B41" s="66">
-        <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="C41" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G41" s="54" t="s">
@@ -8209,30 +8244,28 @@
       <c r="I41" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J41" s="76" t="s">
+      <c r="J41" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K41" s="25">
-        <f t="shared" si="5"/>
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="116"/>
+      <c r="A42" s="109"/>
       <c r="B42" s="66">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="C42" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G42" s="54" t="s">
@@ -8244,12 +8277,11 @@
       <c r="I42" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J42" s="76" t="s">
+      <c r="J42" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K42" s="25">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8257,49 +8289,49 @@
       <c r="B43" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="71" t="s">
+      <c r="C43" s="69" t="s">
         <v>4</v>
       </c>
       <c r="D43" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="73" t="s">
+      <c r="E43" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="71" t="s">
+      <c r="F43" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H43" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="I43" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="J43" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I43" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="J43" s="72" t="s">
-        <v>184</v>
-      </c>
       <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="114" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="70">
+      <c r="A44" s="107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="68">
         <v>1</v>
       </c>
-      <c r="C44" s="92" t="s">
-        <v>165</v>
-      </c>
-      <c r="D44" s="90" t="s">
-        <v>165</v>
-      </c>
-      <c r="E44" s="82" t="s">
-        <v>165</v>
-      </c>
-      <c r="F44" s="107" t="s">
+      <c r="C44" s="86" t="s">
+        <v>158</v>
+      </c>
+      <c r="D44" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="77" t="s">
+        <v>158</v>
+      </c>
+      <c r="F44" s="100" t="s">
         <v>67</v>
       </c>
       <c r="G44" s="53" t="s">
@@ -8311,7 +8343,7 @@
       <c r="I44" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="J44" s="81" t="s">
+      <c r="J44" s="76" t="s">
         <v>67</v>
       </c>
       <c r="K44" s="24">
@@ -8319,21 +8351,21 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="115"/>
+      <c r="A45" s="108"/>
       <c r="B45" s="66">
         <f>B44+1</f>
         <v>2</v>
       </c>
-      <c r="C45" s="77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D45" s="84" t="s">
-        <v>166</v>
-      </c>
-      <c r="E45" s="75" t="s">
-        <v>166</v>
-      </c>
-      <c r="F45" s="75" t="s">
+      <c r="C45" s="90" t="s">
+        <v>159</v>
+      </c>
+      <c r="D45" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F45" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G45" s="54" t="s">
@@ -8345,7 +8377,7 @@
       <c r="I45" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J45" s="76" t="s">
+      <c r="J45" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K45" s="25">
@@ -8354,21 +8386,21 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="116"/>
+      <c r="A46" s="109"/>
       <c r="B46" s="66">
-        <f t="shared" ref="B46:B51" si="6">B45+1</f>
+        <f t="shared" ref="B46:B51" si="4">B45+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E46" s="75" t="s">
-        <v>167</v>
-      </c>
-      <c r="F46" s="75" t="s">
+      <c r="C46" s="90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="F46" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="54" t="s">
@@ -8380,30 +8412,30 @@
       <c r="I46" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J46" s="76" t="s">
+      <c r="J46" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K46" s="25">
-        <f t="shared" ref="K46:K51" si="7">K45+1</f>
+        <f t="shared" ref="K46:K51" si="5">K45+1</f>
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="116"/>
+      <c r="A47" s="109"/>
       <c r="B47" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C47" s="93" t="s">
-        <v>168</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>168</v>
-      </c>
-      <c r="E47" s="88" t="s">
-        <v>168</v>
-      </c>
-      <c r="F47" s="75" t="s">
+      <c r="C47" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E47" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F47" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G47" s="54" t="s">
@@ -8415,30 +8447,30 @@
       <c r="I47" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J47" s="76" t="s">
+      <c r="J47" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K47" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="116"/>
+      <c r="A48" s="109"/>
       <c r="B48" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C48" s="93" t="s">
-        <v>162</v>
-      </c>
-      <c r="D48" s="91" t="s">
-        <v>162</v>
-      </c>
-      <c r="E48" s="88" t="s">
-        <v>162</v>
-      </c>
-      <c r="F48" s="75" t="s">
+      <c r="C48" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F48" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G48" s="54" t="s">
@@ -8450,30 +8482,30 @@
       <c r="I48" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J48" s="76" t="s">
+      <c r="J48" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K48" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="116"/>
+      <c r="A49" s="109"/>
       <c r="B49" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C49" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F49" s="75" t="s">
+      <c r="C49" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E49" s="73" t="s">
+        <v>204</v>
+      </c>
+      <c r="F49" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G49" s="54" t="s">
@@ -8485,30 +8517,30 @@
       <c r="I49" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J49" s="76" t="s">
+      <c r="J49" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K49" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="116"/>
+      <c r="A50" s="109"/>
       <c r="B50" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C50" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="75" t="s">
+      <c r="C50" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D50" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F50" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G50" s="54" t="s">
@@ -8520,30 +8552,30 @@
       <c r="I50" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J50" s="76" t="s">
+      <c r="J50" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K50" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="116"/>
+      <c r="A51" s="109"/>
       <c r="B51" s="66">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C51" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="75" t="s">
+      <c r="C51" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" s="73" t="s">
         <v>67</v>
       </c>
       <c r="G51" s="54" t="s">
@@ -8555,11 +8587,11 @@
       <c r="I51" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="J51" s="76" t="s">
+      <c r="J51" s="74" t="s">
         <v>67</v>
       </c>
       <c r="K51" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -8568,467 +8600,812 @@
       <c r="B52" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="69" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="49" t="s">
+      <c r="E52" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="71" t="s">
+      <c r="F52" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="H52" s="48" t="s">
         <v>180</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="I52" s="48" t="s">
         <v>181</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="J52" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="I52" s="48" t="s">
-        <v>183</v>
-      </c>
-      <c r="J52" s="72" t="s">
-        <v>184</v>
-      </c>
       <c r="K52" s="49"/>
     </row>
-    <row r="53" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="C53" s="99" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="C54" s="100" t="s">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="107" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" s="68">
+        <v>1</v>
+      </c>
+      <c r="C53" s="86" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="E53" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="F53" s="100" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="108"/>
+      <c r="B54" s="66">
+        <f>B53+1</f>
+        <v>2</v>
+      </c>
+      <c r="C54" s="75" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="C55" s="101" t="s">
+      <c r="D54" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="F54" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="25">
+        <f>K53+1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="109"/>
+      <c r="B55" s="66">
+        <f t="shared" ref="B55:B59" si="6">B54+1</f>
+        <v>3</v>
+      </c>
+      <c r="C55" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="25">
+        <f t="shared" ref="K55:K59" si="7">K54+1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="109"/>
+      <c r="B56" s="66">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="C56" s="87" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="83" t="s">
+        <v>166</v>
+      </c>
+      <c r="F56" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H56" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I56" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J56" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56" s="25">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="109"/>
+      <c r="B57" s="66">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="C57" s="87" t="s">
+        <v>160</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>160</v>
+      </c>
+      <c r="E57" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="F57" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="25">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="109"/>
+      <c r="B58" s="66">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="C58" s="98" t="s">
+        <v>202</v>
+      </c>
+      <c r="D58" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" s="73" t="s">
+        <v>202</v>
+      </c>
+      <c r="F58" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="25">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="109"/>
+      <c r="B59" s="66">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D59" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="73" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="25">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="66">
+        <v>8</v>
+      </c>
+      <c r="C60" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D60" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="109"/>
+      <c r="B61" s="66">
+        <v>9</v>
+      </c>
+      <c r="C61" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="41"/>
+      <c r="B62" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="69" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="48" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="C56" s="102" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="C57" s="112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-    </row>
-    <row r="59" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-    </row>
-    <row r="60" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-    </row>
-    <row r="61" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-    </row>
-    <row r="62" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-    </row>
-    <row r="63" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="H62" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="J62" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" s="49"/>
+    </row>
+    <row r="63" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
-    </row>
-    <row r="64" spans="1:11" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C63" s="93" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
-    </row>
-    <row r="65" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C64" s="94" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
-    </row>
-    <row r="66" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C65" s="95" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
-    </row>
-    <row r="67" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C66" s="96" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
-    </row>
-    <row r="68" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="C67" s="105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="58"/>
     </row>
-    <row r="69" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="58"/>
     </row>
-    <row r="70" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="58"/>
     </row>
-    <row r="71" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
     </row>
-    <row r="72" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="58"/>
     </row>
-    <row r="73" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="58"/>
     </row>
-    <row r="74" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="58"/>
     </row>
-    <row r="75" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="58"/>
     </row>
-    <row r="76" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="58"/>
     </row>
-    <row r="77" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="58"/>
     </row>
-    <row r="78" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="58"/>
     </row>
-    <row r="79" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="58"/>
     </row>
-    <row r="80" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="58"/>
     </row>
-    <row r="81" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="58"/>
     </row>
-    <row r="82" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="58"/>
     </row>
-    <row r="83" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="58"/>
     </row>
-    <row r="84" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="58"/>
     </row>
-    <row r="85" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="58"/>
     </row>
-    <row r="86" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="58"/>
     </row>
-    <row r="87" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="58"/>
     </row>
-    <row r="88" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="58"/>
     </row>
-    <row r="89" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="58"/>
     </row>
-    <row r="90" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="58"/>
     </row>
-    <row r="91" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="58"/>
     </row>
-    <row r="92" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="58"/>
     </row>
-    <row r="93" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="58"/>
     </row>
-    <row r="94" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="58"/>
     </row>
-    <row r="95" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="58"/>
     </row>
-    <row r="96" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="58"/>
     </row>
-    <row r="97" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="58"/>
     </row>
-    <row r="98" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="58"/>
     </row>
-    <row r="99" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="58"/>
     </row>
-    <row r="100" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="58"/>
     </row>
-    <row r="101" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="58"/>
     </row>
-    <row r="102" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="58"/>
     </row>
-    <row r="103" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="58"/>
     </row>
-    <row r="104" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="58"/>
     </row>
-    <row r="105" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="58"/>
     </row>
-    <row r="106" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="58"/>
     </row>
-    <row r="107" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="58"/>
     </row>
-    <row r="108" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="58"/>
     </row>
-    <row r="109" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="58"/>
     </row>
-    <row r="110" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="58"/>
     </row>
-    <row r="111" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
     </row>
-    <row r="112" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
     </row>
-    <row r="113" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="58"/>
     </row>
-    <row r="114" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="58"/>
     </row>
-    <row r="115" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="58"/>
     </row>
-    <row r="116" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="58"/>
     </row>
-    <row r="117" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="58"/>
     </row>
-    <row r="118" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="58"/>
     </row>
-    <row r="119" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="58"/>
     </row>
-    <row r="120" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="58"/>
     </row>
-    <row r="121" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="58"/>
     </row>
-    <row r="122" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="58"/>
     </row>
-    <row r="123" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="58"/>
     </row>
-    <row r="124" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="58"/>
     </row>
-    <row r="125" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="58"/>
     </row>
-    <row r="126" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="58"/>
     </row>
-    <row r="127" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="58"/>
     </row>
-    <row r="128" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="58"/>
     </row>
-    <row r="129" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="58"/>
     </row>
-    <row r="130" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="58"/>
     </row>
-    <row r="131" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="58"/>
     </row>
-    <row r="132" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="58"/>
     </row>
-    <row r="133" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="58"/>
     </row>
-    <row r="134" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="58"/>
     </row>
-    <row r="135" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="58"/>
     </row>
-    <row r="136" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="58"/>
     </row>
-    <row r="137" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="58"/>
     </row>
-    <row r="138" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="58"/>
     </row>
-    <row r="139" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="58"/>
     </row>
-    <row r="140" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="58"/>
     </row>
-    <row r="141" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="58"/>
     </row>
-    <row r="142" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="58"/>
     </row>
-    <row r="143" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="58"/>
     </row>
-    <row r="144" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="58"/>
     </row>
-    <row r="145" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="58"/>
     </row>
-    <row r="146" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="58"/>
     </row>
-    <row r="147" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="58"/>
     </row>
-    <row r="148" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="58"/>
     </row>
-    <row r="149" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="58"/>
     </row>
-    <row r="150" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="58"/>
     </row>
-    <row r="151" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="58"/>
     </row>
-    <row r="152" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="58"/>
     </row>
-    <row r="153" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="58"/>
     </row>
-    <row r="154" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="58"/>
     </row>
-    <row r="155" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="58"/>
     </row>
-    <row r="156" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="58"/>
     </row>
-    <row r="157" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="58"/>
     </row>
-    <row r="158" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="58"/>
     </row>
-    <row r="159" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="58"/>
     </row>
-    <row r="160" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="58"/>
     </row>
-    <row r="161" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="58"/>
     </row>
-    <row r="162" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="58"/>
     </row>
-    <row r="163" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="58"/>
     </row>
-    <row r="164" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="58"/>
     </row>
-    <row r="165" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="58"/>
     </row>
-    <row r="166" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="58"/>
     </row>
-    <row r="167" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="58"/>
     </row>
-    <row r="168" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="58"/>
     </row>
-    <row r="169" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="58"/>
     </row>
-    <row r="170" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="58"/>
     </row>
-    <row r="171" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="58"/>
     </row>
-    <row r="172" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="58"/>
     </row>
-    <row r="173" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="58"/>
     </row>
-    <row r="174" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="58"/>
     </row>
-    <row r="175" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="58"/>
     </row>
-    <row r="176" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="58"/>
     </row>
-    <row r="177" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="58"/>
     </row>
-    <row r="178" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="58"/>
     </row>
-    <row r="179" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="58"/>
     </row>
-    <row r="180" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="58"/>
     </row>
-    <row r="181" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="58"/>
     </row>
-    <row r="182" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="58"/>
     </row>
-    <row r="183" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="58"/>
     </row>
-    <row r="184" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="58"/>
     </row>
-    <row r="185" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="58"/>
     </row>
-    <row r="186" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="58"/>
     </row>
-    <row r="187" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="58"/>
     </row>
-    <row r="188" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="58"/>
     </row>
-    <row r="189" spans="1:1" s="87" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="58"/>
     </row>
+    <row r="190" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="58"/>
+    </row>
+    <row r="191" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="58"/>
+    </row>
+    <row r="192" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="58"/>
+    </row>
+    <row r="193" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="58"/>
+    </row>
+    <row r="194" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="58"/>
+    </row>
+    <row r="195" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="58"/>
+    </row>
+    <row r="196" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="58"/>
+    </row>
+    <row r="197" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="58"/>
+    </row>
+    <row r="198" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="58"/>
+    </row>
+    <row r="199" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="58"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A35:A42"/>
+  <mergeCells count="10">
     <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A3:A21"/>
+    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A3:A28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A23:A33"/>
+    <mergeCell ref="A30:A42"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -1670,6 +1670,21 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1682,7 +1697,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1691,7 +1706,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1736,26 +1751,11 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,7 +2063,7 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
@@ -2097,10 +2097,10 @@
       <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="107" t="s">
+      <c r="A2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2123,8 +2123,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="108"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="113"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2146,8 +2146,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2169,8 +2169,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="114"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2192,8 +2192,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="109"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="114"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2215,8 +2215,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="109"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2238,8 +2238,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="109"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="114"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2261,8 +2261,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="109"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2284,8 +2284,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="109"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2307,8 +2307,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="109"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2330,8 +2330,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="109"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="114"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2353,8 +2353,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="109"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="114"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2376,8 +2376,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="109"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="114"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2399,8 +2399,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="109"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="114"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2422,8 +2422,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="109"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="114"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2445,8 +2445,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="109"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="114"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2468,8 +2468,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="109"/>
-      <c r="B18" s="114" t="s">
+      <c r="A18" s="114"/>
+      <c r="B18" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2492,8 +2492,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="109"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="114"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2515,8 +2515,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="109"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="114"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2538,8 +2538,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="109"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="114"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2561,8 +2561,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="109"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="114"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2584,8 +2584,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="109"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="114"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2607,8 +2607,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="109"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="114"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2630,8 +2630,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="109"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="114"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2653,8 +2653,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="109"/>
-      <c r="B26" s="112"/>
+      <c r="A26" s="114"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2676,8 +2676,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="109"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="114"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2699,8 +2699,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="109"/>
-      <c r="B28" s="112"/>
+      <c r="A28" s="114"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2722,8 +2722,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="109"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="114"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2745,8 +2745,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="114"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2768,8 +2768,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="114"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2791,8 +2791,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="114"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2814,8 +2814,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="110"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2857,10 +2857,10 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
+      <c r="A35" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2884,8 +2884,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
-      <c r="B36" s="112"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="117"/>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
@@ -2907,8 +2907,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
-      <c r="B37" s="112"/>
+      <c r="A37" s="114"/>
+      <c r="B37" s="117"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2930,8 +2930,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
-      <c r="B38" s="112"/>
+      <c r="A38" s="114"/>
+      <c r="B38" s="117"/>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2953,8 +2953,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
-      <c r="B39" s="112"/>
+      <c r="A39" s="114"/>
+      <c r="B39" s="117"/>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
@@ -2976,8 +2976,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
-      <c r="B40" s="112"/>
+      <c r="A40" s="114"/>
+      <c r="B40" s="117"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -2999,8 +2999,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
-      <c r="B41" s="112"/>
+      <c r="A41" s="114"/>
+      <c r="B41" s="117"/>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3022,8 +3022,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="109"/>
-      <c r="B42" s="112"/>
+      <c r="A42" s="114"/>
+      <c r="B42" s="117"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3045,8 +3045,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="109"/>
-      <c r="B43" s="112"/>
+      <c r="A43" s="114"/>
+      <c r="B43" s="117"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3068,8 +3068,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="109"/>
-      <c r="B44" s="112"/>
+      <c r="A44" s="114"/>
+      <c r="B44" s="117"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3091,8 +3091,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="109"/>
-      <c r="B45" s="112"/>
+      <c r="A45" s="114"/>
+      <c r="B45" s="117"/>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3114,8 +3114,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
-      <c r="B46" s="112"/>
+      <c r="A46" s="114"/>
+      <c r="B46" s="117"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3137,8 +3137,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
-      <c r="B47" s="112"/>
+      <c r="A47" s="114"/>
+      <c r="B47" s="117"/>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3160,8 +3160,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
-      <c r="B48" s="112"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="117"/>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3183,8 +3183,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
-      <c r="B49" s="112"/>
+      <c r="A49" s="114"/>
+      <c r="B49" s="117"/>
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3206,8 +3206,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
-      <c r="B50" s="113"/>
+      <c r="A50" s="114"/>
+      <c r="B50" s="118"/>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3229,8 +3229,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="109"/>
-      <c r="B51" s="114" t="s">
+      <c r="A51" s="114"/>
+      <c r="B51" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3253,8 +3253,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="109"/>
-      <c r="B52" s="112"/>
+      <c r="A52" s="114"/>
+      <c r="B52" s="117"/>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3276,8 +3276,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="109"/>
-      <c r="B53" s="112"/>
+      <c r="A53" s="114"/>
+      <c r="B53" s="117"/>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3299,8 +3299,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="109"/>
-      <c r="B54" s="112"/>
+      <c r="A54" s="114"/>
+      <c r="B54" s="117"/>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3322,8 +3322,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
-      <c r="B55" s="112"/>
+      <c r="A55" s="114"/>
+      <c r="B55" s="117"/>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3345,8 +3345,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
-      <c r="B56" s="112"/>
+      <c r="A56" s="114"/>
+      <c r="B56" s="117"/>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
@@ -3368,8 +3368,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
-      <c r="B57" s="112"/>
+      <c r="A57" s="114"/>
+      <c r="B57" s="117"/>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3391,8 +3391,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
-      <c r="B58" s="112"/>
+      <c r="A58" s="114"/>
+      <c r="B58" s="117"/>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3414,8 +3414,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
-      <c r="B59" s="112"/>
+      <c r="A59" s="114"/>
+      <c r="B59" s="117"/>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
@@ -3437,8 +3437,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
-      <c r="B60" s="112"/>
+      <c r="A60" s="114"/>
+      <c r="B60" s="117"/>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3460,8 +3460,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="109"/>
-      <c r="B61" s="112"/>
+      <c r="A61" s="114"/>
+      <c r="B61" s="117"/>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3483,8 +3483,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="109"/>
-      <c r="B62" s="112"/>
+      <c r="A62" s="114"/>
+      <c r="B62" s="117"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3506,8 +3506,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="109"/>
-      <c r="B63" s="112"/>
+      <c r="A63" s="114"/>
+      <c r="B63" s="117"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3529,8 +3529,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="109"/>
-      <c r="B64" s="112"/>
+      <c r="A64" s="114"/>
+      <c r="B64" s="117"/>
       <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
@@ -3552,8 +3552,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="109"/>
-      <c r="B65" s="112"/>
+      <c r="A65" s="114"/>
+      <c r="B65" s="117"/>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
@@ -3575,8 +3575,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="110"/>
-      <c r="B66" s="113"/>
+      <c r="A66" s="115"/>
+      <c r="B66" s="118"/>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3618,10 +3618,10 @@
       <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="107" t="s">
+      <c r="A68" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="111" t="s">
+      <c r="B68" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3644,8 +3644,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="108"/>
-      <c r="B69" s="112"/>
+      <c r="A69" s="113"/>
+      <c r="B69" s="117"/>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3667,8 +3667,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="109"/>
-      <c r="B70" s="112"/>
+      <c r="A70" s="114"/>
+      <c r="B70" s="117"/>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3690,8 +3690,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="109"/>
-      <c r="B71" s="112"/>
+      <c r="A71" s="114"/>
+      <c r="B71" s="117"/>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3713,8 +3713,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="109"/>
-      <c r="B72" s="112"/>
+      <c r="A72" s="114"/>
+      <c r="B72" s="117"/>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3736,8 +3736,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="109"/>
-      <c r="B73" s="112"/>
+      <c r="A73" s="114"/>
+      <c r="B73" s="117"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3759,8 +3759,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="109"/>
-      <c r="B74" s="112"/>
+      <c r="A74" s="114"/>
+      <c r="B74" s="117"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3782,8 +3782,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="109"/>
-      <c r="B75" s="112"/>
+      <c r="A75" s="114"/>
+      <c r="B75" s="117"/>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3805,8 +3805,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="109"/>
-      <c r="B76" s="112"/>
+      <c r="A76" s="114"/>
+      <c r="B76" s="117"/>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3828,8 +3828,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="109"/>
-      <c r="B77" s="112"/>
+      <c r="A77" s="114"/>
+      <c r="B77" s="117"/>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
@@ -3851,8 +3851,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="109"/>
-      <c r="B78" s="112"/>
+      <c r="A78" s="114"/>
+      <c r="B78" s="117"/>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
@@ -3874,8 +3874,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="109"/>
-      <c r="B79" s="112"/>
+      <c r="A79" s="114"/>
+      <c r="B79" s="117"/>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
@@ -3897,8 +3897,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="109"/>
-      <c r="B80" s="112"/>
+      <c r="A80" s="114"/>
+      <c r="B80" s="117"/>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
@@ -3920,8 +3920,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="109"/>
-      <c r="B81" s="112"/>
+      <c r="A81" s="114"/>
+      <c r="B81" s="117"/>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
@@ -3943,8 +3943,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="109"/>
-      <c r="B82" s="112"/>
+      <c r="A82" s="114"/>
+      <c r="B82" s="117"/>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
@@ -3966,8 +3966,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="109"/>
-      <c r="B83" s="113"/>
+      <c r="A83" s="114"/>
+      <c r="B83" s="118"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -3989,8 +3989,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="109"/>
-      <c r="B84" s="111" t="s">
+      <c r="A84" s="114"/>
+      <c r="B84" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4013,8 +4013,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="109"/>
-      <c r="B85" s="112"/>
+      <c r="A85" s="114"/>
+      <c r="B85" s="117"/>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -4036,8 +4036,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="109"/>
-      <c r="B86" s="112"/>
+      <c r="A86" s="114"/>
+      <c r="B86" s="117"/>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4059,8 +4059,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="109"/>
-      <c r="B87" s="112"/>
+      <c r="A87" s="114"/>
+      <c r="B87" s="117"/>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4082,8 +4082,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="109"/>
-      <c r="B88" s="112"/>
+      <c r="A88" s="114"/>
+      <c r="B88" s="117"/>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4105,8 +4105,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="109"/>
-      <c r="B89" s="112"/>
+      <c r="A89" s="114"/>
+      <c r="B89" s="117"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4128,8 +4128,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="109"/>
-      <c r="B90" s="112"/>
+      <c r="A90" s="114"/>
+      <c r="B90" s="117"/>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4151,8 +4151,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="109"/>
-      <c r="B91" s="112"/>
+      <c r="A91" s="114"/>
+      <c r="B91" s="117"/>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4174,8 +4174,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="109"/>
-      <c r="B92" s="112"/>
+      <c r="A92" s="114"/>
+      <c r="B92" s="117"/>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
@@ -4197,8 +4197,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="109"/>
-      <c r="B93" s="112"/>
+      <c r="A93" s="114"/>
+      <c r="B93" s="117"/>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4220,8 +4220,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="109"/>
-      <c r="B94" s="112"/>
+      <c r="A94" s="114"/>
+      <c r="B94" s="117"/>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4243,8 +4243,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="109"/>
-      <c r="B95" s="112"/>
+      <c r="A95" s="114"/>
+      <c r="B95" s="117"/>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
@@ -4266,8 +4266,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="109"/>
-      <c r="B96" s="112"/>
+      <c r="A96" s="114"/>
+      <c r="B96" s="117"/>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
@@ -4289,8 +4289,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="109"/>
-      <c r="B97" s="112"/>
+      <c r="A97" s="114"/>
+      <c r="B97" s="117"/>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
@@ -4312,8 +4312,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="109"/>
-      <c r="B98" s="112"/>
+      <c r="A98" s="114"/>
+      <c r="B98" s="117"/>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
@@ -4335,8 +4335,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="110"/>
-      <c r="B99" s="113"/>
+      <c r="A99" s="115"/>
+      <c r="B99" s="118"/>
       <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
@@ -4378,10 +4378,10 @@
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="107" t="s">
+      <c r="A101" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="114" t="s">
+      <c r="B101" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4404,8 +4404,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="108"/>
-      <c r="B102" s="112"/>
+      <c r="A102" s="113"/>
+      <c r="B102" s="117"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4427,8 +4427,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="109"/>
-      <c r="B103" s="112"/>
+      <c r="A103" s="114"/>
+      <c r="B103" s="117"/>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4450,8 +4450,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="109"/>
-      <c r="B104" s="112"/>
+      <c r="A104" s="114"/>
+      <c r="B104" s="117"/>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4473,8 +4473,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="109"/>
-      <c r="B105" s="112"/>
+      <c r="A105" s="114"/>
+      <c r="B105" s="117"/>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4496,8 +4496,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="109"/>
-      <c r="B106" s="112"/>
+      <c r="A106" s="114"/>
+      <c r="B106" s="117"/>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4519,8 +4519,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="109"/>
-      <c r="B107" s="112"/>
+      <c r="A107" s="114"/>
+      <c r="B107" s="117"/>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
@@ -4542,8 +4542,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="109"/>
-      <c r="B108" s="112"/>
+      <c r="A108" s="114"/>
+      <c r="B108" s="117"/>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4565,8 +4565,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="109"/>
-      <c r="B109" s="112"/>
+      <c r="A109" s="114"/>
+      <c r="B109" s="117"/>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4588,8 +4588,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="109"/>
-      <c r="B110" s="112"/>
+      <c r="A110" s="114"/>
+      <c r="B110" s="117"/>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4611,8 +4611,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="109"/>
-      <c r="B111" s="112"/>
+      <c r="A111" s="114"/>
+      <c r="B111" s="117"/>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4634,8 +4634,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="109"/>
-      <c r="B112" s="112"/>
+      <c r="A112" s="114"/>
+      <c r="B112" s="117"/>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4657,8 +4657,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="109"/>
-      <c r="B113" s="112"/>
+      <c r="A113" s="114"/>
+      <c r="B113" s="117"/>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4680,8 +4680,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="109"/>
-      <c r="B114" s="112"/>
+      <c r="A114" s="114"/>
+      <c r="B114" s="117"/>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4703,8 +4703,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="109"/>
-      <c r="B115" s="112"/>
+      <c r="A115" s="114"/>
+      <c r="B115" s="117"/>
       <c r="C115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4726,8 +4726,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="109"/>
-      <c r="B116" s="113"/>
+      <c r="A116" s="114"/>
+      <c r="B116" s="118"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4749,8 +4749,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="109"/>
-      <c r="B117" s="114" t="s">
+      <c r="A117" s="114"/>
+      <c r="B117" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4773,8 +4773,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="109"/>
-      <c r="B118" s="112"/>
+      <c r="A118" s="114"/>
+      <c r="B118" s="117"/>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
@@ -4796,8 +4796,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="109"/>
-      <c r="B119" s="112"/>
+      <c r="A119" s="114"/>
+      <c r="B119" s="117"/>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
@@ -4819,8 +4819,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="109"/>
-      <c r="B120" s="112"/>
+      <c r="A120" s="114"/>
+      <c r="B120" s="117"/>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4842,8 +4842,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="109"/>
-      <c r="B121" s="112"/>
+      <c r="A121" s="114"/>
+      <c r="B121" s="117"/>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
@@ -4865,8 +4865,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="109"/>
-      <c r="B122" s="112"/>
+      <c r="A122" s="114"/>
+      <c r="B122" s="117"/>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
@@ -4888,8 +4888,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="109"/>
-      <c r="B123" s="112"/>
+      <c r="A123" s="114"/>
+      <c r="B123" s="117"/>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
@@ -4911,8 +4911,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="109"/>
-      <c r="B124" s="112"/>
+      <c r="A124" s="114"/>
+      <c r="B124" s="117"/>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
@@ -4934,8 +4934,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="109"/>
-      <c r="B125" s="112"/>
+      <c r="A125" s="114"/>
+      <c r="B125" s="117"/>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
@@ -4957,8 +4957,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="109"/>
-      <c r="B126" s="112"/>
+      <c r="A126" s="114"/>
+      <c r="B126" s="117"/>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
@@ -4980,8 +4980,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="109"/>
-      <c r="B127" s="112"/>
+      <c r="A127" s="114"/>
+      <c r="B127" s="117"/>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
@@ -5003,8 +5003,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="109"/>
-      <c r="B128" s="112"/>
+      <c r="A128" s="114"/>
+      <c r="B128" s="117"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -5026,8 +5026,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="109"/>
-      <c r="B129" s="112"/>
+      <c r="A129" s="114"/>
+      <c r="B129" s="117"/>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
@@ -5049,8 +5049,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="109"/>
-      <c r="B130" s="112"/>
+      <c r="A130" s="114"/>
+      <c r="B130" s="117"/>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5072,8 +5072,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="109"/>
-      <c r="B131" s="112"/>
+      <c r="A131" s="114"/>
+      <c r="B131" s="117"/>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
@@ -5095,8 +5095,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="110"/>
-      <c r="B132" s="113"/>
+      <c r="A132" s="115"/>
+      <c r="B132" s="118"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5139,18 +5139,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:A99"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="A101:A132"/>
+    <mergeCell ref="B101:B116"/>
+    <mergeCell ref="B117:B132"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A35:A66"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A68:A99"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="A101:A132"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5214,10 +5214,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="115" t="s">
+      <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5241,8 +5241,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="116"/>
-      <c r="B3" s="112"/>
+      <c r="A3" s="121"/>
+      <c r="B3" s="117"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5264,8 +5264,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="117"/>
-      <c r="B4" s="112"/>
+      <c r="A4" s="122"/>
+      <c r="B4" s="117"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5287,8 +5287,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="117"/>
-      <c r="B5" s="112"/>
+      <c r="A5" s="122"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5310,8 +5310,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="117"/>
-      <c r="B6" s="112"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5333,8 +5333,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="117"/>
-      <c r="B7" s="112"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5356,8 +5356,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="117"/>
-      <c r="B8" s="112"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5379,8 +5379,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="117"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5402,8 +5402,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="117"/>
-      <c r="B10" s="112"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5425,8 +5425,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="117"/>
-      <c r="B11" s="112"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5448,8 +5448,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="117"/>
-      <c r="B12" s="112"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5471,8 +5471,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="117"/>
-      <c r="B13" s="112"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5494,8 +5494,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="117"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="122"/>
+      <c r="B14" s="117"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5517,8 +5517,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="117"/>
-      <c r="B15" s="112"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="117"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5540,8 +5540,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="117"/>
-      <c r="B16" s="112"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="117"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5563,8 +5563,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="117"/>
-      <c r="B17" s="113"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="118"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5586,8 +5586,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="117"/>
-      <c r="B18" s="114" t="s">
+      <c r="A18" s="122"/>
+      <c r="B18" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5610,8 +5610,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="117"/>
-      <c r="B19" s="112"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="117"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5633,8 +5633,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="117"/>
-      <c r="B20" s="112"/>
+      <c r="A20" s="122"/>
+      <c r="B20" s="117"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -5656,8 +5656,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="117"/>
-      <c r="B21" s="112"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5679,8 +5679,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="117"/>
-      <c r="B22" s="112"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="117"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5702,8 +5702,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="117"/>
-      <c r="B23" s="112"/>
+      <c r="A23" s="122"/>
+      <c r="B23" s="117"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5725,8 +5725,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="117"/>
-      <c r="B24" s="112"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="117"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5748,8 +5748,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="117"/>
-      <c r="B25" s="112"/>
+      <c r="A25" s="122"/>
+      <c r="B25" s="117"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5771,8 +5771,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="117"/>
-      <c r="B26" s="112"/>
+      <c r="A26" s="122"/>
+      <c r="B26" s="117"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5794,8 +5794,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="117"/>
-      <c r="B27" s="112"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="117"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5817,8 +5817,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="117"/>
-      <c r="B28" s="112"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -5840,8 +5840,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="117"/>
-      <c r="B29" s="112"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -5863,8 +5863,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="117"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="117"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -5886,8 +5886,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="117"/>
-      <c r="B31" s="112"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="117"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -5909,8 +5909,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="117"/>
-      <c r="B32" s="112"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="117"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -5932,8 +5932,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="118"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="123"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -6022,7 +6022,7 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="124" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="52">
@@ -6045,7 +6045,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="119"/>
+      <c r="A3" s="124"/>
       <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
         <v>1</v>
@@ -6068,7 +6068,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="119"/>
+      <c r="A4" s="124"/>
       <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
         <v>2</v>
@@ -6091,7 +6091,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="119"/>
+      <c r="A5" s="124"/>
       <c r="B5" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6114,7 +6114,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="119"/>
+      <c r="A6" s="124"/>
       <c r="B6" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6137,7 +6137,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="119"/>
+      <c r="A7" s="124"/>
       <c r="B7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6160,7 +6160,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="119"/>
+      <c r="A8" s="124"/>
       <c r="B8" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6183,7 +6183,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="119"/>
+      <c r="A9" s="124"/>
       <c r="B9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6206,7 +6206,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="119"/>
+      <c r="A10" s="124"/>
       <c r="B10" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6229,7 +6229,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="119"/>
+      <c r="A11" s="124"/>
       <c r="B11" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6252,7 +6252,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="119"/>
+      <c r="A12" s="124"/>
       <c r="B12" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6275,7 +6275,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="119"/>
+      <c r="A13" s="124"/>
       <c r="B13" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6298,7 +6298,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119"/>
+      <c r="A14" s="124"/>
       <c r="B14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6321,7 +6321,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="119"/>
+      <c r="A15" s="124"/>
       <c r="B15" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6344,7 +6344,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119"/>
+      <c r="A16" s="124"/>
       <c r="B16" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6367,7 +6367,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119"/>
+      <c r="A17" s="124"/>
       <c r="B17" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6390,7 +6390,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="119"/>
+      <c r="A18" s="124"/>
       <c r="B18" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6413,7 +6413,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119"/>
+      <c r="A19" s="124"/>
       <c r="B19" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6436,7 +6436,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="119"/>
+      <c r="A20" s="124"/>
       <c r="B20" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6459,7 +6459,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="119"/>
+      <c r="A21" s="124"/>
       <c r="B21" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6482,7 +6482,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="119"/>
+      <c r="A22" s="124"/>
       <c r="B22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6505,7 +6505,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="119"/>
+      <c r="A23" s="124"/>
       <c r="B23" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6519,7 +6519,7 @@
       <c r="E23" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="135" t="s">
+      <c r="F23" s="109" t="s">
         <v>198</v>
       </c>
       <c r="G23" s="25">
@@ -6528,7 +6528,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="119"/>
+      <c r="A24" s="124"/>
       <c r="B24" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6549,7 +6549,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="119"/>
+      <c r="A25" s="124"/>
       <c r="B25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6563,7 +6563,7 @@
       <c r="E25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="136" t="s">
+      <c r="F25" s="110" t="s">
         <v>199</v>
       </c>
       <c r="G25" s="25">
@@ -6572,7 +6572,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="119"/>
+      <c r="A26" s="124"/>
       <c r="B26" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6594,7 +6594,7 @@
       <c r="J26" s="58"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="119"/>
+      <c r="A27" s="124"/>
       <c r="B27" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="119"/>
+      <c r="A28" s="124"/>
       <c r="B28" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6640,7 +6640,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="119"/>
+      <c r="A29" s="124"/>
       <c r="B29" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6663,7 +6663,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="119"/>
+      <c r="A30" s="124"/>
       <c r="B30" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6686,7 +6686,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119"/>
+      <c r="A31" s="124"/>
       <c r="B31" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6700,7 +6700,7 @@
       <c r="E31" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="F31" s="136" t="s">
+      <c r="F31" s="110" t="s">
         <v>201</v>
       </c>
       <c r="G31" s="25">
@@ -6709,7 +6709,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="119"/>
+      <c r="A32" s="124"/>
       <c r="B32" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6732,7 +6732,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="119"/>
+      <c r="A33" s="124"/>
       <c r="B33" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6755,7 +6755,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="120"/>
+      <c r="A34" s="125"/>
       <c r="B34" s="51">
         <v>32</v>
       </c>
@@ -6836,8 +6836,8 @@
   </sheetPr>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
@@ -6865,34 +6865,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="129"/>
-      <c r="B1" s="124" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="133" t="s">
+      <c r="C1" s="136" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="133" t="s">
+      <c r="D1" s="136" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="133" t="s">
+      <c r="E1" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="126" t="s">
+      <c r="F1" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="128"/>
+      <c r="G1" s="132"/>
+      <c r="H1" s="132"/>
+      <c r="I1" s="132"/>
+      <c r="J1" s="133"/>
       <c r="K1" s="46"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="130"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="137"/>
       <c r="F2" s="67" t="s">
         <v>178</v>
       </c>
@@ -6911,7 +6911,7 @@
       <c r="K2" s="46"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="121" t="s">
+      <c r="A3" s="126" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="65">
@@ -6946,7 +6946,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
+      <c r="A4" s="127"/>
       <c r="B4" s="59">
         <f>B3+1</f>
         <v>2</v>
@@ -6981,7 +6981,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
+      <c r="A5" s="127"/>
       <c r="B5" s="59">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
@@ -7016,7 +7016,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
+      <c r="A6" s="127"/>
       <c r="B6" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7051,12 +7051,12 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
+      <c r="A7" s="127"/>
       <c r="B7" s="59">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="132" t="s">
+      <c r="C7" s="108" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="106" t="s">
@@ -7086,12 +7086,12 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
+      <c r="A8" s="127"/>
       <c r="B8" s="59">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="132" t="s">
+      <c r="C8" s="108" t="s">
         <v>149</v>
       </c>
       <c r="D8" s="106" t="s">
@@ -7121,7 +7121,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
+      <c r="A9" s="127"/>
       <c r="B9" s="59">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7156,7 +7156,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="127"/>
       <c r="B10" s="59">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7191,7 +7191,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
+      <c r="A11" s="127"/>
       <c r="B11" s="59">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -7226,7 +7226,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
+      <c r="A12" s="127"/>
       <c r="B12" s="59">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7261,7 +7261,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
+      <c r="A13" s="127"/>
       <c r="B13" s="59">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7296,7 +7296,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
+      <c r="A14" s="127"/>
       <c r="B14" s="59">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7331,12 +7331,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
+      <c r="A15" s="127"/>
       <c r="B15" s="59">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="107" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="75" t="s">
@@ -7366,12 +7366,12 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
+      <c r="A16" s="127"/>
       <c r="B16" s="59">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="107" t="s">
         <v>145</v>
       </c>
       <c r="D16" s="75" t="s">
@@ -7401,7 +7401,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="122"/>
+      <c r="A17" s="127"/>
       <c r="B17" s="59">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7436,7 +7436,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="60">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7471,7 +7471,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="60">
         <f>B18+1</f>
         <v>17</v>
@@ -7506,7 +7506,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="60">
         <f>B19+1</f>
         <v>18</v>
@@ -7541,7 +7541,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="60">
         <v>19</v>
       </c>
@@ -7574,7 +7574,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
+      <c r="A22" s="127"/>
       <c r="B22" s="60">
         <v>20</v>
       </c>
@@ -7607,7 +7607,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
+      <c r="A23" s="127"/>
       <c r="B23" s="60">
         <v>21</v>
       </c>
@@ -7640,7 +7640,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
+      <c r="A24" s="127"/>
       <c r="B24" s="60">
         <v>22</v>
       </c>
@@ -7673,7 +7673,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
+      <c r="A25" s="127"/>
       <c r="B25" s="60">
         <v>23</v>
       </c>
@@ -7706,7 +7706,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
+      <c r="A26" s="127"/>
       <c r="B26" s="60">
         <v>24</v>
       </c>
@@ -7739,18 +7739,18 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
+      <c r="A27" s="127"/>
       <c r="B27" s="60">
         <v>25</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>67</v>
+        <v>170</v>
       </c>
       <c r="F27" s="73" t="s">
         <v>67</v>
@@ -7772,7 +7772,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="123"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="60">
         <v>26</v>
       </c>
@@ -7836,7 +7836,7 @@
       <c r="K29" s="49"/>
     </row>
     <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="107" t="s">
+      <c r="A30" s="112" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="68">
@@ -7871,13 +7871,13 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="108"/>
+      <c r="A31" s="113"/>
       <c r="B31" s="66">
         <f>B30+1</f>
         <v>2</v>
       </c>
       <c r="C31" s="75" t="s">
-        <v>170</v>
+        <v>67</v>
       </c>
       <c r="D31" s="80" t="s">
         <v>67</v>
@@ -7906,7 +7906,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
+      <c r="A32" s="114"/>
       <c r="B32" s="66">
         <f t="shared" ref="B32:B39" si="2">B31+1</f>
         <v>3</v>
@@ -7941,7 +7941,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
+      <c r="A33" s="114"/>
       <c r="B33" s="66">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -7976,7 +7976,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
+      <c r="A34" s="114"/>
       <c r="B34" s="66">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8011,7 +8011,7 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="109"/>
+      <c r="A35" s="114"/>
       <c r="B35" s="66">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8046,7 +8046,7 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="109"/>
+      <c r="A36" s="114"/>
       <c r="B36" s="66">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8054,7 +8054,7 @@
       <c r="C36" s="101" t="s">
         <v>195</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="111" t="s">
         <v>67</v>
       </c>
       <c r="E36" s="73" t="s">
@@ -8081,7 +8081,7 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="109"/>
+      <c r="A37" s="114"/>
       <c r="B37" s="66">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8116,7 +8116,7 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="109"/>
+      <c r="A38" s="114"/>
       <c r="B38" s="66">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8151,7 +8151,7 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="109"/>
+      <c r="A39" s="114"/>
       <c r="B39" s="66">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8186,7 +8186,7 @@
       </c>
     </row>
     <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="109"/>
+      <c r="A40" s="114"/>
       <c r="B40" s="66">
         <v>11</v>
       </c>
@@ -8219,7 +8219,7 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="109"/>
+      <c r="A41" s="114"/>
       <c r="B41" s="66">
         <v>12</v>
       </c>
@@ -8252,7 +8252,7 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="109"/>
+      <c r="A42" s="114"/>
       <c r="B42" s="66">
         <v>13</v>
       </c>
@@ -8316,7 +8316,7 @@
       <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="107" t="s">
+      <c r="A44" s="112" t="s">
         <v>23</v>
       </c>
       <c r="B44" s="68">
@@ -8351,7 +8351,7 @@
       </c>
     </row>
     <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="108"/>
+      <c r="A45" s="113"/>
       <c r="B45" s="66">
         <f>B44+1</f>
         <v>2</v>
@@ -8386,7 +8386,7 @@
       </c>
     </row>
     <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="109"/>
+      <c r="A46" s="114"/>
       <c r="B46" s="66">
         <f t="shared" ref="B46:B51" si="4">B45+1</f>
         <v>3</v>
@@ -8421,7 +8421,7 @@
       </c>
     </row>
     <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="109"/>
+      <c r="A47" s="114"/>
       <c r="B47" s="66">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -8456,7 +8456,7 @@
       </c>
     </row>
     <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="109"/>
+      <c r="A48" s="114"/>
       <c r="B48" s="66">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -8491,7 +8491,7 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="109"/>
+      <c r="A49" s="114"/>
       <c r="B49" s="66">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -8526,7 +8526,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="109"/>
+      <c r="A50" s="114"/>
       <c r="B50" s="66">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -8561,7 +8561,7 @@
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="109"/>
+      <c r="A51" s="114"/>
       <c r="B51" s="66">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -8627,7 +8627,7 @@
       <c r="K52" s="49"/>
     </row>
     <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="107" t="s">
+      <c r="A53" s="112" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="68">
@@ -8662,7 +8662,7 @@
       </c>
     </row>
     <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="108"/>
+      <c r="A54" s="113"/>
       <c r="B54" s="66">
         <f>B53+1</f>
         <v>2</v>
@@ -8697,7 +8697,7 @@
       </c>
     </row>
     <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="109"/>
+      <c r="A55" s="114"/>
       <c r="B55" s="66">
         <f t="shared" ref="B55:B59" si="6">B54+1</f>
         <v>3</v>
@@ -8732,7 +8732,7 @@
       </c>
     </row>
     <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="109"/>
+      <c r="A56" s="114"/>
       <c r="B56" s="66">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -8767,7 +8767,7 @@
       </c>
     </row>
     <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="109"/>
+      <c r="A57" s="114"/>
       <c r="B57" s="66">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -8802,7 +8802,7 @@
       </c>
     </row>
     <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="109"/>
+      <c r="A58" s="114"/>
       <c r="B58" s="66">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -8837,7 +8837,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="109"/>
+      <c r="A59" s="114"/>
       <c r="B59" s="66">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -8872,7 +8872,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="109"/>
+      <c r="A60" s="114"/>
       <c r="B60" s="66">
         <v>8</v>
       </c>
@@ -8905,7 +8905,7 @@
       </c>
     </row>
     <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="109"/>
+      <c r="A61" s="114"/>
       <c r="B61" s="66">
         <v>9</v>
       </c>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795" activeTab="3"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="214">
   <si>
     <t>Защита</t>
   </si>
@@ -328,18 +328,6 @@
     <t>Высокое напр. выхода</t>
   </si>
   <si>
-    <t>Нет КЧ 5 сек на ПРМ1</t>
-  </si>
-  <si>
-    <t>Нет КЧ 5 сек на ПРМ2</t>
-  </si>
-  <si>
-    <t>Восстан-е КЧ на ПРМ1</t>
-  </si>
-  <si>
-    <t>Восстан-е КЧ на ПРМ2</t>
-  </si>
-  <si>
     <t>Неиспр чт/зап 2RAM</t>
   </si>
   <si>
@@ -653,6 +641,30 @@
   </si>
   <si>
     <t>Совместимость (УПАСК)</t>
+  </si>
+  <si>
+    <t>Нет РЗ 5 сек на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Сниж. ур. КЧ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Нет КЧ 5 на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Восст. ур.КЧ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Восстан-е РЗ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Нет РЗ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Сниж. ур. РЗ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Восст. ур.РЗ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
   </si>
 </sst>
 </file>
@@ -1697,7 +1709,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1706,7 +1718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2083,7 +2095,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E1" s="43" t="s">
         <v>4</v>
@@ -2100,7 +2112,7 @@
       <c r="A2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2469,7 +2481,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="114"/>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2843,7 +2855,7 @@
         <v>6</v>
       </c>
       <c r="D34" s="43" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E34" s="43" t="s">
         <v>4</v>
@@ -2860,7 +2872,7 @@
       <c r="A35" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3230,7 +3242,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="114"/>
-      <c r="B51" s="116" t="s">
+      <c r="B51" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3604,7 +3616,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E67" s="48" t="s">
         <v>4</v>
@@ -3621,7 +3633,7 @@
       <c r="A68" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="119" t="s">
+      <c r="B68" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3990,7 +4002,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="114"/>
-      <c r="B84" s="119" t="s">
+      <c r="B84" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4022,13 +4034,13 @@
         <v>67</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F85" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G85" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H85" s="25">
         <f>H84+1</f>
@@ -4045,13 +4057,13 @@
         <v>67</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G86" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H86" s="25">
         <f t="shared" ref="H86:H99" si="5">H85+1</f>
@@ -4364,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="D100" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E100" s="43" t="s">
         <v>4</v>
@@ -4381,7 +4393,7 @@
       <c r="A101" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4750,7 +4762,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="114"/>
-      <c r="B117" s="116" t="s">
+      <c r="B117" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4782,13 +4794,13 @@
         <v>67</v>
       </c>
       <c r="E118" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F118" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G118" s="30" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H118" s="25">
         <f t="shared" ref="H118:H132" si="7">H117+1</f>
@@ -4805,13 +4817,13 @@
         <v>67</v>
       </c>
       <c r="E119" s="8" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F119" s="8" t="s">
         <v>67</v>
       </c>
       <c r="G119" s="30" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H119" s="25">
         <f t="shared" si="7"/>
@@ -5124,7 +5136,7 @@
         <v>6</v>
       </c>
       <c r="D133" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E133" s="48" t="s">
         <v>4</v>
@@ -5139,18 +5151,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A35:A66"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
     <mergeCell ref="A68:A99"/>
     <mergeCell ref="B68:B83"/>
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="A101:A132"/>
     <mergeCell ref="B101:B116"/>
     <mergeCell ref="B117:B132"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A35:A66"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5217,7 +5229,7 @@
       <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5587,7 +5599,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5972,8 +5984,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6008,16 +6020,16 @@
         <v>6</v>
       </c>
       <c r="C1" s="48" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D1" s="48" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E1" s="48" t="s">
         <v>81</v>
       </c>
       <c r="F1" s="45" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="G1" s="49"/>
     </row>
@@ -6051,13 +6063,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D3" s="56" t="s">
         <v>84</v>
       </c>
       <c r="E3" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F3" s="56" t="s">
         <v>84</v>
@@ -6074,13 +6086,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="57" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D4" s="56" t="s">
         <v>85</v>
       </c>
       <c r="E4" s="57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F4" s="56" t="s">
         <v>85</v>
@@ -6097,13 +6109,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="57" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F5" s="57" t="s">
         <v>86</v>
@@ -6120,7 +6132,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D6" s="57" t="s">
         <v>67</v>
@@ -6143,7 +6155,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D7" s="57" t="s">
         <v>87</v>
@@ -6166,13 +6178,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D8" s="57" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="57" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F8" s="57" t="s">
         <v>88</v>
@@ -6189,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D9" s="57" t="s">
         <v>89</v>
@@ -6218,7 +6230,7 @@
         <v>90</v>
       </c>
       <c r="E10" s="57" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F10" s="56" t="s">
         <v>90</v>
@@ -6241,7 +6253,7 @@
         <v>91</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F11" s="56" t="s">
         <v>91</v>
@@ -6264,7 +6276,7 @@
         <v>92</v>
       </c>
       <c r="E12" s="57" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F12" s="56" t="s">
         <v>92</v>
@@ -6281,13 +6293,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="57" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D13" s="56" t="s">
         <v>93</v>
       </c>
       <c r="E13" s="57" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F13" s="56" t="s">
         <v>93</v>
@@ -6304,13 +6316,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="57" t="s">
-        <v>77</v>
+        <v>104</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>206</v>
       </c>
       <c r="E14" s="57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F14" s="57" t="s">
         <v>77</v>
@@ -6327,13 +6339,13 @@
         <v>13</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D15" s="57" t="s">
         <v>94</v>
       </c>
       <c r="E15" s="57" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F15" s="57" t="s">
         <v>94</v>
@@ -6350,13 +6362,13 @@
         <v>14</v>
       </c>
       <c r="C16" s="57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D16" s="57" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F16" s="57" t="s">
         <v>95</v>
@@ -6396,13 +6408,13 @@
         <v>16</v>
       </c>
       <c r="C18" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="D18" s="57" t="s">
-        <v>67</v>
+        <v>113</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>207</v>
       </c>
       <c r="E18" s="57" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F18" s="57" t="s">
         <v>67</v>
@@ -6419,13 +6431,13 @@
         <v>17</v>
       </c>
       <c r="C19" s="57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D19" s="57" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="57" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F19" s="57" t="s">
         <v>97</v>
@@ -6442,13 +6454,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D20" s="57" t="s">
         <v>98</v>
       </c>
       <c r="E20" s="57" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F20" s="57" t="s">
         <v>98</v>
@@ -6465,13 +6477,13 @@
         <v>19</v>
       </c>
       <c r="C21" s="57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D21" s="57" t="s">
         <v>99</v>
       </c>
       <c r="E21" s="57" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F21" s="57" t="s">
         <v>99</v>
@@ -6488,13 +6500,13 @@
         <v>20</v>
       </c>
       <c r="C22" s="57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D22" s="57" t="s">
         <v>100</v>
       </c>
       <c r="E22" s="57" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F22" s="57" t="s">
         <v>100</v>
@@ -6511,16 +6523,16 @@
         <v>21</v>
       </c>
       <c r="C23" s="57" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="57" t="s">
-        <v>101</v>
+        <v>118</v>
+      </c>
+      <c r="D23" s="109" t="s">
+        <v>194</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F23" s="109" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G23" s="25">
         <f t="shared" si="1"/>
@@ -6534,13 +6546,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="57" t="s">
-        <v>123</v>
-      </c>
-      <c r="D24" s="57" t="s">
-        <v>102</v>
+        <v>119</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>208</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F24" s="57"/>
       <c r="G24" s="25">
@@ -6557,14 +6569,14 @@
       <c r="C25" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="57" t="s">
-        <v>103</v>
+      <c r="D25" s="110" t="s">
+        <v>195</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>94</v>
       </c>
       <c r="F25" s="110" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G25" s="25">
         <f t="shared" si="1"/>
@@ -6578,13 +6590,13 @@
         <v>24</v>
       </c>
       <c r="C26" s="57" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>209</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" s="57"/>
       <c r="G26" s="25">
@@ -6600,16 +6612,16 @@
         <v>25</v>
       </c>
       <c r="C27" s="57" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D27" s="57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E27" s="57" t="s">
         <v>85</v>
       </c>
       <c r="F27" s="57" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G27" s="25">
         <f t="shared" si="1"/>
@@ -6623,16 +6635,16 @@
         <v>26</v>
       </c>
       <c r="C28" s="57" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F28" s="57" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G28" s="25">
         <f t="shared" si="1"/>
@@ -6646,16 +6658,16 @@
         <v>27</v>
       </c>
       <c r="C29" s="57" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D29" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F29" s="57" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G29" s="25">
         <f t="shared" si="1"/>
@@ -6669,16 +6681,16 @@
         <v>28</v>
       </c>
       <c r="C30" s="57" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D30" s="57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F30" s="57" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G30" s="25">
         <f t="shared" si="1"/>
@@ -6692,16 +6704,16 @@
         <v>29</v>
       </c>
       <c r="C31" s="57" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="57" t="s">
-        <v>67</v>
+        <v>125</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>212</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F31" s="110" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G31" s="25">
         <f t="shared" si="1"/>
@@ -6715,16 +6727,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="57" t="s">
-        <v>67</v>
+        <v>126</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>210</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F32" s="57" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G32" s="25">
         <f t="shared" si="1"/>
@@ -6738,16 +6750,16 @@
         <v>31</v>
       </c>
       <c r="C33" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="57" t="s">
-        <v>67</v>
+        <v>127</v>
+      </c>
+      <c r="D33" s="110" t="s">
+        <v>211</v>
       </c>
       <c r="E33" s="57" t="s">
         <v>67</v>
       </c>
       <c r="F33" s="57" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G33" s="25">
         <f t="shared" si="1"/>
@@ -6760,16 +6772,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="57" t="s">
-        <v>67</v>
+        <v>128</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>213</v>
       </c>
       <c r="E34" s="57" t="s">
         <v>67</v>
       </c>
       <c r="F34" s="57" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="1"/>
@@ -6797,27 +6809,27 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C37" s="93" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C38" s="94" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C39" s="95" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C40" s="96" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C41" s="105" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6836,7 +6848,7 @@
   </sheetPr>
   <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
@@ -6879,7 +6891,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="131" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="G1" s="132"/>
       <c r="H1" s="132"/>
@@ -6894,19 +6906,19 @@
       <c r="D2" s="137"/>
       <c r="E2" s="137"/>
       <c r="F2" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="J2" s="64" t="s">
         <v>178</v>
-      </c>
-      <c r="G2" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="H2" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="I2" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="K2" s="46"/>
     </row>
@@ -6918,16 +6930,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G3" s="99" t="s">
         <v>67</v>
@@ -6952,28 +6964,28 @@
         <v>2</v>
       </c>
       <c r="C4" s="75" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D4" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="106" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G4" s="54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H4" s="54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I4" s="54" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="J4" s="74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K4" s="25">
         <f>K3+1</f>
@@ -6987,28 +6999,28 @@
         <v>3</v>
       </c>
       <c r="C5" s="75" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D5" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F5" s="73" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H5" s="54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="I5" s="54" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J5" s="74" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K5" s="25">
         <f t="shared" ref="K5:K18" si="1">K4+1</f>
@@ -7022,13 +7034,13 @@
         <v>4</v>
       </c>
       <c r="C6" s="75" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D6" s="106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E6" s="106" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F6" s="73" t="s">
         <v>67</v>
@@ -7057,13 +7069,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="108" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D7" s="106" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E7" s="106" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>67</v>
@@ -7092,13 +7104,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="108" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D8" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E8" s="106" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F8" s="73" t="s">
         <v>67</v>
@@ -7130,7 +7142,7 @@
         <v>67</v>
       </c>
       <c r="D9" s="75" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E9" s="75" t="s">
         <v>67</v>
@@ -7162,13 +7174,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D10" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="92" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F10" s="73" t="s">
         <v>67</v>
@@ -7197,28 +7209,28 @@
         <v>9</v>
       </c>
       <c r="C11" s="75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D11" s="75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E11" s="75" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F11" s="73" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G11" s="54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="H11" s="54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I11" s="54" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J11" s="74" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K11" s="25">
         <f t="shared" si="1"/>
@@ -7232,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="75" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D12" s="75" t="s">
         <v>67</v>
@@ -7267,28 +7279,28 @@
         <v>11</v>
       </c>
       <c r="C13" s="75" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E13" s="106" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F13" s="73" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G13" s="55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="I13" s="55" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J13" s="72" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K13" s="25">
         <f t="shared" si="1"/>
@@ -7302,28 +7314,28 @@
         <v>12</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="106" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F14" s="73" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G14" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I14" s="55" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="J14" s="72" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K14" s="25">
         <f t="shared" si="1"/>
@@ -7337,28 +7349,28 @@
         <v>13</v>
       </c>
       <c r="C15" s="107" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D15" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E15" s="75" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F15" s="73" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="G15" s="54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H15" s="54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I15" s="54" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="J15" s="74" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K15" s="25">
         <f t="shared" si="1"/>
@@ -7372,28 +7384,28 @@
         <v>14</v>
       </c>
       <c r="C16" s="107" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D16" s="75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E16" s="75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F16" s="73" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G16" s="54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H16" s="54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="I16" s="54" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J16" s="74" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K16" s="25">
         <f t="shared" si="1"/>
@@ -7416,19 +7428,19 @@
         <v>67</v>
       </c>
       <c r="F17" s="73" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G17" s="54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H17" s="54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I17" s="54" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J17" s="74" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K17" s="25">
         <f t="shared" si="1"/>
@@ -7451,19 +7463,19 @@
         <v>67</v>
       </c>
       <c r="F18" s="73" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G18" s="54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H18" s="54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="I18" s="54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="J18" s="74" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K18" s="25">
         <f t="shared" si="1"/>
@@ -7495,7 +7507,7 @@
         <v>67</v>
       </c>
       <c r="I19" s="55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="J19" s="74" t="s">
         <v>67</v>
@@ -7530,7 +7542,7 @@
         <v>67</v>
       </c>
       <c r="I20" s="54" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J20" s="74" t="s">
         <v>67</v>
@@ -7564,7 +7576,7 @@
         <v>67</v>
       </c>
       <c r="I21" s="54" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J21" s="54" t="s">
         <v>67</v>
@@ -7597,7 +7609,7 @@
         <v>67</v>
       </c>
       <c r="I22" s="54" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="J22" s="54" t="s">
         <v>67</v>
@@ -7630,7 +7642,7 @@
         <v>67</v>
       </c>
       <c r="I23" s="54" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="J23" s="54" t="s">
         <v>67</v>
@@ -7663,7 +7675,7 @@
         <v>67</v>
       </c>
       <c r="I24" s="54" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="J24" s="54" t="s">
         <v>67</v>
@@ -7699,7 +7711,7 @@
         <v>67</v>
       </c>
       <c r="J25" s="72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K25" s="25">
         <v>23</v>
@@ -7717,7 +7729,7 @@
         <v>67</v>
       </c>
       <c r="E26" s="102" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F26" s="73" t="s">
         <v>67</v>
@@ -7744,13 +7756,13 @@
         <v>25</v>
       </c>
       <c r="C27" s="75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D27" s="75" t="s">
         <v>67</v>
       </c>
       <c r="E27" s="75" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F27" s="73" t="s">
         <v>67</v>
@@ -7819,19 +7831,19 @@
         <v>5</v>
       </c>
       <c r="F29" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="G29" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="H29" s="63" t="s">
+        <v>176</v>
+      </c>
+      <c r="I29" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="J29" s="64" t="s">
         <v>178</v>
-      </c>
-      <c r="G29" s="63" t="s">
-        <v>179</v>
-      </c>
-      <c r="H29" s="63" t="s">
-        <v>180</v>
-      </c>
-      <c r="I29" s="63" t="s">
-        <v>181</v>
-      </c>
-      <c r="J29" s="64" t="s">
-        <v>182</v>
       </c>
       <c r="K29" s="49"/>
     </row>
@@ -7843,7 +7855,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D30" s="91" t="s">
         <v>67</v>
@@ -7852,19 +7864,19 @@
         <v>67</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G30" s="99" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H30" s="99" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I30" s="99" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J30" s="78" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K30" s="24">
         <v>1</v>
@@ -7886,19 +7898,19 @@
         <v>67</v>
       </c>
       <c r="F31" s="73" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G31" s="54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="H31" s="54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I31" s="54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="J31" s="74" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="K31" s="25">
         <f>K30+1</f>
@@ -7912,7 +7924,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="75" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D32" s="80" t="s">
         <v>67</v>
@@ -7921,19 +7933,19 @@
         <v>67</v>
       </c>
       <c r="F32" s="73" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G32" s="54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="H32" s="54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I32" s="54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J32" s="74" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="K32" s="25">
         <f t="shared" ref="K32:K39" si="3">K31+1</f>
@@ -7947,7 +7959,7 @@
         <v>4</v>
       </c>
       <c r="C33" s="75" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D33" s="80" t="s">
         <v>67</v>
@@ -7956,19 +7968,19 @@
         <v>67</v>
       </c>
       <c r="F33" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J33" s="74" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="K33" s="25">
         <f t="shared" si="3"/>
@@ -7982,7 +7994,7 @@
         <v>5</v>
       </c>
       <c r="C34" s="101" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D34" s="80" t="s">
         <v>67</v>
@@ -7991,19 +8003,19 @@
         <v>67</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G34" s="103" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H34" s="103" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="I34" s="103" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="J34" s="104" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K34" s="25">
         <f t="shared" si="3"/>
@@ -8017,7 +8029,7 @@
         <v>6</v>
       </c>
       <c r="C35" s="75" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D35" s="80" t="s">
         <v>67</v>
@@ -8052,7 +8064,7 @@
         <v>7</v>
       </c>
       <c r="C36" s="101" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D36" s="111" t="s">
         <v>67</v>
@@ -8061,19 +8073,19 @@
         <v>67</v>
       </c>
       <c r="F36" s="73" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G36" s="54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H36" s="54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I36" s="54" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J36" s="74" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K36" s="25">
         <f t="shared" si="3"/>
@@ -8087,7 +8099,7 @@
         <v>8</v>
       </c>
       <c r="C37" s="75" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D37" s="80" t="s">
         <v>67</v>
@@ -8131,7 +8143,7 @@
         <v>67</v>
       </c>
       <c r="F38" s="73" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>67</v>
@@ -8166,19 +8178,19 @@
         <v>67</v>
       </c>
       <c r="F39" s="73" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J39" s="74" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K39" s="25">
         <f t="shared" si="3"/>
@@ -8200,19 +8212,19 @@
         <v>67</v>
       </c>
       <c r="F40" s="73" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G40" s="54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H40" s="54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I40" s="54" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J40" s="74" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="K40" s="25">
         <v>11</v>
@@ -8299,19 +8311,19 @@
         <v>5</v>
       </c>
       <c r="F43" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G43" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H43" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I43" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="70" t="s">
         <v>178</v>
-      </c>
-      <c r="G43" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H43" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="I43" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="70" t="s">
-        <v>182</v>
       </c>
       <c r="K43" s="49"/>
     </row>
@@ -8323,13 +8335,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="86" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D44" s="84" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E44" s="77" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F44" s="100" t="s">
         <v>67</v>
@@ -8357,13 +8369,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="90" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D45" s="88" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E45" s="81" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F45" s="73" t="s">
         <v>67</v>
@@ -8392,13 +8404,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="90" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D46" s="89" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E46" s="81" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F46" s="73" t="s">
         <v>67</v>
@@ -8427,13 +8439,13 @@
         <v>4</v>
       </c>
       <c r="C47" s="98" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D47" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E47" s="73" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F47" s="73" t="s">
         <v>67</v>
@@ -8462,13 +8474,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D48" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E48" s="73" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F48" s="73" t="s">
         <v>67</v>
@@ -8497,13 +8509,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="98" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D49" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E49" s="73" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F49" s="73" t="s">
         <v>67</v>
@@ -8610,19 +8622,19 @@
         <v>5</v>
       </c>
       <c r="F52" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G52" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H52" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I52" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J52" s="70" t="s">
         <v>178</v>
-      </c>
-      <c r="G52" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H52" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="I52" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J52" s="70" t="s">
-        <v>182</v>
       </c>
       <c r="K52" s="49"/>
     </row>
@@ -8634,13 +8646,13 @@
         <v>1</v>
       </c>
       <c r="C53" s="86" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D53" s="84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E53" s="77" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F53" s="100" t="s">
         <v>67</v>
@@ -8668,13 +8680,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D54" s="79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E54" s="73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F54" s="73" t="s">
         <v>67</v>
@@ -8709,7 +8721,7 @@
         <v>67</v>
       </c>
       <c r="E55" s="73" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F55" s="73" t="s">
         <v>67</v>
@@ -8738,13 +8750,13 @@
         <v>4</v>
       </c>
       <c r="C56" s="87" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E56" s="83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="F56" s="73" t="s">
         <v>67</v>
@@ -8773,13 +8785,13 @@
         <v>5</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E57" s="83" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F57" s="73" t="s">
         <v>67</v>
@@ -8808,13 +8820,13 @@
         <v>6</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D58" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E58" s="73" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F58" s="73" t="s">
         <v>67</v>
@@ -8843,13 +8855,13 @@
         <v>7</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D59" s="80" t="s">
         <v>67</v>
       </c>
       <c r="E59" s="73" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F59" s="73" t="s">
         <v>67</v>
@@ -8952,50 +8964,50 @@
         <v>5</v>
       </c>
       <c r="F62" s="69" t="s">
+        <v>174</v>
+      </c>
+      <c r="G62" s="48" t="s">
+        <v>175</v>
+      </c>
+      <c r="H62" s="48" t="s">
+        <v>176</v>
+      </c>
+      <c r="I62" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="J62" s="70" t="s">
         <v>178</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>179</v>
-      </c>
-      <c r="H62" s="48" t="s">
-        <v>180</v>
-      </c>
-      <c r="I62" s="48" t="s">
-        <v>181</v>
-      </c>
-      <c r="J62" s="70" t="s">
-        <v>182</v>
       </c>
       <c r="K62" s="49"/>
     </row>
     <row r="63" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
       <c r="C63" s="93" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="64" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="58"/>
       <c r="C64" s="94" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="65" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="58"/>
       <c r="C65" s="95" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="58"/>
       <c r="C66" s="96" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="58"/>
       <c r="C67" s="105" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -5984,7 +5984,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="219">
   <si>
     <t>Защита</t>
   </si>
@@ -665,13 +665,28 @@
   </si>
   <si>
     <t>Восст. ур.РЗ на (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Изменение параметров</t>
+  </si>
+  <si>
+    <t>Изменение дата/время</t>
+  </si>
+  <si>
+    <t>Нет КЧ</t>
+  </si>
+  <si>
+    <t>Параметр - есть непонятки</t>
+  </si>
+  <si>
+    <t>Восстан-е ур. КЧ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,6 +768,13 @@
       <family val="3"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1392,7 +1414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1709,7 +1731,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1718,7 +1740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1768,6 +1790,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2112,7 +2137,7 @@
       <c r="A2" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2481,7 +2506,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="114"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2872,7 +2897,7 @@
       <c r="A35" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="119" t="s">
+      <c r="B35" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3242,7 +3267,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="114"/>
-      <c r="B51" s="119" t="s">
+      <c r="B51" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3633,7 +3658,7 @@
       <c r="A68" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="116" t="s">
+      <c r="B68" s="119" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -4002,7 +4027,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="114"/>
-      <c r="B84" s="116" t="s">
+      <c r="B84" s="119" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4393,7 +4418,7 @@
       <c r="A101" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="119" t="s">
+      <c r="B101" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4762,7 +4787,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="114"/>
-      <c r="B117" s="119" t="s">
+      <c r="B117" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -5151,18 +5176,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:A99"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="A101:A132"/>
+    <mergeCell ref="B101:B116"/>
+    <mergeCell ref="B117:B132"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A35:A66"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A68:A99"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="A101:A132"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5229,7 +5254,7 @@
       <c r="A2" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="116" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5599,7 +5624,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="122"/>
-      <c r="B18" s="119" t="s">
+      <c r="B18" s="116" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -6141,7 +6166,7 @@
         <v>67</v>
       </c>
       <c r="F6" s="57" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="G6" s="25">
         <f t="shared" si="1"/>
@@ -6256,7 +6281,7 @@
         <v>131</v>
       </c>
       <c r="F11" s="56" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="G11" s="25">
         <f t="shared" si="1"/>
@@ -6554,7 +6579,9 @@
       <c r="E24" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="57"/>
+      <c r="F24" s="110" t="s">
+        <v>216</v>
+      </c>
       <c r="G24" s="25">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -6598,7 +6625,9 @@
       <c r="E26" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="57"/>
+      <c r="F26" s="110" t="s">
+        <v>218</v>
+      </c>
       <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -6828,8 +6857,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="105" t="s">
-        <v>203</v>
+      <c r="C41" s="138" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="12555" windowHeight="12795"/>
   </bookViews>
   <sheets>
     <sheet name="Неисправности и предупреждения" sheetId="4" r:id="rId1"/>
@@ -15,7 +15,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Журнал событий'!$A$1:$G$33</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Неисправности и предупреждения'!$A$1:$H$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Параметры!$A$1:$K$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Параметры!$A$1:$L$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Тест 1 и 2'!$A$1:$H$33</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="224">
   <si>
     <t>Защита</t>
   </si>
@@ -680,6 +680,21 @@
   </si>
   <si>
     <t>Восстан-е ур. КЧ</t>
+  </si>
+  <si>
+    <t>Сдвиг пер.фронта ПРД</t>
+  </si>
+  <si>
+    <t>ЛИНИЯ-Р</t>
+  </si>
+  <si>
+    <t>Сдвиг зад.фронта ПРД</t>
+  </si>
+  <si>
+    <t>Сдвиг ПРМ</t>
+  </si>
+  <si>
+    <t>Сдвиг ВЧ ПРД от ПУСК</t>
   </si>
 </sst>
 </file>
@@ -796,7 +811,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -1410,11 +1425,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1554,9 +1626,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1601,9 +1670,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1617,9 +1683,6 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1674,9 +1737,6 @@
     <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1692,12 +1752,6 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -1719,6 +1773,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1731,7 +1788,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1740,7 +1797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1773,15 +1830,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1791,7 +1839,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
@@ -2100,8 +2196,8 @@
   </sheetPr>
   <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N55" sqref="N55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,10 +2230,10 @@
       <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="112" t="s">
+      <c r="A2" s="107" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2160,8 +2256,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="113"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="108"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2183,8 +2279,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="114"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2206,8 +2302,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="114"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2229,8 +2325,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="114"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2252,8 +2348,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="114"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2275,8 +2371,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="114"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2298,8 +2394,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2321,8 +2417,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="114"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2344,8 +2440,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2367,8 +2463,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="114"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2390,8 +2486,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="114"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2413,8 +2509,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="109"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2436,8 +2532,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="114"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2459,8 +2555,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2482,8 +2578,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="114"/>
-      <c r="B17" s="118"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2505,8 +2601,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="114"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="109"/>
+      <c r="B18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2529,8 +2625,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="114"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2552,8 +2648,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="114"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="109"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2575,8 +2671,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="114"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2598,8 +2694,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="114"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2621,8 +2717,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="114"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2644,8 +2740,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="109"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2667,8 +2763,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="114"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="109"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2690,8 +2786,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="114"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="109"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2713,8 +2809,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="114"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2736,8 +2832,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="114"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2759,8 +2855,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="114"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2782,8 +2878,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="114"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2805,8 +2901,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="114"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2828,8 +2924,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2851,8 +2947,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="115"/>
-      <c r="B33" s="118"/>
+      <c r="A33" s="110"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2894,10 +2990,10 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="116" t="s">
+      <c r="B35" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2921,8 +3017,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="113"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="112"/>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
@@ -2944,8 +3040,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="112"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -2967,8 +3063,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="112"/>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -2990,8 +3086,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="112"/>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3013,8 +3109,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="117"/>
+      <c r="A40" s="109"/>
+      <c r="B40" s="112"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -3036,8 +3132,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="117"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="112"/>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3059,8 +3155,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="114"/>
-      <c r="B42" s="117"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="112"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3082,8 +3178,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="114"/>
-      <c r="B43" s="117"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="112"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3105,8 +3201,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="114"/>
-      <c r="B44" s="117"/>
+      <c r="A44" s="109"/>
+      <c r="B44" s="112"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3128,8 +3224,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="114"/>
-      <c r="B45" s="117"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="112"/>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3151,8 +3247,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="117"/>
+      <c r="A46" s="109"/>
+      <c r="B46" s="112"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3174,8 +3270,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="117"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="112"/>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3197,8 +3293,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="117"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="112"/>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3220,8 +3316,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="112"/>
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3243,8 +3339,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="114"/>
-      <c r="B50" s="118"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="113"/>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3266,8 +3362,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="114"/>
-      <c r="B51" s="116" t="s">
+      <c r="A51" s="109"/>
+      <c r="B51" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3290,8 +3386,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="114"/>
-      <c r="B52" s="117"/>
+      <c r="A52" s="109"/>
+      <c r="B52" s="112"/>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3313,8 +3409,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="114"/>
-      <c r="B53" s="117"/>
+      <c r="A53" s="109"/>
+      <c r="B53" s="112"/>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3336,8 +3432,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="114"/>
-      <c r="B54" s="117"/>
+      <c r="A54" s="109"/>
+      <c r="B54" s="112"/>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3359,8 +3455,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="117"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="112"/>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3382,8 +3478,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="117"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="112"/>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
@@ -3405,8 +3501,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="117"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="112"/>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3428,8 +3524,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="117"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="112"/>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3451,8 +3547,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="117"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="112"/>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
@@ -3474,8 +3570,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="117"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="112"/>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3497,8 +3593,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="114"/>
-      <c r="B61" s="117"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="112"/>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3520,8 +3616,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="114"/>
-      <c r="B62" s="117"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="112"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3543,8 +3639,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="114"/>
-      <c r="B63" s="117"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="112"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3566,8 +3662,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="114"/>
-      <c r="B64" s="117"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="112"/>
       <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
@@ -3589,8 +3685,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="114"/>
-      <c r="B65" s="117"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="112"/>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
@@ -3612,8 +3708,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="115"/>
-      <c r="B66" s="118"/>
+      <c r="A66" s="110"/>
+      <c r="B66" s="113"/>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3655,10 +3751,10 @@
       <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="112" t="s">
+      <c r="A68" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="119" t="s">
+      <c r="B68" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3681,8 +3777,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="113"/>
-      <c r="B69" s="117"/>
+      <c r="A69" s="108"/>
+      <c r="B69" s="112"/>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3704,8 +3800,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="114"/>
-      <c r="B70" s="117"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="112"/>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3727,8 +3823,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="114"/>
-      <c r="B71" s="117"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="112"/>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3750,8 +3846,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="114"/>
-      <c r="B72" s="117"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="112"/>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3773,8 +3869,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="114"/>
-      <c r="B73" s="117"/>
+      <c r="A73" s="109"/>
+      <c r="B73" s="112"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3796,8 +3892,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="114"/>
-      <c r="B74" s="117"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="112"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3819,8 +3915,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="114"/>
-      <c r="B75" s="117"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="112"/>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3842,8 +3938,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="114"/>
-      <c r="B76" s="117"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="112"/>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3865,8 +3961,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="114"/>
-      <c r="B77" s="117"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="112"/>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
@@ -3888,8 +3984,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="114"/>
-      <c r="B78" s="117"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="112"/>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
@@ -3911,8 +4007,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="114"/>
-      <c r="B79" s="117"/>
+      <c r="A79" s="109"/>
+      <c r="B79" s="112"/>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
@@ -3934,8 +4030,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="114"/>
-      <c r="B80" s="117"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="112"/>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
@@ -3957,8 +4053,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="114"/>
-      <c r="B81" s="117"/>
+      <c r="A81" s="109"/>
+      <c r="B81" s="112"/>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
@@ -3980,8 +4076,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="114"/>
-      <c r="B82" s="117"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="112"/>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
@@ -4003,8 +4099,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="114"/>
-      <c r="B83" s="118"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="113"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -4026,8 +4122,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="114"/>
-      <c r="B84" s="119" t="s">
+      <c r="A84" s="109"/>
+      <c r="B84" s="111" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4050,8 +4146,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="114"/>
-      <c r="B85" s="117"/>
+      <c r="A85" s="109"/>
+      <c r="B85" s="112"/>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -4073,8 +4169,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="114"/>
-      <c r="B86" s="117"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="112"/>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4096,8 +4192,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="114"/>
-      <c r="B87" s="117"/>
+      <c r="A87" s="109"/>
+      <c r="B87" s="112"/>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4119,8 +4215,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="114"/>
-      <c r="B88" s="117"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="112"/>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4142,8 +4238,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="114"/>
-      <c r="B89" s="117"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="112"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4165,8 +4261,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="114"/>
-      <c r="B90" s="117"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="112"/>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4188,8 +4284,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="114"/>
-      <c r="B91" s="117"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="112"/>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4211,8 +4307,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="114"/>
-      <c r="B92" s="117"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="112"/>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
@@ -4234,8 +4330,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="114"/>
-      <c r="B93" s="117"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="112"/>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4257,8 +4353,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="114"/>
-      <c r="B94" s="117"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="112"/>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4280,8 +4376,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="114"/>
-      <c r="B95" s="117"/>
+      <c r="A95" s="109"/>
+      <c r="B95" s="112"/>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
@@ -4303,8 +4399,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="114"/>
-      <c r="B96" s="117"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="112"/>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
@@ -4326,8 +4422,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="114"/>
-      <c r="B97" s="117"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="112"/>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
@@ -4349,8 +4445,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="114"/>
-      <c r="B98" s="117"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="112"/>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
@@ -4372,8 +4468,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="115"/>
-      <c r="B99" s="118"/>
+      <c r="A99" s="110"/>
+      <c r="B99" s="113"/>
       <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
@@ -4415,10 +4511,10 @@
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="112" t="s">
+      <c r="A101" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="116" t="s">
+      <c r="B101" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4441,8 +4537,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="113"/>
-      <c r="B102" s="117"/>
+      <c r="A102" s="108"/>
+      <c r="B102" s="112"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4464,8 +4560,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="114"/>
-      <c r="B103" s="117"/>
+      <c r="A103" s="109"/>
+      <c r="B103" s="112"/>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4487,8 +4583,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="114"/>
-      <c r="B104" s="117"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="112"/>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4510,8 +4606,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="114"/>
-      <c r="B105" s="117"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="112"/>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4533,8 +4629,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="114"/>
-      <c r="B106" s="117"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="112"/>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4556,8 +4652,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="114"/>
-      <c r="B107" s="117"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="112"/>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
@@ -4579,8 +4675,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="114"/>
-      <c r="B108" s="117"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="112"/>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4602,8 +4698,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="114"/>
-      <c r="B109" s="117"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="112"/>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4625,8 +4721,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="114"/>
-      <c r="B110" s="117"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="112"/>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4648,8 +4744,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="114"/>
-      <c r="B111" s="117"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="112"/>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4671,8 +4767,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="114"/>
-      <c r="B112" s="117"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="112"/>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4694,8 +4790,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="114"/>
-      <c r="B113" s="117"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="112"/>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4717,8 +4813,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="114"/>
-      <c r="B114" s="117"/>
+      <c r="A114" s="109"/>
+      <c r="B114" s="112"/>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4740,8 +4836,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="114"/>
-      <c r="B115" s="117"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="112"/>
       <c r="C115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4763,8 +4859,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="114"/>
-      <c r="B116" s="118"/>
+      <c r="A116" s="109"/>
+      <c r="B116" s="113"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4786,8 +4882,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="114"/>
-      <c r="B117" s="116" t="s">
+      <c r="A117" s="109"/>
+      <c r="B117" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4810,8 +4906,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="114"/>
-      <c r="B118" s="117"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="112"/>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
@@ -4833,8 +4929,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="114"/>
-      <c r="B119" s="117"/>
+      <c r="A119" s="109"/>
+      <c r="B119" s="112"/>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
@@ -4856,8 +4952,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="114"/>
-      <c r="B120" s="117"/>
+      <c r="A120" s="109"/>
+      <c r="B120" s="112"/>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4879,8 +4975,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="114"/>
-      <c r="B121" s="117"/>
+      <c r="A121" s="109"/>
+      <c r="B121" s="112"/>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
@@ -4902,8 +4998,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="114"/>
-      <c r="B122" s="117"/>
+      <c r="A122" s="109"/>
+      <c r="B122" s="112"/>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
@@ -4925,8 +5021,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="114"/>
-      <c r="B123" s="117"/>
+      <c r="A123" s="109"/>
+      <c r="B123" s="112"/>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
@@ -4948,8 +5044,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="114"/>
-      <c r="B124" s="117"/>
+      <c r="A124" s="109"/>
+      <c r="B124" s="112"/>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
@@ -4971,8 +5067,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="114"/>
-      <c r="B125" s="117"/>
+      <c r="A125" s="109"/>
+      <c r="B125" s="112"/>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
@@ -4994,8 +5090,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="114"/>
-      <c r="B126" s="117"/>
+      <c r="A126" s="109"/>
+      <c r="B126" s="112"/>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
@@ -5017,8 +5113,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="114"/>
-      <c r="B127" s="117"/>
+      <c r="A127" s="109"/>
+      <c r="B127" s="112"/>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
@@ -5040,8 +5136,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="114"/>
-      <c r="B128" s="117"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="112"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -5063,8 +5159,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="114"/>
-      <c r="B129" s="117"/>
+      <c r="A129" s="109"/>
+      <c r="B129" s="112"/>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
@@ -5086,8 +5182,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="114"/>
-      <c r="B130" s="117"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="112"/>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5109,8 +5205,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="114"/>
-      <c r="B131" s="117"/>
+      <c r="A131" s="109"/>
+      <c r="B131" s="112"/>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
@@ -5132,8 +5228,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="115"/>
-      <c r="B132" s="118"/>
+      <c r="A132" s="110"/>
+      <c r="B132" s="113"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5176,18 +5272,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="B2:B17"/>
+    <mergeCell ref="B18:B33"/>
+    <mergeCell ref="A35:A66"/>
+    <mergeCell ref="B35:B50"/>
+    <mergeCell ref="B51:B66"/>
     <mergeCell ref="A68:A99"/>
     <mergeCell ref="B68:B83"/>
     <mergeCell ref="B84:B99"/>
     <mergeCell ref="A101:A132"/>
     <mergeCell ref="B101:B116"/>
     <mergeCell ref="B117:B132"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="B2:B17"/>
-    <mergeCell ref="B18:B33"/>
-    <mergeCell ref="A35:A66"/>
-    <mergeCell ref="B35:B50"/>
-    <mergeCell ref="B51:B66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5251,10 +5347,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="116" t="s">
+      <c r="B2" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5278,8 +5374,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="117"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="112"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5301,8 +5397,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="117"/>
+      <c r="A4" s="117"/>
+      <c r="B4" s="112"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5324,8 +5420,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="117"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="112"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5347,8 +5443,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5370,8 +5466,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5393,8 +5489,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5416,8 +5512,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5439,8 +5535,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="112"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5462,8 +5558,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="112"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5485,8 +5581,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5508,8 +5604,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5531,8 +5627,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="117"/>
+      <c r="A14" s="117"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5554,8 +5650,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="117"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5577,8 +5673,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="117"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="112"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5600,8 +5696,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="118"/>
+      <c r="A17" s="117"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5623,8 +5719,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="116" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="114" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5647,8 +5743,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="117"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="112"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5670,8 +5766,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="117"/>
+      <c r="A20" s="117"/>
+      <c r="B20" s="112"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -5693,8 +5789,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="117"/>
+      <c r="A21" s="117"/>
+      <c r="B21" s="112"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5716,8 +5812,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="117"/>
+      <c r="B22" s="112"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5739,8 +5835,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="117"/>
+      <c r="A23" s="117"/>
+      <c r="B23" s="112"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5762,8 +5858,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="117"/>
+      <c r="A24" s="117"/>
+      <c r="B24" s="112"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5785,8 +5881,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
-      <c r="B25" s="117"/>
+      <c r="A25" s="117"/>
+      <c r="B25" s="112"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5808,8 +5904,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
-      <c r="B26" s="117"/>
+      <c r="A26" s="117"/>
+      <c r="B26" s="112"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5831,8 +5927,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="117"/>
+      <c r="B27" s="112"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5854,8 +5950,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="117"/>
+      <c r="B28" s="112"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -5877,8 +5973,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="117"/>
+      <c r="B29" s="112"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -5900,8 +5996,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="117"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -5923,8 +6019,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="117"/>
+      <c r="B31" s="112"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -5946,8 +6042,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="117"/>
+      <c r="B32" s="112"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -5969,8 +6065,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
-      <c r="B33" s="118"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -6009,7 +6105,7 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -6041,7 +6137,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="39" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="41"/>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="48" t="s">
@@ -6059,22 +6155,22 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="119" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="52">
         <v>0</v>
       </c>
-      <c r="C2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="57" t="s">
+      <c r="C2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G2" s="24">
@@ -6082,21 +6178,21 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="124"/>
+      <c r="A3" s="119"/>
       <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
         <v>1</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="F3" s="56" t="s">
+      <c r="F3" s="55" t="s">
         <v>84</v>
       </c>
       <c r="G3" s="25">
@@ -6105,21 +6201,21 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="124"/>
+      <c r="A4" s="119"/>
       <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>85</v>
       </c>
       <c r="G4" s="25">
@@ -6128,21 +6224,21 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="124"/>
+      <c r="A5" s="119"/>
       <c r="B5" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="25">
@@ -6151,21 +6247,21 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124"/>
+      <c r="A6" s="119"/>
       <c r="B6" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F6" s="57" t="s">
+      <c r="D6" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="56" t="s">
         <v>214</v>
       </c>
       <c r="G6" s="25">
@@ -6174,21 +6270,21 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="124"/>
+      <c r="A7" s="119"/>
       <c r="B7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="56" t="s">
         <v>87</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="56" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="25">
@@ -6197,21 +6293,21 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="124"/>
+      <c r="A8" s="119"/>
       <c r="B8" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="56" t="s">
         <v>88</v>
       </c>
       <c r="G8" s="25">
@@ -6220,21 +6316,21 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="124"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="56" t="s">
         <v>89</v>
       </c>
       <c r="G9" s="25">
@@ -6243,21 +6339,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="56" t="s">
+      <c r="F10" s="55" t="s">
         <v>90</v>
       </c>
       <c r="G10" s="25">
@@ -6266,21 +6362,21 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="124"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="55" t="s">
         <v>215</v>
       </c>
       <c r="G11" s="25">
@@ -6289,21 +6385,21 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="124"/>
+      <c r="A12" s="119"/>
       <c r="B12" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="55" t="s">
         <v>92</v>
       </c>
       <c r="G12" s="25">
@@ -6312,21 +6408,21 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="124"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="55" t="s">
         <v>93</v>
       </c>
       <c r="G13" s="25">
@@ -6335,21 +6431,21 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="104" t="s">
         <v>206</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="56" t="s">
         <v>77</v>
       </c>
       <c r="G14" s="25">
@@ -6358,21 +6454,21 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="124"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="56" t="s">
         <v>94</v>
       </c>
       <c r="G15" s="25">
@@ -6381,21 +6477,21 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="124"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="56" t="s">
         <v>95</v>
       </c>
       <c r="G16" s="25">
@@ -6404,21 +6500,21 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="124"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="56" t="s">
         <v>96</v>
       </c>
       <c r="G17" s="25">
@@ -6427,21 +6523,21 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="124"/>
+      <c r="A18" s="119"/>
       <c r="B18" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="104" t="s">
         <v>207</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="56" t="s">
         <v>67</v>
       </c>
       <c r="G18" s="25">
@@ -6450,21 +6546,21 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="124"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="57" t="s">
+      <c r="C19" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="56" t="s">
         <v>97</v>
       </c>
       <c r="G19" s="25">
@@ -6473,21 +6569,21 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="124"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="56" t="s">
         <v>98</v>
       </c>
       <c r="G20" s="25">
@@ -6496,21 +6592,21 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="124"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="C21" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="56" t="s">
         <v>99</v>
       </c>
       <c r="G21" s="25">
@@ -6519,21 +6615,21 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="57" t="s">
+      <c r="C22" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="56" t="s">
         <v>100</v>
       </c>
       <c r="G22" s="25">
@@ -6542,21 +6638,21 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="124"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="109" t="s">
+      <c r="D23" s="103" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F23" s="109" t="s">
+      <c r="F23" s="103" t="s">
         <v>194</v>
       </c>
       <c r="G23" s="25">
@@ -6565,21 +6661,21 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="124"/>
+      <c r="A24" s="119"/>
       <c r="B24" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="57" t="s">
+      <c r="C24" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="110" t="s">
+      <c r="D24" s="104" t="s">
         <v>208</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="110" t="s">
+      <c r="F24" s="104" t="s">
         <v>216</v>
       </c>
       <c r="G24" s="25">
@@ -6588,21 +6684,21 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="124"/>
+      <c r="A25" s="119"/>
       <c r="B25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="57" t="s">
+      <c r="C25" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D25" s="110" t="s">
+      <c r="D25" s="104" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="F25" s="110" t="s">
+      <c r="F25" s="104" t="s">
         <v>195</v>
       </c>
       <c r="G25" s="25">
@@ -6611,45 +6707,45 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="57" t="s">
+      <c r="C26" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="110" t="s">
+      <c r="D26" s="104" t="s">
         <v>209</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="F26" s="110" t="s">
+      <c r="F26" s="104" t="s">
         <v>218</v>
       </c>
       <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="J26" s="58"/>
+      <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="124"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="C27" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="56" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="25">
@@ -6658,21 +6754,21 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="124"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="56" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="25">
@@ -6681,21 +6777,21 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="124"/>
+      <c r="A29" s="119"/>
       <c r="B29" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="57" t="s">
+      <c r="C29" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="56" t="s">
         <v>103</v>
       </c>
       <c r="G29" s="25">
@@ -6704,21 +6800,21 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124"/>
+      <c r="A30" s="119"/>
       <c r="B30" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="57" t="s">
+      <c r="C30" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="56" t="s">
         <v>104</v>
       </c>
       <c r="G30" s="25">
@@ -6727,21 +6823,21 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="124"/>
+      <c r="A31" s="119"/>
       <c r="B31" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="110" t="s">
+      <c r="D31" s="104" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="F31" s="110" t="s">
+      <c r="F31" s="104" t="s">
         <v>197</v>
       </c>
       <c r="G31" s="25">
@@ -6750,21 +6846,21 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="124"/>
+      <c r="A32" s="119"/>
       <c r="B32" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="C32" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="110" t="s">
+      <c r="D32" s="104" t="s">
         <v>210</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="56" t="s">
         <v>192</v>
       </c>
       <c r="G32" s="25">
@@ -6773,21 +6869,21 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="124"/>
+      <c r="A33" s="119"/>
       <c r="B33" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="C33" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="110" t="s">
+      <c r="D33" s="104" t="s">
         <v>211</v>
       </c>
-      <c r="E33" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="57" t="s">
+      <c r="E33" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="56" t="s">
         <v>193</v>
       </c>
       <c r="G33" s="25">
@@ -6796,20 +6892,20 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="125"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="51">
         <v>32</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="C34" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="D34" s="110" t="s">
+      <c r="D34" s="104" t="s">
         <v>213</v>
       </c>
-      <c r="E34" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="57" t="s">
+      <c r="E34" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="56" t="s">
         <v>196</v>
       </c>
       <c r="G34" s="25">
@@ -6819,7 +6915,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="41"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="60" t="s">
         <v>6</v>
       </c>
       <c r="C35" s="48" t="s">
@@ -6837,27 +6933,27 @@
       <c r="G35" s="49"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="90" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C38" s="94" t="s">
+      <c r="C38" s="91" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C39" s="95" t="s">
+      <c r="C39" s="92" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="93" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C41" s="138" t="s">
+      <c r="C41" s="106" t="s">
         <v>217</v>
       </c>
     </row>
@@ -6875,1058 +6971,1145 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="26.25" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="61" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3" customWidth="1"/>
-    <col min="13" max="13" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" customWidth="1"/>
+    <col min="12" max="12" width="3" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="134"/>
-      <c r="B1" s="129" t="s">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="126"/>
+      <c r="B1" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="128" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="136" t="s">
+      <c r="E1" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="131" t="s">
+      <c r="F1" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="133"/>
-      <c r="K1" s="46"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="135"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="67" t="s">
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
+      <c r="J1" s="134"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="46"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="127"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="63" t="s">
+      <c r="G2" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I2" s="63" t="s">
+      <c r="I2" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="J2" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="K2" s="46"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="126" t="s">
+      <c r="K2" s="63" t="s">
+        <v>220</v>
+      </c>
+      <c r="L2" s="46"/>
+    </row>
+    <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="65">
+      <c r="B3" s="64">
         <v>1</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="83" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="77" t="s">
+      <c r="F3" s="140" t="s">
         <v>139</v>
       </c>
-      <c r="G3" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="I3" s="99" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="K3" s="33">
+      <c r="G3" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="H3" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="142" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" s="33">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="127"/>
-      <c r="B4" s="59">
+    <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="122"/>
+      <c r="B4" s="58">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="73" t="s">
         <v>140</v>
       </c>
-      <c r="D4" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="100" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="143" t="s">
         <v>140</v>
       </c>
-      <c r="G4" s="54" t="s">
+      <c r="G4" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="J4" s="74" t="s">
+      <c r="J4" s="144" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="25">
-        <f>K3+1</f>
+      <c r="K4" s="145" t="s">
+        <v>140</v>
+      </c>
+      <c r="L4" s="25">
+        <f>L3+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="127"/>
-      <c r="B5" s="59">
+    <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="122"/>
+      <c r="B5" s="58">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="75" t="s">
+      <c r="C5" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="106" t="s">
+      <c r="D5" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="100" t="s">
         <v>142</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="143" t="s">
         <v>142</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H5" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I5" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="144" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="25">
-        <f t="shared" ref="K5:K18" si="1">K4+1</f>
+      <c r="K5" s="145" t="s">
+        <v>142</v>
+      </c>
+      <c r="L5" s="25">
+        <f t="shared" ref="L5:L18" si="1">L4+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="127"/>
-      <c r="B6" s="59">
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="122"/>
+      <c r="B6" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="75" t="s">
+      <c r="C6" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="100" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J6" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K6" s="25">
+      <c r="F6" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="25">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="127"/>
-      <c r="B7" s="59">
+    <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="122"/>
+      <c r="B7" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="108" t="s">
+      <c r="C7" s="102" t="s">
         <v>144</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="E7" s="106" t="s">
+      <c r="E7" s="100" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="25">
+      <c r="F7" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="25">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="127"/>
-      <c r="B8" s="59">
+    <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="122"/>
+      <c r="B8" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="108" t="s">
+      <c r="C8" s="102" t="s">
         <v>145</v>
       </c>
-      <c r="D8" s="106" t="s">
+      <c r="D8" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="106" t="s">
+      <c r="E8" s="100" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K8" s="25">
+      <c r="F8" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L8" s="25">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="127"/>
-      <c r="B9" s="59">
+    <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="122"/>
+      <c r="B9" s="58">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="75" t="s">
+      <c r="C9" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="73" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H9" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="25">
+      <c r="E9" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K9" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="25">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="127"/>
-      <c r="B10" s="59">
+    <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="122"/>
+      <c r="B10" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="92" t="s">
+      <c r="C10" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="D10" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="92" t="s">
+      <c r="D10" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="89" t="s">
         <v>190</v>
       </c>
-      <c r="F10" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K10" s="25">
+      <c r="F10" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K10" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" s="25">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="59">
+    <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="122"/>
+      <c r="B11" s="58">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="75" t="s">
+      <c r="C11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="75" t="s">
+      <c r="D11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="75" t="s">
+      <c r="E11" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="73" t="s">
+      <c r="F11" s="143" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="54" t="s">
+      <c r="I11" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="144" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="25">
+      <c r="K11" s="145" t="s">
+        <v>146</v>
+      </c>
+      <c r="L11" s="25">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="127"/>
-      <c r="B12" s="59">
+    <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="122"/>
+      <c r="B12" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="75" t="s">
+      <c r="C12" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D12" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H12" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I12" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J12" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K12" s="25">
+      <c r="D12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J12" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="25">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="127"/>
-      <c r="B13" s="59">
+    <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="122"/>
+      <c r="B13" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="75" t="s">
+      <c r="C13" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="D13" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="106" t="s">
+      <c r="D13" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="100" t="s">
         <v>149</v>
       </c>
-      <c r="F13" s="73" t="s">
+      <c r="F13" s="143" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="55" t="s">
+      <c r="G13" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="I13" s="55" t="s">
+      <c r="I13" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="J13" s="72" t="s">
+      <c r="J13" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="K13" s="25">
+      <c r="K13" s="145" t="s">
+        <v>149</v>
+      </c>
+      <c r="L13" s="25">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="127"/>
-      <c r="B14" s="59">
+    <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="122"/>
+      <c r="B14" s="58">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="73" t="s">
         <v>150</v>
       </c>
-      <c r="D14" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="106" t="s">
+      <c r="D14" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="100" t="s">
         <v>150</v>
       </c>
-      <c r="F14" s="73" t="s">
+      <c r="F14" s="143" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="55" t="s">
+      <c r="G14" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="55" t="s">
+      <c r="H14" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="I14" s="55" t="s">
+      <c r="I14" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="72" t="s">
+      <c r="J14" s="146" t="s">
         <v>150</v>
       </c>
-      <c r="K14" s="25">
+      <c r="K14" s="145" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" s="25">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="127"/>
-      <c r="B15" s="59">
+    <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="122"/>
+      <c r="B15" s="58">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="107" t="s">
+      <c r="C15" s="101" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="75" t="s">
+      <c r="D15" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="F15" s="73" t="s">
+      <c r="F15" s="143" t="s">
         <v>147</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="H15" s="54" t="s">
+      <c r="H15" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="I15" s="54" t="s">
+      <c r="I15" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="J15" s="74" t="s">
+      <c r="J15" s="144" t="s">
         <v>147</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="145" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" s="25">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="127"/>
-      <c r="B16" s="59">
+    <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="122"/>
+      <c r="B16" s="58">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="107" t="s">
+      <c r="C16" s="101" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="75" t="s">
+      <c r="D16" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="73" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="73" t="s">
+      <c r="F16" s="143" t="s">
         <v>141</v>
       </c>
-      <c r="G16" s="54" t="s">
+      <c r="G16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="H16" s="54" t="s">
+      <c r="H16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="I16" s="54" t="s">
+      <c r="I16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="J16" s="74" t="s">
+      <c r="J16" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="K16" s="25">
+      <c r="K16" s="145" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" s="25">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="127"/>
-      <c r="B17" s="59">
+    <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="122"/>
+      <c r="B17" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="73" t="s">
+      <c r="C17" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="H17" s="54" t="s">
+      <c r="H17" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="I17" s="54" t="s">
+      <c r="I17" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="J17" s="74" t="s">
+      <c r="J17" s="144" t="s">
         <v>148</v>
       </c>
-      <c r="K17" s="25">
+      <c r="K17" s="145" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" s="25">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="127"/>
-      <c r="B18" s="60">
+    <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="122"/>
+      <c r="B18" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="73" t="s">
+      <c r="C18" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="143" t="s">
         <v>179</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="H18" s="54" t="s">
+      <c r="H18" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="J18" s="74" t="s">
+      <c r="J18" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="K18" s="25">
+      <c r="K18" s="145" t="s">
+        <v>179</v>
+      </c>
+      <c r="L18" s="25">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="127"/>
-      <c r="B19" s="60">
+    <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="122"/>
+      <c r="B19" s="59">
         <f>B18+1</f>
         <v>17</v>
       </c>
-      <c r="C19" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="55" t="s">
+      <c r="C19" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="146" t="s">
         <v>181</v>
       </c>
-      <c r="J19" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="25">
-        <f>K18+1</f>
+      <c r="J19" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="25">
+        <f>L18+1</f>
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="127"/>
-      <c r="B20" s="60">
+    <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="122"/>
+      <c r="B20" s="59">
         <f>B19+1</f>
         <v>18</v>
       </c>
-      <c r="C20" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G20" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="54" t="s">
+      <c r="C20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H20" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="144" t="s">
         <v>182</v>
       </c>
-      <c r="J20" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="25">
-        <f>K19+1</f>
+      <c r="J20" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K20" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="25">
+        <f>L19+1</f>
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="127"/>
-      <c r="B21" s="60">
+    <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="122"/>
+      <c r="B21" s="59">
         <v>19</v>
       </c>
-      <c r="C21" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F21" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H21" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I21" s="54" t="s">
+      <c r="C21" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="144" t="s">
         <v>183</v>
       </c>
-      <c r="J21" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="25">
+      <c r="J21" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K21" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="25">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="127"/>
-      <c r="B22" s="60">
+    <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="122"/>
+      <c r="B22" s="59">
         <v>20</v>
       </c>
-      <c r="C22" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E22" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I22" s="54" t="s">
+      <c r="C22" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="J22" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K22" s="25">
+      <c r="J22" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="25">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="127"/>
-      <c r="B23" s="60">
+    <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="122"/>
+      <c r="B23" s="59">
         <v>21</v>
       </c>
-      <c r="C23" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E23" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I23" s="54" t="s">
+      <c r="C23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="144" t="s">
         <v>184</v>
       </c>
-      <c r="J23" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="25">
+      <c r="J23" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="25">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="127"/>
-      <c r="B24" s="60">
+    <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="122"/>
+      <c r="B24" s="59">
         <v>22</v>
       </c>
-      <c r="C24" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D24" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G24" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H24" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I24" s="54" t="s">
+      <c r="C24" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="144" t="s">
         <v>185</v>
       </c>
-      <c r="J24" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K24" s="25">
+      <c r="J24" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="25">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="127"/>
-      <c r="B25" s="60">
+    <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="122"/>
+      <c r="B25" s="59">
         <v>23</v>
       </c>
-      <c r="C25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G25" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I25" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J25" s="72" t="s">
+      <c r="C25" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F25" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="146" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="25">
+      <c r="K25" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="127"/>
-      <c r="B26" s="60">
+    <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="122"/>
+      <c r="B26" s="59">
         <v>24</v>
       </c>
-      <c r="C26" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D26" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E26" s="102" t="s">
+      <c r="C26" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" s="98" t="s">
         <v>205</v>
       </c>
-      <c r="F26" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K26" s="25">
+      <c r="F26" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="25">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="127"/>
-      <c r="B27" s="60">
+    <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="122"/>
+      <c r="B27" s="59">
         <v>25</v>
       </c>
-      <c r="C27" s="75" t="s">
+      <c r="C27" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="D27" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="75" t="s">
+      <c r="D27" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="73" t="s">
         <v>166</v>
       </c>
-      <c r="F27" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G27" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H27" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I27" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J27" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K27" s="25">
+      <c r="F27" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L27" s="25">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="128"/>
-      <c r="B28" s="60">
+    <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="123"/>
+      <c r="B28" s="59">
         <v>26</v>
       </c>
-      <c r="C28" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J28" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="K28" s="25">
+      <c r="C28" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="145" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="25">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
       <c r="B29" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="69" t="s">
+      <c r="C29" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D29" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="71" t="s">
+      <c r="E29" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="67" t="s">
+      <c r="F29" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="G29" s="63" t="s">
+      <c r="G29" s="62" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="63" t="s">
+      <c r="H29" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="I29" s="63" t="s">
+      <c r="I29" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="J29" s="64" t="s">
+      <c r="J29" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="112" t="s">
+      <c r="K29" s="139"/>
+      <c r="L29" s="49"/>
+    </row>
+    <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="68">
+      <c r="B30" s="67">
         <v>1</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="83" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="77" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="77" t="s">
+      <c r="D30" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="75" t="s">
         <v>165</v>
       </c>
-      <c r="G30" s="99" t="s">
+      <c r="G30" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="H30" s="99" t="s">
+      <c r="H30" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="I30" s="99" t="s">
+      <c r="I30" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="J30" s="78" t="s">
+      <c r="J30" s="136" t="s">
         <v>165</v>
       </c>
-      <c r="K30" s="24">
+      <c r="K30" s="136" t="s">
+        <v>165</v>
+      </c>
+      <c r="L30" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="66">
+    <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="108"/>
+      <c r="B31" s="65">
         <f>B30+1</f>
         <v>2</v>
       </c>
-      <c r="C31" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F31" s="73" t="s">
+      <c r="C31" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="71" t="s">
         <v>166</v>
       </c>
       <c r="G31" s="54" t="s">
@@ -7938,30 +8121,33 @@
       <c r="I31" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="J31" s="74" t="s">
+      <c r="J31" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="K31" s="25">
-        <f>K30+1</f>
+      <c r="K31" s="137" t="s">
+        <v>166</v>
+      </c>
+      <c r="L31" s="25">
+        <f>L30+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="114"/>
-      <c r="B32" s="66">
-        <f t="shared" ref="B32:B39" si="2">B31+1</f>
+    <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="109"/>
+      <c r="B32" s="65">
+        <f t="shared" ref="B32:B43" si="2">B31+1</f>
         <v>3</v>
       </c>
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="73" t="s">
         <v>167</v>
       </c>
-      <c r="D32" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="73" t="s">
+      <c r="D32" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" s="71" t="s">
         <v>167</v>
       </c>
       <c r="G32" s="54" t="s">
@@ -7973,1480 +8159,1719 @@
       <c r="I32" s="54" t="s">
         <v>167</v>
       </c>
-      <c r="J32" s="74" t="s">
+      <c r="J32" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="K32" s="25">
-        <f t="shared" ref="K32:K39" si="3">K31+1</f>
+      <c r="K32" s="137" t="s">
+        <v>167</v>
+      </c>
+      <c r="L32" s="25">
+        <f t="shared" ref="L32:L43" si="3">L31+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="114"/>
-      <c r="B33" s="66">
+    <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="109"/>
+      <c r="B33" s="65">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C33" s="75" t="s">
+      <c r="C33" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="D33" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="73" t="s">
-        <v>168</v>
+      <c r="D33" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F33" s="130" t="s">
+        <v>67</v>
       </c>
       <c r="G33" s="54" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="H33" s="54" t="s">
-        <v>168</v>
+        <v>67</v>
       </c>
       <c r="I33" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="J33" s="74" t="s">
-        <v>168</v>
-      </c>
-      <c r="K33" s="25">
+        <v>67</v>
+      </c>
+      <c r="J33" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="25">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="114"/>
-      <c r="B34" s="66">
+    <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="109"/>
+      <c r="B34" s="65">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C34" s="101" t="s">
+      <c r="C34" s="97" t="s">
         <v>169</v>
       </c>
-      <c r="D34" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E34" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="G34" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="H34" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="I34" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="J34" s="104" t="s">
-        <v>169</v>
-      </c>
-      <c r="K34" s="25">
+      <c r="D34" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34" s="130" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="25">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="114"/>
-      <c r="B35" s="66">
+    <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="109"/>
+      <c r="B35" s="65">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C35" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E35" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F35" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G35" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H35" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J35" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K35" s="25">
+      <c r="C35" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F35" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="G35" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="H35" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="I35" s="131" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="K35" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="L35" s="25">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="114"/>
-      <c r="B36" s="66">
+    <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="109"/>
+      <c r="B36" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C36" s="101" t="s">
-        <v>191</v>
-      </c>
-      <c r="D36" s="111" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="73" t="s">
-        <v>171</v>
-      </c>
-      <c r="G36" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="H36" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="I36" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="J36" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="K36" s="25">
+      <c r="C36" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F36" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G36" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="I36" s="131" t="s">
+        <v>221</v>
+      </c>
+      <c r="J36" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="K36" s="138" t="s">
+        <v>221</v>
+      </c>
+      <c r="L36" s="25">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="114"/>
-      <c r="B37" s="66">
+    <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="109"/>
+      <c r="B37" s="65">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C37" s="75" t="s">
-        <v>172</v>
-      </c>
-      <c r="D37" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E37" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I37" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J37" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K37" s="25">
+      <c r="C37" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="G37" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="I37" s="131" t="s">
+        <v>222</v>
+      </c>
+      <c r="J37" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="K37" s="138" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="25">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="114"/>
-      <c r="B38" s="66">
+    <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="109"/>
+      <c r="B38" s="65">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C38" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E38" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="73" t="s">
-        <v>186</v>
-      </c>
-      <c r="G38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I38" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K38" s="25">
+      <c r="C38" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E38" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F38" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G38" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="I38" s="131" t="s">
+        <v>223</v>
+      </c>
+      <c r="J38" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="K38" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="L38" s="25">
         <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="114"/>
-      <c r="B39" s="66">
+    <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="109"/>
+      <c r="B39" s="65">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C39" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="73" t="s">
-        <v>187</v>
+      <c r="C39" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D39" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F39" s="71" t="s">
+        <v>67</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="H39" s="54" t="s">
-        <v>187</v>
+        <v>67</v>
       </c>
       <c r="I39" s="54" t="s">
-        <v>187</v>
-      </c>
-      <c r="J39" s="74" t="s">
-        <v>187</v>
-      </c>
-      <c r="K39" s="25">
+        <v>67</v>
+      </c>
+      <c r="J39" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="25">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="114"/>
-      <c r="B40" s="66">
+    <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="109"/>
+      <c r="B40" s="65">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C40" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D40" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="73" t="s">
+      <c r="C40" s="97" t="s">
+        <v>191</v>
+      </c>
+      <c r="D40" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E40" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F40" s="71" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="H40" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="K40" s="137" t="s">
+        <v>171</v>
+      </c>
+      <c r="L40" s="25">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A41" s="109"/>
+      <c r="B41" s="65">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C41" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D41" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="25">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="109"/>
+      <c r="B42" s="65">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C42" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F42" s="71" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="25">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A43" s="109"/>
+      <c r="B43" s="65">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E43" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F43" s="71" t="s">
+        <v>187</v>
+      </c>
+      <c r="G43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="I43" s="54" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="K43" s="137" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" s="25">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="109"/>
+      <c r="B44" s="65">
+        <v>11</v>
+      </c>
+      <c r="C44" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F44" s="71" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I44" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="J40" s="74" t="s">
+      <c r="J44" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="K40" s="25">
+      <c r="K44" s="137" t="s">
+        <v>188</v>
+      </c>
+      <c r="L44" s="25">
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="114"/>
-      <c r="B41" s="66">
+    <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A45" s="109"/>
+      <c r="B45" s="65">
         <v>12</v>
       </c>
-      <c r="C41" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D41" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F41" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G41" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H41" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I41" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J41" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K41" s="25">
+      <c r="C45" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="25">
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="114"/>
-      <c r="B42" s="66">
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="109"/>
+      <c r="B46" s="65">
         <v>13</v>
       </c>
-      <c r="C42" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E42" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H42" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I42" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J42" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K42" s="25">
+      <c r="C46" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="137" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="25">
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="41"/>
-      <c r="B43" s="49" t="s">
+    <row r="47" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
+      <c r="B47" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C47" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D43" s="49" t="s">
+      <c r="D47" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E43" s="71" t="s">
+      <c r="E47" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="69" t="s">
+      <c r="F47" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G43" s="48" t="s">
+      <c r="G47" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H43" s="48" t="s">
+      <c r="H47" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I43" s="48" t="s">
+      <c r="I47" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="J43" s="70" t="s">
+      <c r="J47" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="K43" s="49"/>
-    </row>
-    <row r="44" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="112" t="s">
+      <c r="K47" s="132"/>
+      <c r="L47" s="49"/>
+    </row>
+    <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A48" s="107" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="68">
+      <c r="B48" s="67">
         <v>1</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C48" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D44" s="84" t="s">
+      <c r="D48" s="81" t="s">
         <v>154</v>
       </c>
-      <c r="E44" s="77" t="s">
+      <c r="E48" s="75" t="s">
         <v>154</v>
       </c>
-      <c r="F44" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I44" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J44" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K44" s="24">
+      <c r="F48" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G48" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H48" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I48" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J48" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L48" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="113"/>
-      <c r="B45" s="66">
-        <f>B44+1</f>
+    <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A49" s="108"/>
+      <c r="B49" s="65">
+        <f>B48+1</f>
         <v>2</v>
       </c>
-      <c r="C45" s="90" t="s">
+      <c r="C49" s="87" t="s">
         <v>155</v>
       </c>
-      <c r="D45" s="88" t="s">
+      <c r="D49" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="E45" s="81" t="s">
+      <c r="E49" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="F45" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H45" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J45" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K45" s="25">
-        <f>K44+1</f>
+      <c r="F49" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J49" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L49" s="25">
+        <f>L48+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="114"/>
-      <c r="B46" s="66">
-        <f t="shared" ref="B46:B51" si="4">B45+1</f>
+    <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A50" s="109"/>
+      <c r="B50" s="65">
+        <f t="shared" ref="B50:B55" si="4">B49+1</f>
         <v>3</v>
       </c>
-      <c r="C46" s="90" t="s">
+      <c r="C50" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="89" t="s">
+      <c r="D50" s="86" t="s">
         <v>157</v>
       </c>
-      <c r="E46" s="81" t="s">
+      <c r="E50" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="F46" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H46" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J46" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K46" s="25">
-        <f t="shared" ref="K46:K51" si="5">K45+1</f>
+      <c r="F50" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J50" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L50" s="25">
+        <f t="shared" ref="L50:L55" si="5">L49+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="114"/>
-      <c r="B47" s="66">
+    <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="109"/>
+      <c r="B51" s="65">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="C47" s="98" t="s">
+      <c r="C51" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D47" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="73" t="s">
+      <c r="D51" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E51" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="F47" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G47" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H47" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I47" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J47" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K47" s="25">
+      <c r="F51" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I51" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J51" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L51" s="25">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="114"/>
-      <c r="B48" s="66">
+    <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="109"/>
+      <c r="B52" s="65">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="C48" s="98" t="s">
+      <c r="C52" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="D48" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="73" t="s">
+      <c r="D52" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="F48" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H48" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I48" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J48" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K48" s="25">
+      <c r="F52" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G52" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H52" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I52" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J52" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L52" s="25">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="114"/>
-      <c r="B49" s="66">
+    <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="109"/>
+      <c r="B53" s="65">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="C49" s="98" t="s">
+      <c r="C53" s="94" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="73" t="s">
+      <c r="D53" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E53" s="71" t="s">
         <v>200</v>
       </c>
-      <c r="F49" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G49" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H49" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I49" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J49" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="25">
+      <c r="F53" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G53" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H53" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I53" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J53" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L53" s="25">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="114"/>
-      <c r="B50" s="66">
+    <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="109"/>
+      <c r="B54" s="65">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="C50" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E50" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I50" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J50" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K50" s="25">
+      <c r="C54" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D54" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E54" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I54" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J54" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L54" s="25">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="114"/>
-      <c r="B51" s="66">
+    <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="109"/>
+      <c r="B55" s="65">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="C51" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E51" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F51" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G51" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H51" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I51" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J51" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K51" s="25">
+      <c r="C55" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E55" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F55" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I55" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J55" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="L55" s="25">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="41"/>
-      <c r="B52" s="49" t="s">
+    <row r="56" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
+      <c r="B56" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C52" s="69" t="s">
+      <c r="C56" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D52" s="49" t="s">
+      <c r="D56" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E52" s="71" t="s">
+      <c r="E56" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="69" t="s">
+      <c r="F56" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G52" s="48" t="s">
+      <c r="G56" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H52" s="48" t="s">
+      <c r="H56" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I52" s="48" t="s">
+      <c r="I56" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="J52" s="70" t="s">
+      <c r="J56" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="K52" s="49"/>
-    </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="112" t="s">
+      <c r="K56" s="132"/>
+      <c r="L56" s="49"/>
+    </row>
+    <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="107" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="68">
+      <c r="B57" s="67">
         <v>1</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C57" s="83" t="s">
         <v>159</v>
       </c>
-      <c r="D53" s="84" t="s">
+      <c r="D57" s="81" t="s">
         <v>159</v>
       </c>
-      <c r="E53" s="77" t="s">
+      <c r="E57" s="75" t="s">
         <v>159</v>
       </c>
-      <c r="F53" s="100" t="s">
-        <v>67</v>
-      </c>
-      <c r="G53" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="H53" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="I53" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="J53" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="K53" s="24">
+      <c r="F57" s="96" t="s">
+        <v>67</v>
+      </c>
+      <c r="G57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="J57" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L57" s="24">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="113"/>
-      <c r="B54" s="66">
-        <f>B53+1</f>
+    <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="108"/>
+      <c r="B58" s="65">
+        <f>B57+1</f>
         <v>2</v>
       </c>
-      <c r="C54" s="75" t="s">
+      <c r="C58" s="73" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="79" t="s">
+      <c r="D58" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="E54" s="73" t="s">
+      <c r="E58" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="F54" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G54" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H54" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I54" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J54" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K54" s="25">
-        <f>K53+1</f>
+      <c r="F58" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I58" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J58" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L58" s="25">
+        <f>L57+1</f>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="114"/>
-      <c r="B55" s="66">
-        <f t="shared" ref="B55:B59" si="6">B54+1</f>
+    <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="109"/>
+      <c r="B59" s="65">
+        <f t="shared" ref="B59:B63" si="6">B58+1</f>
         <v>3</v>
       </c>
-      <c r="C55" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D55" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" s="73" t="s">
+      <c r="C59" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="71" t="s">
         <v>161</v>
       </c>
-      <c r="F55" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K55" s="25">
-        <f t="shared" ref="K55:K59" si="7">K54+1</f>
+      <c r="F59" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I59" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J59" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L59" s="25">
+        <f t="shared" ref="L59:L63" si="7">L58+1</f>
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="114"/>
-      <c r="B56" s="66">
+    <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="109"/>
+      <c r="B60" s="65">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C56" s="87" t="s">
+      <c r="C60" s="84" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="85" t="s">
+      <c r="D60" s="82" t="s">
         <v>162</v>
       </c>
-      <c r="E56" s="83" t="s">
+      <c r="E60" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="F56" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H56" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I56" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J56" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K56" s="25">
+      <c r="F60" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I60" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J60" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L60" s="25">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="114"/>
-      <c r="B57" s="66">
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="109"/>
+      <c r="B61" s="65">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="C57" s="87" t="s">
+      <c r="C61" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="85" t="s">
+      <c r="D61" s="82" t="s">
         <v>156</v>
       </c>
-      <c r="E57" s="83" t="s">
+      <c r="E61" s="80" t="s">
         <v>156</v>
       </c>
-      <c r="F57" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G57" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J57" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K57" s="25">
+      <c r="F61" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I61" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J61" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L61" s="25">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="114"/>
-      <c r="B58" s="66">
+    <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="109"/>
+      <c r="B62" s="65">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="C58" s="98" t="s">
+      <c r="C62" s="94" t="s">
         <v>198</v>
       </c>
-      <c r="D58" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E58" s="73" t="s">
+      <c r="D62" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="71" t="s">
         <v>198</v>
       </c>
-      <c r="F58" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I58" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J58" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" s="25">
+      <c r="F62" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G62" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I62" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J62" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K62" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L62" s="25">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="114"/>
-      <c r="B59" s="66">
+    <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="109"/>
+      <c r="B63" s="65">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="C59" s="98" t="s">
+      <c r="C63" s="94" t="s">
         <v>199</v>
       </c>
-      <c r="D59" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="73" t="s">
+      <c r="D63" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E63" s="71" t="s">
         <v>199</v>
       </c>
-      <c r="F59" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I59" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J59" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59" s="25">
+      <c r="F63" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I63" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J63" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L63" s="25">
         <f t="shared" si="7"/>
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="114"/>
-      <c r="B60" s="66">
+    <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="109"/>
+      <c r="B64" s="65">
         <v>8</v>
       </c>
-      <c r="C60" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D60" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H60" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I60" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J60" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K60" s="25">
+      <c r="C64" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E64" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G64" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H64" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I64" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J64" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="L64" s="25">
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="114"/>
-      <c r="B61" s="66">
+    <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="109"/>
+      <c r="B65" s="65">
         <v>9</v>
       </c>
-      <c r="C61" s="75" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="73" t="s">
-        <v>67</v>
-      </c>
-      <c r="G61" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="I61" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="J61" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="K61" s="25">
+      <c r="C65" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="G65" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="H65" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="I65" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="J65" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="L65" s="25">
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
-      <c r="B62" s="49" t="s">
+    <row r="66" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="41"/>
+      <c r="B66" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="69" t="s">
+      <c r="C66" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="49" t="s">
+      <c r="D66" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E66" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F62" s="69" t="s">
+      <c r="F66" s="68" t="s">
         <v>174</v>
       </c>
-      <c r="G62" s="48" t="s">
+      <c r="G66" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="H62" s="48" t="s">
+      <c r="H66" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="I62" s="48" t="s">
+      <c r="I66" s="48" t="s">
         <v>177</v>
       </c>
-      <c r="J62" s="70" t="s">
+      <c r="J66" s="69" t="s">
         <v>178</v>
       </c>
-      <c r="K62" s="49"/>
-    </row>
-    <row r="63" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="C63" s="93" t="s">
+      <c r="K66" s="132"/>
+      <c r="L66" s="49"/>
+    </row>
+    <row r="67" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="57"/>
+      <c r="C67" s="90" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="C64" s="94" t="s">
+    <row r="68" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="57"/>
+      <c r="C68" s="91" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="C65" s="95" t="s">
+    <row r="69" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="57"/>
+      <c r="C69" s="92" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="C66" s="96" t="s">
+    <row r="70" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="57"/>
+      <c r="C70" s="93" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="C67" s="105" t="s">
+    <row r="71" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A71" s="57"/>
+      <c r="C71" s="99" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-    </row>
-    <row r="69" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-    </row>
-    <row r="70" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-    </row>
-    <row r="71" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-    </row>
-    <row r="72" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
-    </row>
-    <row r="73" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
-    </row>
-    <row r="74" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="58"/>
-    </row>
-    <row r="75" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="58"/>
-    </row>
-    <row r="76" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
-    </row>
-    <row r="77" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
-    </row>
-    <row r="78" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
-    </row>
-    <row r="79" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
-    </row>
-    <row r="80" spans="1:3" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
-    </row>
-    <row r="81" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
-    </row>
-    <row r="82" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
-    </row>
-    <row r="83" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
-    </row>
-    <row r="84" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
-    </row>
-    <row r="85" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
-    </row>
-    <row r="86" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
-    </row>
-    <row r="87" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
-    </row>
-    <row r="88" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
-    </row>
-    <row r="89" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="58"/>
-    </row>
-    <row r="90" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A90" s="58"/>
-    </row>
-    <row r="91" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A91" s="58"/>
-    </row>
-    <row r="92" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
-    </row>
-    <row r="93" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
-    </row>
-    <row r="94" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
-    </row>
-    <row r="95" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
-    </row>
-    <row r="96" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
-    </row>
-    <row r="97" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
-    </row>
-    <row r="98" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
-    </row>
-    <row r="99" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A99" s="58"/>
-    </row>
-    <row r="100" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A100" s="58"/>
-    </row>
-    <row r="101" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="58"/>
-    </row>
-    <row r="102" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="58"/>
-    </row>
-    <row r="103" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A103" s="58"/>
-    </row>
-    <row r="104" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
-    </row>
-    <row r="105" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
-    </row>
-    <row r="106" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A106" s="58"/>
-    </row>
-    <row r="107" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A107" s="58"/>
-    </row>
-    <row r="108" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
-    </row>
-    <row r="109" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
-    </row>
-    <row r="110" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-    </row>
-    <row r="111" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A111" s="58"/>
-    </row>
-    <row r="112" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
-    </row>
-    <row r="113" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
-    </row>
-    <row r="114" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A114" s="58"/>
-    </row>
-    <row r="115" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A115" s="58"/>
-    </row>
-    <row r="116" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-    </row>
-    <row r="117" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
-    </row>
-    <row r="118" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A118" s="58"/>
-    </row>
-    <row r="119" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A119" s="58"/>
-    </row>
-    <row r="120" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A120" s="58"/>
-    </row>
-    <row r="121" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A121" s="58"/>
-    </row>
-    <row r="122" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A122" s="58"/>
-    </row>
-    <row r="123" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A123" s="58"/>
-    </row>
-    <row r="124" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
-    </row>
-    <row r="125" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
-    </row>
-    <row r="126" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A126" s="58"/>
-    </row>
-    <row r="127" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A127" s="58"/>
-    </row>
-    <row r="128" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A128" s="58"/>
-    </row>
-    <row r="129" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A129" s="58"/>
-    </row>
-    <row r="130" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A130" s="58"/>
-    </row>
-    <row r="131" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A131" s="58"/>
-    </row>
-    <row r="132" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A132" s="58"/>
-    </row>
-    <row r="133" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A133" s="58"/>
-    </row>
-    <row r="134" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A134" s="58"/>
-    </row>
-    <row r="135" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A135" s="58"/>
-    </row>
-    <row r="136" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A136" s="58"/>
-    </row>
-    <row r="137" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A137" s="58"/>
-    </row>
-    <row r="138" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="58"/>
-    </row>
-    <row r="139" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A139" s="58"/>
-    </row>
-    <row r="140" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A140" s="58"/>
-    </row>
-    <row r="141" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A141" s="58"/>
-    </row>
-    <row r="142" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A142" s="58"/>
-    </row>
-    <row r="143" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="58"/>
-    </row>
-    <row r="144" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A144" s="58"/>
-    </row>
-    <row r="145" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A145" s="58"/>
-    </row>
-    <row r="146" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A146" s="58"/>
-    </row>
-    <row r="147" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A147" s="58"/>
-    </row>
-    <row r="148" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A148" s="58"/>
-    </row>
-    <row r="149" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A149" s="58"/>
-    </row>
-    <row r="150" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="58"/>
-    </row>
-    <row r="151" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A151" s="58"/>
-    </row>
-    <row r="152" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="58"/>
-    </row>
-    <row r="153" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A153" s="58"/>
-    </row>
-    <row r="154" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A154" s="58"/>
-    </row>
-    <row r="155" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A155" s="58"/>
-    </row>
-    <row r="156" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A156" s="58"/>
-    </row>
-    <row r="157" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A157" s="58"/>
-    </row>
-    <row r="158" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A158" s="58"/>
-    </row>
-    <row r="159" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A159" s="58"/>
-    </row>
-    <row r="160" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A160" s="58"/>
-    </row>
-    <row r="161" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A161" s="58"/>
-    </row>
-    <row r="162" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A162" s="58"/>
-    </row>
-    <row r="163" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A163" s="58"/>
-    </row>
-    <row r="164" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A164" s="58"/>
-    </row>
-    <row r="165" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A165" s="58"/>
-    </row>
-    <row r="166" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A166" s="58"/>
-    </row>
-    <row r="167" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A167" s="58"/>
-    </row>
-    <row r="168" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A168" s="58"/>
-    </row>
-    <row r="169" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A169" s="58"/>
-    </row>
-    <row r="170" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A170" s="58"/>
-    </row>
-    <row r="171" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="58"/>
-    </row>
-    <row r="172" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="58"/>
-    </row>
-    <row r="173" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A173" s="58"/>
-    </row>
-    <row r="174" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A174" s="58"/>
-    </row>
-    <row r="175" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A175" s="58"/>
-    </row>
-    <row r="176" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A176" s="58"/>
-    </row>
-    <row r="177" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A177" s="58"/>
-    </row>
-    <row r="178" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A178" s="58"/>
-    </row>
-    <row r="179" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A179" s="58"/>
-    </row>
-    <row r="180" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A180" s="58"/>
-    </row>
-    <row r="181" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A181" s="58"/>
-    </row>
-    <row r="182" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A182" s="58"/>
-    </row>
-    <row r="183" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A183" s="58"/>
-    </row>
-    <row r="184" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A184" s="58"/>
-    </row>
-    <row r="185" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="58"/>
-    </row>
-    <row r="186" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A186" s="58"/>
-    </row>
-    <row r="187" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A187" s="58"/>
-    </row>
-    <row r="188" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A188" s="58"/>
-    </row>
-    <row r="189" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A189" s="58"/>
-    </row>
-    <row r="190" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A190" s="58"/>
-    </row>
-    <row r="191" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A191" s="58"/>
-    </row>
-    <row r="192" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A192" s="58"/>
-    </row>
-    <row r="193" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A193" s="58"/>
-    </row>
-    <row r="194" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A194" s="58"/>
-    </row>
-    <row r="195" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A195" s="58"/>
-    </row>
-    <row r="196" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A196" s="58"/>
-    </row>
-    <row r="197" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A197" s="58"/>
-    </row>
-    <row r="198" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A198" s="58"/>
-    </row>
-    <row r="199" spans="1:1" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A199" s="58"/>
+    <row r="72" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A72" s="57"/>
+    </row>
+    <row r="73" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A73" s="57"/>
+    </row>
+    <row r="74" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A74" s="57"/>
+    </row>
+    <row r="75" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A75" s="57"/>
+    </row>
+    <row r="76" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A76" s="57"/>
+    </row>
+    <row r="77" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A77" s="57"/>
+    </row>
+    <row r="78" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A78" s="57"/>
+    </row>
+    <row r="79" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A79" s="57"/>
+    </row>
+    <row r="80" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A80" s="57"/>
+    </row>
+    <row r="81" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A81" s="57"/>
+    </row>
+    <row r="82" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A82" s="57"/>
+    </row>
+    <row r="83" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A83" s="57"/>
+    </row>
+    <row r="84" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A84" s="57"/>
+    </row>
+    <row r="85" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A85" s="57"/>
+    </row>
+    <row r="86" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A86" s="57"/>
+    </row>
+    <row r="87" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A87" s="57"/>
+    </row>
+    <row r="88" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A88" s="57"/>
+    </row>
+    <row r="89" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A89" s="57"/>
+    </row>
+    <row r="90" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A90" s="57"/>
+    </row>
+    <row r="91" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="57"/>
+    </row>
+    <row r="92" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A92" s="57"/>
+    </row>
+    <row r="93" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A93" s="57"/>
+    </row>
+    <row r="94" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A94" s="57"/>
+    </row>
+    <row r="95" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A95" s="57"/>
+    </row>
+    <row r="96" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A96" s="57"/>
+    </row>
+    <row r="97" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A97" s="57"/>
+    </row>
+    <row r="98" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="57"/>
+    </row>
+    <row r="99" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A99" s="57"/>
+    </row>
+    <row r="100" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A100" s="57"/>
+    </row>
+    <row r="101" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A101" s="57"/>
+    </row>
+    <row r="102" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A102" s="57"/>
+    </row>
+    <row r="103" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A103" s="57"/>
+    </row>
+    <row r="104" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A104" s="57"/>
+    </row>
+    <row r="105" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A105" s="57"/>
+    </row>
+    <row r="106" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A106" s="57"/>
+    </row>
+    <row r="107" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A107" s="57"/>
+    </row>
+    <row r="108" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A108" s="57"/>
+    </row>
+    <row r="109" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A109" s="57"/>
+    </row>
+    <row r="110" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A110" s="57"/>
+    </row>
+    <row r="111" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A111" s="57"/>
+    </row>
+    <row r="112" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A112" s="57"/>
+    </row>
+    <row r="113" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A113" s="57"/>
+    </row>
+    <row r="114" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A114" s="57"/>
+    </row>
+    <row r="115" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A115" s="57"/>
+    </row>
+    <row r="116" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A116" s="57"/>
+    </row>
+    <row r="117" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A117" s="57"/>
+    </row>
+    <row r="118" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A118" s="57"/>
+    </row>
+    <row r="119" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A119" s="57"/>
+    </row>
+    <row r="120" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A120" s="57"/>
+    </row>
+    <row r="121" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A121" s="57"/>
+    </row>
+    <row r="122" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A122" s="57"/>
+    </row>
+    <row r="123" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A123" s="57"/>
+    </row>
+    <row r="124" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A124" s="57"/>
+    </row>
+    <row r="125" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A125" s="57"/>
+    </row>
+    <row r="126" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A126" s="57"/>
+    </row>
+    <row r="127" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A127" s="57"/>
+    </row>
+    <row r="128" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A128" s="57"/>
+    </row>
+    <row r="129" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A129" s="57"/>
+    </row>
+    <row r="130" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A130" s="57"/>
+    </row>
+    <row r="131" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A131" s="57"/>
+    </row>
+    <row r="132" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A132" s="57"/>
+    </row>
+    <row r="133" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A133" s="57"/>
+    </row>
+    <row r="134" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A134" s="57"/>
+    </row>
+    <row r="135" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A135" s="57"/>
+    </row>
+    <row r="136" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="57"/>
+    </row>
+    <row r="137" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="57"/>
+    </row>
+    <row r="138" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="57"/>
+    </row>
+    <row r="139" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="57"/>
+    </row>
+    <row r="140" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="57"/>
+    </row>
+    <row r="141" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="57"/>
+    </row>
+    <row r="142" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="57"/>
+    </row>
+    <row r="143" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="57"/>
+    </row>
+    <row r="144" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="57"/>
+    </row>
+    <row r="145" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="57"/>
+    </row>
+    <row r="146" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="57"/>
+    </row>
+    <row r="147" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="57"/>
+    </row>
+    <row r="148" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="57"/>
+    </row>
+    <row r="149" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="57"/>
+    </row>
+    <row r="150" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="57"/>
+    </row>
+    <row r="151" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="57"/>
+    </row>
+    <row r="152" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="57"/>
+    </row>
+    <row r="153" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="57"/>
+    </row>
+    <row r="154" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="57"/>
+    </row>
+    <row r="155" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="57"/>
+    </row>
+    <row r="156" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="57"/>
+    </row>
+    <row r="157" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="57"/>
+    </row>
+    <row r="158" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="57"/>
+    </row>
+    <row r="159" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="57"/>
+    </row>
+    <row r="160" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="57"/>
+    </row>
+    <row r="161" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="57"/>
+    </row>
+    <row r="162" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="57"/>
+    </row>
+    <row r="163" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="57"/>
+    </row>
+    <row r="164" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" s="57"/>
+    </row>
+    <row r="165" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="57"/>
+    </row>
+    <row r="166" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="57"/>
+    </row>
+    <row r="167" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="57"/>
+    </row>
+    <row r="168" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="57"/>
+    </row>
+    <row r="169" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="57"/>
+    </row>
+    <row r="170" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="57"/>
+    </row>
+    <row r="171" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="57"/>
+    </row>
+    <row r="172" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="57"/>
+    </row>
+    <row r="173" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="57"/>
+    </row>
+    <row r="174" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174" s="57"/>
+    </row>
+    <row r="175" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="57"/>
+    </row>
+    <row r="176" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="57"/>
+    </row>
+    <row r="177" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="57"/>
+    </row>
+    <row r="178" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="57"/>
+    </row>
+    <row r="179" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="57"/>
+    </row>
+    <row r="180" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="57"/>
+    </row>
+    <row r="181" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="57"/>
+    </row>
+    <row r="182" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="57"/>
+    </row>
+    <row r="183" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="57"/>
+    </row>
+    <row r="184" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="57"/>
+    </row>
+    <row r="185" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="57"/>
+    </row>
+    <row r="186" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="57"/>
+    </row>
+    <row r="187" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="57"/>
+    </row>
+    <row r="188" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="57"/>
+    </row>
+    <row r="189" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="57"/>
+    </row>
+    <row r="190" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="57"/>
+    </row>
+    <row r="191" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="57"/>
+    </row>
+    <row r="192" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="57"/>
+    </row>
+    <row r="193" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="57"/>
+    </row>
+    <row r="194" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="57"/>
+    </row>
+    <row r="195" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="57"/>
+    </row>
+    <row r="196" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="57"/>
+    </row>
+    <row r="197" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="57"/>
+    </row>
+    <row r="198" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="57"/>
+    </row>
+    <row r="199" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="57"/>
+    </row>
+    <row r="200" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="57"/>
+    </row>
+    <row r="201" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="57"/>
+    </row>
+    <row r="202" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="57"/>
+    </row>
+    <row r="203" spans="1:1" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A44:A51"/>
-    <mergeCell ref="A53:A61"/>
+    <mergeCell ref="A48:A55"/>
+    <mergeCell ref="A57:A65"/>
     <mergeCell ref="A3:A28"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A30:A42"/>
+    <mergeCell ref="A30:A46"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/other/Таблица неисправностей и предупреждений.xlsx
+++ b/other/Таблица неисправностей и предупреждений.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="225">
   <si>
     <t>Защита</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>Нет КЧ (ПРМ1; ПРМ2; ПРМ1,ПРМ2)</t>
+  </si>
+  <si>
+    <t>Параметр - перенесен на вкладку "Интерфейс"</t>
   </si>
 </sst>
 </file>
@@ -791,7 +794,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -810,6 +813,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -1486,7 +1495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -1815,6 +1824,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1827,18 +1839,18 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -1855,6 +1867,23 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1870,26 +1899,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2230,10 +2252,10 @@
       <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2256,8 +2278,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="122"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -2279,8 +2301,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="122"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="123"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -2302,8 +2324,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="122"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="123"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -2325,8 +2347,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="122"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="123"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -2348,8 +2370,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="122"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -2371,8 +2393,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="122"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="123"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -2394,8 +2416,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="122"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="123"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2417,8 +2439,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="123"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2440,8 +2462,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="122"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="123"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -2463,8 +2485,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="122"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -2486,8 +2508,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="122"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="123"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2509,8 +2531,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="122"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="123"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -2532,8 +2554,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="122"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="123"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -2555,8 +2577,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="122"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="123"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -2578,8 +2600,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="122"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="123"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -2601,8 +2623,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="122"/>
-      <c r="B18" s="127" t="s">
+      <c r="A18" s="123"/>
+      <c r="B18" s="125" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2625,8 +2647,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="122"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="123"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -2648,8 +2670,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="122"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="123"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -2671,8 +2693,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="122"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="123"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -2694,8 +2716,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="122"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="123"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -2717,8 +2739,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="122"/>
-      <c r="B23" s="125"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -2740,8 +2762,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="122"/>
-      <c r="B24" s="125"/>
+      <c r="A24" s="123"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -2763,8 +2785,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="122"/>
-      <c r="B25" s="125"/>
+      <c r="A25" s="123"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -2786,8 +2808,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="122"/>
-      <c r="B26" s="125"/>
+      <c r="A26" s="123"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -2809,8 +2831,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="123"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2832,8 +2854,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
-      <c r="B28" s="125"/>
+      <c r="A28" s="123"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2855,8 +2877,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="125"/>
+      <c r="A29" s="123"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -2878,8 +2900,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="122"/>
-      <c r="B30" s="125"/>
+      <c r="A30" s="123"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2901,8 +2923,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="122"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="123"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -2924,8 +2946,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="123"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -2947,8 +2969,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="123"/>
-      <c r="B33" s="126"/>
+      <c r="A33" s="124"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -2990,10 +3012,10 @@
       <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="120" t="s">
+      <c r="A35" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="B35" s="127" t="s">
+      <c r="B35" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3017,8 +3039,8 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="121"/>
-      <c r="B36" s="125"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="126"/>
       <c r="C36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3040,8 +3062,8 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="122"/>
-      <c r="B37" s="125"/>
+      <c r="A37" s="123"/>
+      <c r="B37" s="126"/>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
@@ -3063,8 +3085,8 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="122"/>
-      <c r="B38" s="125"/>
+      <c r="A38" s="123"/>
+      <c r="B38" s="126"/>
       <c r="C38" s="2" t="s">
         <v>10</v>
       </c>
@@ -3086,8 +3108,8 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="122"/>
-      <c r="B39" s="125"/>
+      <c r="A39" s="123"/>
+      <c r="B39" s="126"/>
       <c r="C39" s="2" t="s">
         <v>11</v>
       </c>
@@ -3109,8 +3131,8 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="122"/>
-      <c r="B40" s="125"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="126"/>
       <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
@@ -3132,8 +3154,8 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
-      <c r="B41" s="125"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="126"/>
       <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3155,8 +3177,8 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
-      <c r="B42" s="125"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="126"/>
       <c r="C42" s="2" t="s">
         <v>14</v>
       </c>
@@ -3178,8 +3200,8 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="122"/>
-      <c r="B43" s="125"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="126"/>
       <c r="C43" s="2" t="s">
         <v>15</v>
       </c>
@@ -3201,8 +3223,8 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="122"/>
-      <c r="B44" s="125"/>
+      <c r="A44" s="123"/>
+      <c r="B44" s="126"/>
       <c r="C44" s="2" t="s">
         <v>16</v>
       </c>
@@ -3224,8 +3246,8 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
-      <c r="B45" s="125"/>
+      <c r="A45" s="123"/>
+      <c r="B45" s="126"/>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
@@ -3247,8 +3269,8 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="122"/>
-      <c r="B46" s="125"/>
+      <c r="A46" s="123"/>
+      <c r="B46" s="126"/>
       <c r="C46" s="2" t="s">
         <v>18</v>
       </c>
@@ -3270,8 +3292,8 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="122"/>
-      <c r="B47" s="125"/>
+      <c r="A47" s="123"/>
+      <c r="B47" s="126"/>
       <c r="C47" s="2" t="s">
         <v>19</v>
       </c>
@@ -3293,8 +3315,8 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="122"/>
-      <c r="B48" s="125"/>
+      <c r="A48" s="123"/>
+      <c r="B48" s="126"/>
       <c r="C48" s="2" t="s">
         <v>20</v>
       </c>
@@ -3316,8 +3338,8 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="122"/>
-      <c r="B49" s="125"/>
+      <c r="A49" s="123"/>
+      <c r="B49" s="126"/>
       <c r="C49" s="2" t="s">
         <v>21</v>
       </c>
@@ -3339,8 +3361,8 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="122"/>
-      <c r="B50" s="126"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="127"/>
       <c r="C50" s="3" t="s">
         <v>22</v>
       </c>
@@ -3362,8 +3384,8 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="122"/>
-      <c r="B51" s="127" t="s">
+      <c r="A51" s="123"/>
+      <c r="B51" s="125" t="s">
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -3386,8 +3408,8 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
-      <c r="B52" s="125"/>
+      <c r="A52" s="123"/>
+      <c r="B52" s="126"/>
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -3409,8 +3431,8 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
-      <c r="B53" s="125"/>
+      <c r="A53" s="123"/>
+      <c r="B53" s="126"/>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
@@ -3432,8 +3454,8 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
-      <c r="B54" s="125"/>
+      <c r="A54" s="123"/>
+      <c r="B54" s="126"/>
       <c r="C54" s="2" t="s">
         <v>10</v>
       </c>
@@ -3455,8 +3477,8 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="122"/>
-      <c r="B55" s="125"/>
+      <c r="A55" s="123"/>
+      <c r="B55" s="126"/>
       <c r="C55" s="2" t="s">
         <v>11</v>
       </c>
@@ -3478,8 +3500,8 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="122"/>
-      <c r="B56" s="125"/>
+      <c r="A56" s="123"/>
+      <c r="B56" s="126"/>
       <c r="C56" s="2" t="s">
         <v>12</v>
       </c>
@@ -3501,8 +3523,8 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="122"/>
-      <c r="B57" s="125"/>
+      <c r="A57" s="123"/>
+      <c r="B57" s="126"/>
       <c r="C57" s="2" t="s">
         <v>13</v>
       </c>
@@ -3524,8 +3546,8 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="122"/>
-      <c r="B58" s="125"/>
+      <c r="A58" s="123"/>
+      <c r="B58" s="126"/>
       <c r="C58" s="2" t="s">
         <v>14</v>
       </c>
@@ -3547,8 +3569,8 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
-      <c r="B59" s="125"/>
+      <c r="A59" s="123"/>
+      <c r="B59" s="126"/>
       <c r="C59" s="2" t="s">
         <v>15</v>
       </c>
@@ -3570,8 +3592,8 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
-      <c r="B60" s="125"/>
+      <c r="A60" s="123"/>
+      <c r="B60" s="126"/>
       <c r="C60" s="2" t="s">
         <v>16</v>
       </c>
@@ -3593,8 +3615,8 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
-      <c r="B61" s="125"/>
+      <c r="A61" s="123"/>
+      <c r="B61" s="126"/>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
@@ -3616,8 +3638,8 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
-      <c r="B62" s="125"/>
+      <c r="A62" s="123"/>
+      <c r="B62" s="126"/>
       <c r="C62" s="2" t="s">
         <v>18</v>
       </c>
@@ -3639,8 +3661,8 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
-      <c r="B63" s="125"/>
+      <c r="A63" s="123"/>
+      <c r="B63" s="126"/>
       <c r="C63" s="2" t="s">
         <v>19</v>
       </c>
@@ -3662,8 +3684,8 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
-      <c r="B64" s="125"/>
+      <c r="A64" s="123"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="2" t="s">
         <v>20</v>
       </c>
@@ -3685,8 +3707,8 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="122"/>
-      <c r="B65" s="125"/>
+      <c r="A65" s="123"/>
+      <c r="B65" s="126"/>
       <c r="C65" s="2" t="s">
         <v>21</v>
       </c>
@@ -3708,8 +3730,8 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="123"/>
-      <c r="B66" s="126"/>
+      <c r="A66" s="124"/>
+      <c r="B66" s="127"/>
       <c r="C66" s="3" t="s">
         <v>22</v>
       </c>
@@ -3751,10 +3773,10 @@
       <c r="H67" s="49"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="120" t="s">
+      <c r="A68" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B68" s="124" t="s">
+      <c r="B68" s="128" t="s">
         <v>1</v>
       </c>
       <c r="C68" s="36" t="s">
@@ -3777,8 +3799,8 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="121"/>
-      <c r="B69" s="125"/>
+      <c r="A69" s="122"/>
+      <c r="B69" s="126"/>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
@@ -3800,8 +3822,8 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="122"/>
-      <c r="B70" s="125"/>
+      <c r="A70" s="123"/>
+      <c r="B70" s="126"/>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3823,8 +3845,8 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="122"/>
-      <c r="B71" s="125"/>
+      <c r="A71" s="123"/>
+      <c r="B71" s="126"/>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
@@ -3846,8 +3868,8 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="122"/>
-      <c r="B72" s="125"/>
+      <c r="A72" s="123"/>
+      <c r="B72" s="126"/>
       <c r="C72" s="2" t="s">
         <v>11</v>
       </c>
@@ -3869,8 +3891,8 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="122"/>
-      <c r="B73" s="125"/>
+      <c r="A73" s="123"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="2" t="s">
         <v>12</v>
       </c>
@@ -3892,8 +3914,8 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="122"/>
-      <c r="B74" s="125"/>
+      <c r="A74" s="123"/>
+      <c r="B74" s="126"/>
       <c r="C74" s="2" t="s">
         <v>13</v>
       </c>
@@ -3915,8 +3937,8 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="122"/>
-      <c r="B75" s="125"/>
+      <c r="A75" s="123"/>
+      <c r="B75" s="126"/>
       <c r="C75" s="2" t="s">
         <v>14</v>
       </c>
@@ -3938,8 +3960,8 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="122"/>
-      <c r="B76" s="125"/>
+      <c r="A76" s="123"/>
+      <c r="B76" s="126"/>
       <c r="C76" s="2" t="s">
         <v>15</v>
       </c>
@@ -3961,8 +3983,8 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="122"/>
-      <c r="B77" s="125"/>
+      <c r="A77" s="123"/>
+      <c r="B77" s="126"/>
       <c r="C77" s="2" t="s">
         <v>16</v>
       </c>
@@ -3984,8 +4006,8 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="122"/>
-      <c r="B78" s="125"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="126"/>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
@@ -4007,8 +4029,8 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="122"/>
-      <c r="B79" s="125"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="126"/>
       <c r="C79" s="2" t="s">
         <v>18</v>
       </c>
@@ -4030,8 +4052,8 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="122"/>
-      <c r="B80" s="125"/>
+      <c r="A80" s="123"/>
+      <c r="B80" s="126"/>
       <c r="C80" s="2" t="s">
         <v>19</v>
       </c>
@@ -4053,8 +4075,8 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="122"/>
-      <c r="B81" s="125"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="126"/>
       <c r="C81" s="2" t="s">
         <v>20</v>
       </c>
@@ -4076,8 +4098,8 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="122"/>
-      <c r="B82" s="125"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="126"/>
       <c r="C82" s="2" t="s">
         <v>21</v>
       </c>
@@ -4099,8 +4121,8 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="122"/>
-      <c r="B83" s="126"/>
+      <c r="A83" s="123"/>
+      <c r="B83" s="127"/>
       <c r="C83" s="3" t="s">
         <v>22</v>
       </c>
@@ -4122,8 +4144,8 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="122"/>
-      <c r="B84" s="124" t="s">
+      <c r="A84" s="123"/>
+      <c r="B84" s="128" t="s">
         <v>2</v>
       </c>
       <c r="C84" s="36" t="s">
@@ -4146,8 +4168,8 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="122"/>
-      <c r="B85" s="125"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="2" t="s">
         <v>8</v>
       </c>
@@ -4169,8 +4191,8 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="122"/>
-      <c r="B86" s="125"/>
+      <c r="A86" s="123"/>
+      <c r="B86" s="126"/>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
@@ -4192,8 +4214,8 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="122"/>
-      <c r="B87" s="125"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="126"/>
       <c r="C87" s="2" t="s">
         <v>10</v>
       </c>
@@ -4215,8 +4237,8 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="122"/>
-      <c r="B88" s="125"/>
+      <c r="A88" s="123"/>
+      <c r="B88" s="126"/>
       <c r="C88" s="2" t="s">
         <v>11</v>
       </c>
@@ -4238,8 +4260,8 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="122"/>
-      <c r="B89" s="125"/>
+      <c r="A89" s="123"/>
+      <c r="B89" s="126"/>
       <c r="C89" s="2" t="s">
         <v>12</v>
       </c>
@@ -4261,8 +4283,8 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="122"/>
-      <c r="B90" s="125"/>
+      <c r="A90" s="123"/>
+      <c r="B90" s="126"/>
       <c r="C90" s="2" t="s">
         <v>13</v>
       </c>
@@ -4284,8 +4306,8 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="122"/>
-      <c r="B91" s="125"/>
+      <c r="A91" s="123"/>
+      <c r="B91" s="126"/>
       <c r="C91" s="2" t="s">
         <v>14</v>
       </c>
@@ -4307,8 +4329,8 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="122"/>
-      <c r="B92" s="125"/>
+      <c r="A92" s="123"/>
+      <c r="B92" s="126"/>
       <c r="C92" s="2" t="s">
         <v>15</v>
       </c>
@@ -4330,8 +4352,8 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="122"/>
-      <c r="B93" s="125"/>
+      <c r="A93" s="123"/>
+      <c r="B93" s="126"/>
       <c r="C93" s="2" t="s">
         <v>16</v>
       </c>
@@ -4353,8 +4375,8 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="122"/>
-      <c r="B94" s="125"/>
+      <c r="A94" s="123"/>
+      <c r="B94" s="126"/>
       <c r="C94" s="2" t="s">
         <v>17</v>
       </c>
@@ -4376,8 +4398,8 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="122"/>
-      <c r="B95" s="125"/>
+      <c r="A95" s="123"/>
+      <c r="B95" s="126"/>
       <c r="C95" s="2" t="s">
         <v>18</v>
       </c>
@@ -4399,8 +4421,8 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="122"/>
-      <c r="B96" s="125"/>
+      <c r="A96" s="123"/>
+      <c r="B96" s="126"/>
       <c r="C96" s="2" t="s">
         <v>19</v>
       </c>
@@ -4422,8 +4444,8 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="122"/>
-      <c r="B97" s="125"/>
+      <c r="A97" s="123"/>
+      <c r="B97" s="126"/>
       <c r="C97" s="2" t="s">
         <v>20</v>
       </c>
@@ -4445,8 +4467,8 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="122"/>
-      <c r="B98" s="125"/>
+      <c r="A98" s="123"/>
+      <c r="B98" s="126"/>
       <c r="C98" s="2" t="s">
         <v>21</v>
       </c>
@@ -4468,8 +4490,8 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="123"/>
-      <c r="B99" s="126"/>
+      <c r="A99" s="124"/>
+      <c r="B99" s="127"/>
       <c r="C99" s="3" t="s">
         <v>22</v>
       </c>
@@ -4511,10 +4533,10 @@
       <c r="H100" s="46"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="120" t="s">
+      <c r="A101" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="127" t="s">
+      <c r="B101" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -4537,8 +4559,8 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="121"/>
-      <c r="B102" s="125"/>
+      <c r="A102" s="122"/>
+      <c r="B102" s="126"/>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
@@ -4560,8 +4582,8 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="122"/>
-      <c r="B103" s="125"/>
+      <c r="A103" s="123"/>
+      <c r="B103" s="126"/>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
@@ -4583,8 +4605,8 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="122"/>
-      <c r="B104" s="125"/>
+      <c r="A104" s="123"/>
+      <c r="B104" s="126"/>
       <c r="C104" s="2" t="s">
         <v>10</v>
       </c>
@@ -4606,8 +4628,8 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="122"/>
-      <c r="B105" s="125"/>
+      <c r="A105" s="123"/>
+      <c r="B105" s="126"/>
       <c r="C105" s="2" t="s">
         <v>11</v>
       </c>
@@ -4629,8 +4651,8 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="122"/>
-      <c r="B106" s="125"/>
+      <c r="A106" s="123"/>
+      <c r="B106" s="126"/>
       <c r="C106" s="2" t="s">
         <v>12</v>
       </c>
@@ -4652,8 +4674,8 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="122"/>
-      <c r="B107" s="125"/>
+      <c r="A107" s="123"/>
+      <c r="B107" s="126"/>
       <c r="C107" s="2" t="s">
         <v>13</v>
       </c>
@@ -4675,8 +4697,8 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="122"/>
-      <c r="B108" s="125"/>
+      <c r="A108" s="123"/>
+      <c r="B108" s="126"/>
       <c r="C108" s="2" t="s">
         <v>14</v>
       </c>
@@ -4698,8 +4720,8 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="122"/>
-      <c r="B109" s="125"/>
+      <c r="A109" s="123"/>
+      <c r="B109" s="126"/>
       <c r="C109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4721,8 +4743,8 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="122"/>
-      <c r="B110" s="125"/>
+      <c r="A110" s="123"/>
+      <c r="B110" s="126"/>
       <c r="C110" s="2" t="s">
         <v>16</v>
       </c>
@@ -4744,8 +4766,8 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="122"/>
-      <c r="B111" s="125"/>
+      <c r="A111" s="123"/>
+      <c r="B111" s="126"/>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
@@ -4767,8 +4789,8 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="122"/>
-      <c r="B112" s="125"/>
+      <c r="A112" s="123"/>
+      <c r="B112" s="126"/>
       <c r="C112" s="2" t="s">
         <v>18</v>
       </c>
@@ -4790,8 +4812,8 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="122"/>
-      <c r="B113" s="125"/>
+      <c r="A113" s="123"/>
+      <c r="B113" s="126"/>
       <c r="C113" s="2" t="s">
         <v>19</v>
       </c>
@@ -4813,8 +4835,8 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="122"/>
-      <c r="B114" s="125"/>
+      <c r="A114" s="123"/>
+      <c r="B114" s="126"/>
       <c r="C114" s="2" t="s">
         <v>20</v>
       </c>
@@ -4836,8 +4858,8 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="122"/>
-      <c r="B115" s="125"/>
+      <c r="A115" s="123"/>
+      <c r="B115" s="126"/>
       <c r="C115" s="2" t="s">
         <v>21</v>
       </c>
@@ -4859,8 +4881,8 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="122"/>
-      <c r="B116" s="126"/>
+      <c r="A116" s="123"/>
+      <c r="B116" s="127"/>
       <c r="C116" s="3" t="s">
         <v>22</v>
       </c>
@@ -4882,8 +4904,8 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="122"/>
-      <c r="B117" s="127" t="s">
+      <c r="A117" s="123"/>
+      <c r="B117" s="125" t="s">
         <v>2</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -4906,8 +4928,8 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="122"/>
-      <c r="B118" s="125"/>
+      <c r="A118" s="123"/>
+      <c r="B118" s="126"/>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
@@ -4929,8 +4951,8 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="122"/>
-      <c r="B119" s="125"/>
+      <c r="A119" s="123"/>
+      <c r="B119" s="126"/>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
@@ -4952,8 +4974,8 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="122"/>
-      <c r="B120" s="125"/>
+      <c r="A120" s="123"/>
+      <c r="B120" s="126"/>
       <c r="C120" s="2" t="s">
         <v>10</v>
       </c>
@@ -4975,8 +4997,8 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="122"/>
-      <c r="B121" s="125"/>
+      <c r="A121" s="123"/>
+      <c r="B121" s="126"/>
       <c r="C121" s="2" t="s">
         <v>11</v>
       </c>
@@ -4998,8 +5020,8 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="122"/>
-      <c r="B122" s="125"/>
+      <c r="A122" s="123"/>
+      <c r="B122" s="126"/>
       <c r="C122" s="2" t="s">
         <v>12</v>
       </c>
@@ -5021,8 +5043,8 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="122"/>
-      <c r="B123" s="125"/>
+      <c r="A123" s="123"/>
+      <c r="B123" s="126"/>
       <c r="C123" s="2" t="s">
         <v>13</v>
       </c>
@@ -5044,8 +5066,8 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="122"/>
-      <c r="B124" s="125"/>
+      <c r="A124" s="123"/>
+      <c r="B124" s="126"/>
       <c r="C124" s="2" t="s">
         <v>14</v>
       </c>
@@ -5067,8 +5089,8 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="122"/>
-      <c r="B125" s="125"/>
+      <c r="A125" s="123"/>
+      <c r="B125" s="126"/>
       <c r="C125" s="2" t="s">
         <v>15</v>
       </c>
@@ -5090,8 +5112,8 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="122"/>
-      <c r="B126" s="125"/>
+      <c r="A126" s="123"/>
+      <c r="B126" s="126"/>
       <c r="C126" s="2" t="s">
         <v>16</v>
       </c>
@@ -5113,8 +5135,8 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="122"/>
-      <c r="B127" s="125"/>
+      <c r="A127" s="123"/>
+      <c r="B127" s="126"/>
       <c r="C127" s="2" t="s">
         <v>17</v>
       </c>
@@ -5136,8 +5158,8 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="122"/>
-      <c r="B128" s="125"/>
+      <c r="A128" s="123"/>
+      <c r="B128" s="126"/>
       <c r="C128" s="2" t="s">
         <v>18</v>
       </c>
@@ -5159,8 +5181,8 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="122"/>
-      <c r="B129" s="125"/>
+      <c r="A129" s="123"/>
+      <c r="B129" s="126"/>
       <c r="C129" s="2" t="s">
         <v>19</v>
       </c>
@@ -5182,8 +5204,8 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="122"/>
-      <c r="B130" s="125"/>
+      <c r="A130" s="123"/>
+      <c r="B130" s="126"/>
       <c r="C130" s="2" t="s">
         <v>20</v>
       </c>
@@ -5205,8 +5227,8 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="122"/>
-      <c r="B131" s="125"/>
+      <c r="A131" s="123"/>
+      <c r="B131" s="126"/>
       <c r="C131" s="2" t="s">
         <v>21</v>
       </c>
@@ -5228,8 +5250,8 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="123"/>
-      <c r="B132" s="126"/>
+      <c r="A132" s="124"/>
+      <c r="B132" s="127"/>
       <c r="C132" s="3" t="s">
         <v>22</v>
       </c>
@@ -5272,18 +5294,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A68:A99"/>
+    <mergeCell ref="B68:B83"/>
+    <mergeCell ref="B84:B99"/>
+    <mergeCell ref="A101:A132"/>
+    <mergeCell ref="B101:B116"/>
+    <mergeCell ref="B117:B132"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B18:B33"/>
     <mergeCell ref="A35:A66"/>
     <mergeCell ref="B35:B50"/>
     <mergeCell ref="B51:B66"/>
-    <mergeCell ref="A68:A99"/>
-    <mergeCell ref="B68:B83"/>
-    <mergeCell ref="B84:B99"/>
-    <mergeCell ref="A101:A132"/>
-    <mergeCell ref="B101:B116"/>
-    <mergeCell ref="B117:B132"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -5347,10 +5369,10 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -5374,8 +5396,8 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="129"/>
-      <c r="B3" s="125"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="126"/>
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
@@ -5397,8 +5419,8 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="130"/>
-      <c r="B4" s="125"/>
+      <c r="A4" s="131"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5420,8 +5442,8 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="130"/>
-      <c r="B5" s="125"/>
+      <c r="A5" s="131"/>
+      <c r="B5" s="126"/>
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
@@ -5443,8 +5465,8 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="130"/>
-      <c r="B6" s="125"/>
+      <c r="A6" s="131"/>
+      <c r="B6" s="126"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -5466,8 +5488,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="130"/>
-      <c r="B7" s="125"/>
+      <c r="A7" s="131"/>
+      <c r="B7" s="126"/>
       <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
@@ -5489,8 +5511,8 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="130"/>
-      <c r="B8" s="125"/>
+      <c r="A8" s="131"/>
+      <c r="B8" s="126"/>
       <c r="C8" s="2" t="s">
         <v>13</v>
       </c>
@@ -5512,8 +5534,8 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="125"/>
+      <c r="A9" s="131"/>
+      <c r="B9" s="126"/>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
@@ -5535,8 +5557,8 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="125"/>
+      <c r="A10" s="131"/>
+      <c r="B10" s="126"/>
       <c r="C10" s="2" t="s">
         <v>15</v>
       </c>
@@ -5558,8 +5580,8 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="125"/>
+      <c r="A11" s="131"/>
+      <c r="B11" s="126"/>
       <c r="C11" s="2" t="s">
         <v>16</v>
       </c>
@@ -5581,8 +5603,8 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="130"/>
-      <c r="B12" s="125"/>
+      <c r="A12" s="131"/>
+      <c r="B12" s="126"/>
       <c r="C12" s="2" t="s">
         <v>17</v>
       </c>
@@ -5604,8 +5626,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="130"/>
-      <c r="B13" s="125"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="126"/>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
@@ -5627,8 +5649,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="130"/>
-      <c r="B14" s="125"/>
+      <c r="A14" s="131"/>
+      <c r="B14" s="126"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
@@ -5650,8 +5672,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="130"/>
-      <c r="B15" s="125"/>
+      <c r="A15" s="131"/>
+      <c r="B15" s="126"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
@@ -5673,8 +5695,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="130"/>
-      <c r="B16" s="125"/>
+      <c r="A16" s="131"/>
+      <c r="B16" s="126"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
@@ -5696,8 +5718,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="130"/>
-      <c r="B17" s="126"/>
+      <c r="A17" s="131"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="3" t="s">
         <v>22</v>
       </c>
@@ -5719,8 +5741,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="130"/>
-      <c r="B18" s="127" t="s">
+      <c r="A18" s="131"/>
+      <c r="B18" s="125" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -5743,8 +5765,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="130"/>
-      <c r="B19" s="125"/>
+      <c r="A19" s="131"/>
+      <c r="B19" s="126"/>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
@@ -5766,8 +5788,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="130"/>
-      <c r="B20" s="125"/>
+      <c r="A20" s="131"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
@@ -5789,8 +5811,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="130"/>
-      <c r="B21" s="125"/>
+      <c r="A21" s="131"/>
+      <c r="B21" s="126"/>
       <c r="C21" s="2" t="s">
         <v>10</v>
       </c>
@@ -5812,8 +5834,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="130"/>
-      <c r="B22" s="125"/>
+      <c r="A22" s="131"/>
+      <c r="B22" s="126"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -5835,8 +5857,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="130"/>
-      <c r="B23" s="125"/>
+      <c r="A23" s="131"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="2" t="s">
         <v>12</v>
       </c>
@@ -5858,8 +5880,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="130"/>
-      <c r="B24" s="125"/>
+      <c r="A24" s="131"/>
+      <c r="B24" s="126"/>
       <c r="C24" s="2" t="s">
         <v>13</v>
       </c>
@@ -5881,8 +5903,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="130"/>
-      <c r="B25" s="125"/>
+      <c r="A25" s="131"/>
+      <c r="B25" s="126"/>
       <c r="C25" s="2" t="s">
         <v>14</v>
       </c>
@@ -5904,8 +5926,8 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="130"/>
-      <c r="B26" s="125"/>
+      <c r="A26" s="131"/>
+      <c r="B26" s="126"/>
       <c r="C26" s="2" t="s">
         <v>15</v>
       </c>
@@ -5927,8 +5949,8 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="130"/>
-      <c r="B27" s="125"/>
+      <c r="A27" s="131"/>
+      <c r="B27" s="126"/>
       <c r="C27" s="2" t="s">
         <v>16</v>
       </c>
@@ -5950,8 +5972,8 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="130"/>
-      <c r="B28" s="125"/>
+      <c r="A28" s="131"/>
+      <c r="B28" s="126"/>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
@@ -5973,8 +5995,8 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="130"/>
-      <c r="B29" s="125"/>
+      <c r="A29" s="131"/>
+      <c r="B29" s="126"/>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
@@ -5996,8 +6018,8 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="130"/>
-      <c r="B30" s="125"/>
+      <c r="A30" s="131"/>
+      <c r="B30" s="126"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -6019,8 +6041,8 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="130"/>
-      <c r="B31" s="125"/>
+      <c r="A31" s="131"/>
+      <c r="B31" s="126"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -6042,8 +6064,8 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="130"/>
-      <c r="B32" s="125"/>
+      <c r="A32" s="131"/>
+      <c r="B32" s="126"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -6065,8 +6087,8 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="131"/>
-      <c r="B33" s="126"/>
+      <c r="A33" s="132"/>
+      <c r="B33" s="127"/>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
@@ -6155,7 +6177,7 @@
       <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>83</v>
       </c>
       <c r="B2" s="52">
@@ -6178,7 +6200,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="132"/>
+      <c r="A3" s="133"/>
       <c r="B3" s="51">
         <f xml:space="preserve"> B2+1</f>
         <v>1</v>
@@ -6201,7 +6223,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="132"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="51">
         <f t="shared" ref="B4:B33" si="0" xml:space="preserve"> B3+1</f>
         <v>2</v>
@@ -6224,7 +6246,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="132"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="51">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -6247,7 +6269,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="132"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -6270,7 +6292,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="132"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="51">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -6293,7 +6315,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="132"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -6316,7 +6338,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="132"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="51">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -6339,7 +6361,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="132"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="51">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -6362,7 +6384,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="132"/>
+      <c r="A11" s="133"/>
       <c r="B11" s="51">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -6385,7 +6407,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="132"/>
+      <c r="A12" s="133"/>
       <c r="B12" s="51">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -6408,7 +6430,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="132"/>
+      <c r="A13" s="133"/>
       <c r="B13" s="51">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -6431,7 +6453,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="132"/>
+      <c r="A14" s="133"/>
       <c r="B14" s="51">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -6454,7 +6476,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="132"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -6477,7 +6499,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="132"/>
+      <c r="A16" s="133"/>
       <c r="B16" s="51">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -6500,7 +6522,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="132"/>
+      <c r="A17" s="133"/>
       <c r="B17" s="51">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -6523,7 +6545,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="132"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="51">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -6546,7 +6568,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="132"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="51">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -6569,7 +6591,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="132"/>
+      <c r="A20" s="133"/>
       <c r="B20" s="51">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -6592,7 +6614,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="132"/>
+      <c r="A21" s="133"/>
       <c r="B21" s="51">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -6615,7 +6637,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="132"/>
+      <c r="A22" s="133"/>
       <c r="B22" s="51">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -6638,7 +6660,7 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="132"/>
+      <c r="A23" s="133"/>
       <c r="B23" s="51">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -6661,7 +6683,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="132"/>
+      <c r="A24" s="133"/>
       <c r="B24" s="51">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -6684,7 +6706,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="132"/>
+      <c r="A25" s="133"/>
       <c r="B25" s="51">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6707,7 +6729,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="132"/>
+      <c r="A26" s="133"/>
       <c r="B26" s="51">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6731,7 +6753,7 @@
       <c r="J26" s="57"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="132"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="51">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6754,7 +6776,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="132"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="51">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6777,7 +6799,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="51">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6800,7 +6822,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="132"/>
+      <c r="A30" s="133"/>
       <c r="B30" s="51">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6823,7 +6845,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="132"/>
+      <c r="A31" s="133"/>
       <c r="B31" s="51">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6846,7 +6868,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="132"/>
+      <c r="A32" s="133"/>
       <c r="B32" s="51">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6869,7 +6891,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="132"/>
+      <c r="A33" s="133"/>
       <c r="B33" s="51">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6892,7 +6914,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="133"/>
+      <c r="A34" s="134"/>
       <c r="B34" s="51">
         <v>32</v>
       </c>
@@ -6973,7 +6995,7 @@
   </sheetPr>
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7003,35 +7025,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="144"/>
-      <c r="B1" s="142" t="s">
+      <c r="A1" s="140"/>
+      <c r="B1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="134" t="s">
+      <c r="D1" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="134" t="s">
+      <c r="E1" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="136" t="s">
+      <c r="F1" s="144" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="138"/>
+      <c r="G1" s="145"/>
+      <c r="H1" s="145"/>
+      <c r="I1" s="145"/>
+      <c r="J1" s="145"/>
+      <c r="K1" s="146"/>
       <c r="L1" s="46"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
       <c r="F2" s="66" t="s">
         <v>174</v>
       </c>
@@ -7053,7 +7075,7 @@
       <c r="L2" s="46"/>
     </row>
     <row r="3" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="139" t="s">
+      <c r="A3" s="135" t="s">
         <v>45</v>
       </c>
       <c r="B3" s="64">
@@ -7091,7 +7113,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="140"/>
+      <c r="A4" s="136"/>
       <c r="B4" s="58">
         <f>B3+1</f>
         <v>2</v>
@@ -7129,7 +7151,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="140"/>
+      <c r="A5" s="136"/>
       <c r="B5" s="58">
         <f t="shared" ref="B5:B18" si="0">B4+1</f>
         <v>3</v>
@@ -7167,7 +7189,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
+      <c r="A6" s="136"/>
       <c r="B6" s="58">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -7205,7 +7227,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="140"/>
+      <c r="A7" s="136"/>
       <c r="B7" s="58">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -7243,7 +7265,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="140"/>
+      <c r="A8" s="136"/>
       <c r="B8" s="58">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -7281,7 +7303,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="140"/>
+      <c r="A9" s="136"/>
       <c r="B9" s="58">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -7319,7 +7341,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="140"/>
+      <c r="A10" s="136"/>
       <c r="B10" s="58">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -7357,36 +7379,36 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="140"/>
+      <c r="A11" s="136"/>
       <c r="B11" s="58">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="73" t="s">
+      <c r="C11" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="D11" s="73" t="s">
+      <c r="D11" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="E11" s="73" t="s">
+      <c r="E11" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="148" t="s">
         <v>146</v>
       </c>
-      <c r="G11" s="117" t="s">
+      <c r="G11" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="H11" s="117" t="s">
+      <c r="H11" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="117" t="s">
+      <c r="I11" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="J11" s="117" t="s">
+      <c r="J11" s="149" t="s">
         <v>146</v>
       </c>
-      <c r="K11" s="118" t="s">
+      <c r="K11" s="150" t="s">
         <v>146</v>
       </c>
       <c r="L11" s="25">
@@ -7395,7 +7417,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="140"/>
+      <c r="A12" s="136"/>
       <c r="B12" s="58">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -7433,7 +7455,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="140"/>
+      <c r="A13" s="136"/>
       <c r="B13" s="58">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -7471,7 +7493,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="140"/>
+      <c r="A14" s="136"/>
       <c r="B14" s="58">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -7509,7 +7531,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="140"/>
+      <c r="A15" s="136"/>
       <c r="B15" s="58">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -7547,7 +7569,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="140"/>
+      <c r="A16" s="136"/>
       <c r="B16" s="58">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -7585,7 +7607,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="140"/>
+      <c r="A17" s="136"/>
       <c r="B17" s="58">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -7623,7 +7645,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="140"/>
+      <c r="A18" s="136"/>
       <c r="B18" s="59">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -7661,7 +7683,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="140"/>
+      <c r="A19" s="136"/>
       <c r="B19" s="59">
         <f>B18+1</f>
         <v>17</v>
@@ -7699,7 +7721,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="140"/>
+      <c r="A20" s="136"/>
       <c r="B20" s="59">
         <f>B19+1</f>
         <v>18</v>
@@ -7737,7 +7759,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="140"/>
+      <c r="A21" s="136"/>
       <c r="B21" s="59">
         <v>19</v>
       </c>
@@ -7773,7 +7795,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="140"/>
+      <c r="A22" s="136"/>
       <c r="B22" s="59">
         <v>20</v>
       </c>
@@ -7809,7 +7831,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="140"/>
+      <c r="A23" s="136"/>
       <c r="B23" s="59">
         <v>21</v>
       </c>
@@ -7845,7 +7867,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="140"/>
+      <c r="A24" s="136"/>
       <c r="B24" s="59">
         <v>22</v>
       </c>
@@ -7881,7 +7903,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="140"/>
+      <c r="A25" s="136"/>
       <c r="B25" s="59">
         <v>23</v>
       </c>
@@ -7917,7 +7939,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="140"/>
+      <c r="A26" s="136"/>
       <c r="B26" s="59">
         <v>24</v>
       </c>
@@ -7927,7 +7949,7 @@
       <c r="D26" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="146" t="s">
+      <c r="E26" s="120" t="s">
         <v>205</v>
       </c>
       <c r="F26" s="116" t="s">
@@ -7953,7 +7975,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="140"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="59">
         <v>25</v>
       </c>
@@ -7989,7 +8011,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="141"/>
+      <c r="A28" s="137"/>
       <c r="B28" s="59">
         <v>26</v>
       </c>
@@ -8057,7 +8079,7 @@
       <c r="L29" s="49"/>
     </row>
     <row r="30" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="120" t="s">
+      <c r="A30" s="121" t="s">
         <v>0</v>
       </c>
       <c r="B30" s="67">
@@ -8095,7 +8117,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="121"/>
+      <c r="A31" s="122"/>
       <c r="B31" s="65">
         <f>B30+1</f>
         <v>2</v>
@@ -8133,7 +8155,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="122"/>
+      <c r="A32" s="123"/>
       <c r="B32" s="65">
         <f t="shared" ref="B32:B43" si="2">B31+1</f>
         <v>3</v>
@@ -8171,7 +8193,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="122"/>
+      <c r="A33" s="123"/>
       <c r="B33" s="65">
         <f t="shared" si="2"/>
         <v>4</v>
@@ -8209,7 +8231,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="122"/>
+      <c r="A34" s="123"/>
       <c r="B34" s="65">
         <f t="shared" si="2"/>
         <v>5</v>
@@ -8247,7 +8269,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="122"/>
+      <c r="A35" s="123"/>
       <c r="B35" s="65">
         <f t="shared" si="2"/>
         <v>6</v>
@@ -8285,7 +8307,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="122"/>
+      <c r="A36" s="123"/>
       <c r="B36" s="65">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -8323,7 +8345,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="122"/>
+      <c r="A37" s="123"/>
       <c r="B37" s="65">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -8361,7 +8383,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="122"/>
+      <c r="A38" s="123"/>
       <c r="B38" s="65">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -8399,7 +8421,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="122"/>
+      <c r="A39" s="123"/>
       <c r="B39" s="65">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -8437,7 +8459,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="122"/>
+      <c r="A40" s="123"/>
       <c r="B40" s="65">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -8475,7 +8497,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="122"/>
+      <c r="A41" s="123"/>
       <c r="B41" s="65">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -8513,7 +8535,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="122"/>
+      <c r="A42" s="123"/>
       <c r="B42" s="65">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -8551,7 +8573,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A43" s="122"/>
+      <c r="A43" s="123"/>
       <c r="B43" s="65">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -8589,7 +8611,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="122"/>
+      <c r="A44" s="123"/>
       <c r="B44" s="65">
         <v>11</v>
       </c>
@@ -8625,7 +8647,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="122"/>
+      <c r="A45" s="123"/>
       <c r="B45" s="65">
         <v>12</v>
       </c>
@@ -8661,7 +8683,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="122"/>
+      <c r="A46" s="123"/>
       <c r="B46" s="65">
         <v>13</v>
       </c>
@@ -8729,7 +8751,7 @@
       <c r="L47" s="49"/>
     </row>
     <row r="48" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="120" t="s">
+      <c r="A48" s="121" t="s">
         <v>23</v>
       </c>
       <c r="B48" s="67">
@@ -8767,7 +8789,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="121"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="65">
         <f>B48+1</f>
         <v>2</v>
@@ -8805,7 +8827,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="122"/>
+      <c r="A50" s="123"/>
       <c r="B50" s="65">
         <f t="shared" ref="B50:B55" si="4">B49+1</f>
         <v>3</v>
@@ -8843,7 +8865,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="122"/>
+      <c r="A51" s="123"/>
       <c r="B51" s="65">
         <f t="shared" si="4"/>
         <v>4</v>
@@ -8881,7 +8903,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="122"/>
+      <c r="A52" s="123"/>
       <c r="B52" s="65">
         <f t="shared" si="4"/>
         <v>5</v>
@@ -8919,7 +8941,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="122"/>
+      <c r="A53" s="123"/>
       <c r="B53" s="65">
         <f t="shared" si="4"/>
         <v>6</v>
@@ -8957,7 +8979,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="122"/>
+      <c r="A54" s="123"/>
       <c r="B54" s="65">
         <f t="shared" si="4"/>
         <v>7</v>
@@ -8995,7 +9017,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="122"/>
+      <c r="A55" s="123"/>
       <c r="B55" s="65">
         <f t="shared" si="4"/>
         <v>8</v>
@@ -9065,7 +9087,7 @@
       <c r="L56" s="49"/>
     </row>
     <row r="57" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="120" t="s">
+      <c r="A57" s="121" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="67">
@@ -9103,7 +9125,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="121"/>
+      <c r="A58" s="122"/>
       <c r="B58" s="65">
         <f>B57+1</f>
         <v>2</v>
@@ -9141,7 +9163,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="122"/>
+      <c r="A59" s="123"/>
       <c r="B59" s="65">
         <f t="shared" ref="B59:B63" si="6">B58+1</f>
         <v>3</v>
@@ -9179,7 +9201,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="122"/>
+      <c r="A60" s="123"/>
       <c r="B60" s="65">
         <f t="shared" si="6"/>
         <v>4</v>
@@ -9217,7 +9239,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="122"/>
+      <c r="A61" s="123"/>
       <c r="B61" s="65">
         <f t="shared" si="6"/>
         <v>5</v>
@@ -9255,7 +9277,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="122"/>
+      <c r="A62" s="123"/>
       <c r="B62" s="65">
         <f t="shared" si="6"/>
         <v>6</v>
@@ -9293,7 +9315,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="122"/>
+      <c r="A63" s="123"/>
       <c r="B63" s="65">
         <f t="shared" si="6"/>
         <v>7</v>
@@ -9331,7 +9353,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="122"/>
+      <c r="A64" s="123"/>
       <c r="B64" s="65">
         <v>8</v>
       </c>
@@ -9367,7 +9389,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="122"/>
+      <c r="A65" s="123"/>
       <c r="B65" s="65">
         <v>9</v>
       </c>
@@ -9466,6 +9488,9 @@
     </row>
     <row r="72" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="57"/>
+      <c r="C72" s="151" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="73" spans="1:12" s="79" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="57"/>
@@ -9862,16 +9887,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="A48:A55"/>
     <mergeCell ref="A57:A65"/>
     <mergeCell ref="A3:A28"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A30:A46"/>
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="A48:A55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
